--- a/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
@@ -1,46 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="20610" windowHeight="8295" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="接口定义" r:id="rId5" sheetId="2"/>
-    <sheet name="流程分类" r:id="rId6" sheetId="3"/>
-    <sheet name="流程变量" r:id="rId7" sheetId="4"/>
-    <sheet name="回调信息" r:id="rId8" sheetId="5"/>
-    <sheet name="审批人规则" r:id="rId9" sheetId="6"/>
-    <sheet name="审批人规则行-变量" r:id="rId10" sheetId="7"/>
-    <sheet name="审批人规则行-参数的参数" r:id="rId11" sheetId="8"/>
-    <sheet name="条件" r:id="rId12" sheetId="9"/>
+    <sheet name="接口定义" sheetId="2" r:id="rId2"/>
+    <sheet name="流程分类" sheetId="3" r:id="rId3"/>
+    <sheet name="流程变量" sheetId="4" r:id="rId4"/>
+    <sheet name="回调信息" sheetId="5" r:id="rId5"/>
+    <sheet name="审批人规则" sheetId="6" r:id="rId6"/>
+    <sheet name="审批人规则行-变量" sheetId="7" r:id="rId7"/>
+    <sheet name="审批人规则行-参数的参数" sheetId="8" r:id="rId8"/>
+    <sheet name="条件" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="419">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -59,7 +53,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -72,7 +65,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -91,7 +83,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -110,7 +101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -129,7 +119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -161,7 +150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -180,7 +168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -199,7 +186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -221,7 +207,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -242,7 +227,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -263,7 +247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -284,7 +267,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -305,7 +287,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -317,7 +298,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -336,7 +316,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -348,7 +327,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -367,7 +345,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -386,7 +363,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -405,7 +381,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -424,7 +399,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -472,7 +446,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -491,7 +464,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -510,7 +482,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -529,7 +500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -541,7 +511,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -560,7 +529,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -579,7 +547,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -599,7 +566,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -618,7 +584,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -638,7 +603,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -657,7 +621,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -669,7 +632,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -688,7 +650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -707,7 +668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -731,7 +691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -750,7 +709,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -769,7 +727,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -788,7 +745,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -807,7 +763,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -819,7 +774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -838,7 +792,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -849,7 +802,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -870,7 +822,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -881,7 +832,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -900,7 +850,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -919,7 +868,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -943,7 +891,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -962,7 +909,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -982,7 +928,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1002,7 +947,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1022,7 +966,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1043,7 +986,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1063,7 +1005,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1098,7 +1039,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1119,7 +1059,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1131,7 +1070,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1150,7 +1088,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1171,7 +1108,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1190,7 +1126,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1203,7 +1138,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1222,7 +1156,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1241,7 +1174,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1260,7 +1192,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1275,7 +1206,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1294,7 +1224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1313,7 +1242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1332,7 +1260,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1351,7 +1278,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1367,7 +1293,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1377,7 +1302,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1396,7 +1320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1412,7 +1335,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1422,7 +1344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1441,7 +1362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1456,7 +1376,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1475,7 +1394,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1494,7 +1412,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1514,7 +1431,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1538,7 +1454,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1557,7 +1472,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1576,7 +1490,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1596,7 +1509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1617,7 +1529,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1628,7 +1539,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1638,7 +1548,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1650,7 +1559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1669,7 +1577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1688,7 +1595,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1707,7 +1613,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1727,7 +1632,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1746,7 +1650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1765,7 +1668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1785,7 +1687,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1804,7 +1705,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1823,7 +1723,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1842,7 +1741,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1862,7 +1760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1874,7 +1771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1885,7 +1781,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1895,7 +1790,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1907,7 +1801,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1926,7 +1819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1938,7 +1830,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1957,7 +1848,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1977,7 +1867,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2065,10 +1954,10 @@
     <t>Query employees by users</t>
   </si>
   <si>
-    <t>hzero-platform</t>
-  </si>
-  <si>
-    <t>hzero-platform.employee-user.getEmployee</t>
+    <t>choerodon-platform</t>
+  </si>
+  <si>
+    <t>choerodon-platform.employee-user.getEmployee</t>
   </si>
   <si>
     <t>1</t>
@@ -2101,7 +1990,7 @@
     <t>Query employees under a certain department</t>
   </si>
   <si>
-    <t>hzero-platform.workflow-hr.pageDepartmentEmployee</t>
+    <t>choerodon-platform.workflow-hr.pageDepartmentEmployee</t>
   </si>
   <si>
     <t>Workflow - HR</t>
@@ -2122,7 +2011,7 @@
     <t>Query position list</t>
   </si>
   <si>
-    <t>hzero-platform.workflow-plus-hr.pagePosition</t>
+    <t>choerodon-platform.workflow-plus-hr.pagePosition</t>
   </si>
   <si>
     <t>Workflow Plus - HR</t>
@@ -2143,7 +2032,7 @@
     <t>Query department list</t>
   </si>
   <si>
-    <t>hzero-platform.unit.listAllDepartment</t>
+    <t>choerodon-platform.unit.listAllDepartment</t>
   </si>
   <si>
     <t>Unit</t>
@@ -2152,6 +2041,51 @@
     <t>listAllDepartmentUsingGET</t>
   </si>
   <si>
+    <t>hwkf_def_interface-12</t>
+  </si>
+  <si>
+    <t>hwkf.ydy.approved</t>
+  </si>
+  <si>
+    <t>需求审批通过</t>
+  </si>
+  <si>
+    <t>backlog-approved</t>
+  </si>
+  <si>
+    <t>agile-service</t>
+  </si>
+  <si>
+    <t>agile-service.organization-invoke-backlog.approved</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>organization-invoke-backlog-controller</t>
+  </si>
+  <si>
+    <t>approvedUsingPOST</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface-13</t>
+  </si>
+  <si>
+    <t>hwkf.ydy.reject</t>
+  </si>
+  <si>
+    <t>需求审批拒绝</t>
+  </si>
+  <si>
+    <t>backlog-reject</t>
+  </si>
+  <si>
+    <t>agile-service.organization-invoke-backlog.reject</t>
+  </si>
+  <si>
+    <t>rejectUsingPOST</t>
+  </si>
+  <si>
     <t>接口定义参数</t>
   </si>
   <si>
@@ -2266,6 +2200,33 @@
     <t>userId</t>
   </si>
   <si>
+    <t>hwkf_def_interface_param-22</t>
+  </si>
+  <si>
+    <t>organization_id</t>
+  </si>
+  <si>
+    <t>组织ID</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-23</t>
+  </si>
+  <si>
+    <t>businessKey</t>
+  </si>
+  <si>
+    <t>参数对象</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-24</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-25</t>
+  </si>
+  <si>
     <t>流程分类</t>
   </si>
   <si>
@@ -2431,9 +2392,6 @@
     <t>Previous node approval result</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>LIST</t>
   </si>
   <si>
@@ -2516,9 +2474,6 @@
   </si>
   <si>
     <t>hwkf_def_variable-15</t>
-  </si>
-  <si>
-    <t>businessKey</t>
   </si>
   <si>
     <t>业务主键</t>
@@ -3046,12 +3001,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="140">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3087,38 +3077,155 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3139,645 +3246,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3808,8 +3302,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3910,13 +3590,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3925,32 +3857,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3960,156 +3904,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4182,9 +4039,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4442,285 +4296,295 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="27.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="16.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="19.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4730,13 +4594,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="88">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="89">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="90">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4757,10 +4621,10 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s" s="91">
+      <c r="M7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s" s="92">
+      <c r="N7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -4773,7 +4637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:17">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -4814,7 +4678,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:17">
       <c r="E9" t="s">
         <v>79</v>
       </c>
@@ -4855,7 +4719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:17">
       <c r="E10" t="s">
         <v>86</v>
       </c>
@@ -4896,7 +4760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:17">
       <c r="E11" t="s">
         <v>93</v>
       </c>
@@ -4937,138 +4801,159 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="12" spans="5:18">
+      <c r="E12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="5:18">
+      <c r="E13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s" s="93">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s" s="94">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s" s="95">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s" s="96">
-        <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="s">
         <v>60</v>
       </c>
-      <c r="N13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14">
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15">
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="str">
         <f>接口定义!$E$10</f>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15">
-        <f>接口定义!$E$11</f>
-      </c>
-      <c r="G15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16">
-        <f>接口定义!$E$9</f>
+        <v>hwkf_def_interface-10</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M16" t="s">
         <v>73</v>
@@ -5080,30 +4965,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17">
-        <f>接口定义!$E$9</f>
+        <v>133</v>
+      </c>
+      <c r="F17" t="str">
+        <f>接口定义!$E$11</f>
+        <v>hwkf_def_interface-11</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
         <v>73</v>
@@ -5115,27 +4998,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18">
+        <v>134</v>
+      </c>
+      <c r="F18" t="str">
         <f>接口定义!$E$9</f>
+        <v>hwkf_def_interface-9</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
         <v>73</v>
@@ -5147,30 +5031,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19">
-        <f>接口定义!$E$8</f>
+        <v>139</v>
+      </c>
+      <c r="F19" t="str">
+        <f>接口定义!$E$9</f>
+        <v>hwkf_def_interface-9</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s">
         <v>73</v>
@@ -5182,27 +5067,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20">
-        <f>接口定义!$E$8</f>
+        <v>145</v>
+      </c>
+      <c r="F20" t="str">
+        <f>接口定义!$E$9</f>
+        <v>hwkf_def_interface-9</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M20" t="s">
         <v>73</v>
@@ -5214,27 +5100,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21">
+        <v>146</v>
+      </c>
+      <c r="F21" t="str">
         <f>接口定义!$E$8</f>
+        <v>hwkf_def_interface-8</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
       </c>
       <c r="M21" t="s">
         <v>73</v>
@@ -5246,45 +5136,251 @@
         <v>75</v>
       </c>
     </row>
+    <row r="22" spans="5:15">
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="str">
+        <f>接口定义!$E$8</f>
+        <v>hwkf_def_interface-8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15">
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="str">
+        <f>接口定义!$E$8</f>
+        <v>hwkf_def_interface-8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15">
+      <c r="E24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f>接口定义!$E$12</f>
+        <v>hwkf_def_interface-12</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15">
+      <c r="E25" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f>接口定义!$E$12</f>
+        <v>hwkf_def_interface-12</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15">
+      <c r="E26" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f>接口定义!$E$13</f>
+        <v>hwkf_def_interface-13</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15">
+      <c r="E27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f>接口定义!$E$13</f>
+        <v>hwkf_def_interface-13</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5292,72 +5388,72 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="s" s="97">
-        <v>139</v>
-      </c>
-      <c r="E7" t="s" s="98">
-        <v>140</v>
-      </c>
-      <c r="F7" t="s" s="99">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" t="s" s="100">
-        <v>146</v>
+        <v>169</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="L7" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="O7" t="s" s="101">
+      <c r="O7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P7" t="s" s="102">
+      <c r="P7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:16">
       <c r="E8" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="J8" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="L8" t="s">
         <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="N8" t="s">
         <v>73</v>
@@ -5369,33 +5465,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:16">
       <c r="E9" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
-      </c>
-      <c r="K9">
+        <v>184</v>
+      </c>
+      <c r="K9" t="str">
         <f>流程分类!$E$8</f>
+        <v>hwkf_def_type-8</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
@@ -5408,44 +5505,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5453,99 +5554,100 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" t="s" s="103">
-        <v>163</v>
-      </c>
-      <c r="E7" t="s" s="104">
-        <v>164</v>
-      </c>
-      <c r="F7" t="s" s="105">
-        <v>165</v>
-      </c>
-      <c r="G7" t="s" s="106">
-        <v>166</v>
+        <v>186</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="L7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M7" t="s" s="107">
-        <v>172</v>
+        <v>195</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O7" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="Q7" t="s">
         <v>60</v>
       </c>
       <c r="R7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="T7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="U7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="V7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="W7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="X7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="Y7" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="Z7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="5:21">
       <c r="E8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8">
+        <v>207</v>
+      </c>
+      <c r="F8" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L8" t="s">
         <v>75</v>
@@ -5560,45 +5662,46 @@
         <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:21">
       <c r="E9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9">
+        <v>213</v>
+      </c>
+      <c r="F9" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="H9" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="I9" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O9" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="Q9" t="s">
         <v>73</v>
@@ -5610,33 +5713,34 @@
         <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="U9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:21">
       <c r="E10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10">
+        <v>221</v>
+      </c>
+      <c r="F10" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G10" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L10" t="s">
         <v>75</v>
@@ -5651,33 +5755,34 @@
         <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:21">
       <c r="E11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11">
+        <v>225</v>
+      </c>
+      <c r="F11" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="I11" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L11" t="s">
         <v>75</v>
@@ -5692,33 +5797,34 @@
         <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:26">
       <c r="E12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12">
+        <v>229</v>
+      </c>
+      <c r="F12" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L12" t="s">
         <v>75</v>
@@ -5733,36 +5839,37 @@
         <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U12" t="s">
         <v>75</v>
       </c>
       <c r="Z12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="5:26">
       <c r="E13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13">
+        <v>235</v>
+      </c>
+      <c r="F13" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="I13" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L13" t="s">
         <v>75</v>
@@ -5777,36 +5884,37 @@
         <v>75</v>
       </c>
       <c r="T13" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U13" t="s">
         <v>75</v>
       </c>
       <c r="Z13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="5:21">
       <c r="E14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14">
+        <v>240</v>
+      </c>
+      <c r="F14" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="H14" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L14" t="s">
         <v>75</v>
@@ -5821,33 +5929,34 @@
         <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="5:21">
       <c r="E15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15">
+        <v>244</v>
+      </c>
+      <c r="F15" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G15" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="I15" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L15" t="s">
         <v>75</v>
@@ -5862,39 +5971,40 @@
         <v>75</v>
       </c>
       <c r="T15" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="5:21">
       <c r="E16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16">
+        <v>247</v>
+      </c>
+      <c r="F16" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G16" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H16" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="I16" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L16" t="s">
         <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="Q16" t="s">
         <v>73</v>
@@ -5906,39 +6016,40 @@
         <v>75</v>
       </c>
       <c r="T16" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:21">
       <c r="E17" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17">
+        <v>252</v>
+      </c>
+      <c r="F17" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G17" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="H17" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="I17" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L17" t="s">
         <v>75</v>
       </c>
       <c r="N17" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="Q17" t="s">
         <v>73</v>
@@ -5950,39 +6061,40 @@
         <v>75</v>
       </c>
       <c r="T17" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:21">
       <c r="E18" t="s">
-        <v>234</v>
-      </c>
-      <c r="F18">
+        <v>256</v>
+      </c>
+      <c r="F18" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G18" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="H18" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="I18" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
         <v>75</v>
       </c>
       <c r="N18" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="Q18" t="s">
         <v>73</v>
@@ -5994,39 +6106,40 @@
         <v>75</v>
       </c>
       <c r="T18" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:21">
       <c r="E19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19">
+        <v>259</v>
+      </c>
+      <c r="F19" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="I19" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
         <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="Q19" t="s">
         <v>73</v>
@@ -6038,13 +6151,13 @@
         <v>75</v>
       </c>
       <c r="T19" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="U19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -6052,102 +6165,106 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" t="s" s="108">
-        <v>241</v>
-      </c>
-      <c r="E21" t="s" s="109">
-        <v>102</v>
-      </c>
-      <c r="F21" t="s" s="110">
-        <v>242</v>
-      </c>
-      <c r="G21" t="s" s="111">
-        <v>243</v>
-      </c>
-      <c r="H21" t="s" s="112">
-        <v>244</v>
-      </c>
-      <c r="I21" t="s" s="113">
-        <v>104</v>
+        <v>262</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="M21" t="s">
-        <v>245</v>
-      </c>
-      <c r="N21" t="s" s="114">
-        <v>246</v>
+        <v>267</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="O21" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="Q21" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="R21" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="S21" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="T21" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="U21" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6155,81 +6272,85 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" t="s" s="115">
-        <v>251</v>
-      </c>
-      <c r="E7" t="s" s="116">
-        <v>252</v>
-      </c>
-      <c r="F7" t="s" s="117">
-        <v>165</v>
-      </c>
-      <c r="G7" t="s" s="118">
-        <v>253</v>
+        <v>272</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="I7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" t="s" s="119">
-        <v>172</v>
+        <v>279</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="M7" t="s">
         <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="60">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="61">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="62">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="63">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="64">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="65">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="66">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6237,54 +6358,55 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" t="s" s="120">
-        <v>260</v>
-      </c>
-      <c r="E7" t="s" s="121">
-        <v>261</v>
-      </c>
-      <c r="F7" t="s" s="122">
-        <v>165</v>
-      </c>
-      <c r="G7" t="s" s="123">
-        <v>262</v>
+        <v>281</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="I7" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8">
+        <v>287</v>
+      </c>
+      <c r="F8" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
@@ -6296,24 +6418,25 @@
         <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9">
+        <v>291</v>
+      </c>
+      <c r="F9" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="I9" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="J9" t="s">
         <v>73</v>
@@ -6325,24 +6448,25 @@
         <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10">
+        <v>295</v>
+      </c>
+      <c r="F10" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G10" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J10" t="s">
         <v>73</v>
@@ -6354,10 +6478,10 @@
         <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -6365,84 +6489,85 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" t="s" s="124">
-        <v>278</v>
-      </c>
-      <c r="E12" t="s" s="125">
-        <v>279</v>
-      </c>
-      <c r="F12" t="s" s="126">
-        <v>280</v>
-      </c>
-      <c r="G12" t="s" s="127">
-        <v>281</v>
+        <v>299</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="H12" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="I12" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="K12" t="s">
-        <v>284</v>
-      </c>
-      <c r="L12" t="s" s="128">
-        <v>285</v>
+        <v>306</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="M12" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="O12" t="s">
-        <v>287</v>
-      </c>
-      <c r="P12" t="s" s="129">
-        <v>288</v>
+        <v>309</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="Q12" t="s">
         <v>60</v>
       </c>
       <c r="R12" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="S12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="5:19">
       <c r="E13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13">
+        <v>311</v>
+      </c>
+      <c r="F13" t="str">
         <f>审批人规则!$E$8</f>
+        <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="H13" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="I13" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="J13" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K13" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="M13" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="N13" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="O13" t="s">
         <v>73</v>
@@ -6457,33 +6582,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="5:19">
       <c r="E14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14">
+        <v>319</v>
+      </c>
+      <c r="F14" t="str">
         <f>审批人规则!$E$8</f>
+        <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G14" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="H14" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="I14" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="J14" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K14" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="M14" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="N14" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="O14" t="s">
         <v>73</v>
@@ -6498,33 +6624,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="5:19">
       <c r="E15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F15">
+        <v>326</v>
+      </c>
+      <c r="F15" t="str">
         <f>审批人规则!$E$8</f>
+        <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="H15" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="I15" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="J15" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K15" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="M15" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="N15" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -6539,33 +6666,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="5:19">
       <c r="E16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F16">
+        <v>333</v>
+      </c>
+      <c r="F16" t="str">
         <f>审批人规则!$E$8</f>
+        <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G16" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="H16" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="I16" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="J16" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K16" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="M16" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="N16" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="O16" t="s">
         <v>73</v>
@@ -6580,33 +6708,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:19">
       <c r="E17" t="s">
-        <v>317</v>
-      </c>
-      <c r="F17">
+        <v>339</v>
+      </c>
+      <c r="F17" t="str">
         <f>审批人规则!$E$9</f>
+        <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G17" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="H17" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="I17" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="J17" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="M17" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="N17" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="O17" t="s">
         <v>73</v>
@@ -6621,33 +6750,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:19">
       <c r="E18" t="s">
-        <v>323</v>
-      </c>
-      <c r="F18">
+        <v>345</v>
+      </c>
+      <c r="F18" t="str">
         <f>审批人规则!$E$9</f>
+        <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G18" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="J18" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K18" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="M18" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="N18" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="O18" t="s">
         <v>73</v>
@@ -6662,33 +6792,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:19">
       <c r="E19" t="s">
-        <v>329</v>
-      </c>
-      <c r="F19">
+        <v>351</v>
+      </c>
+      <c r="F19" t="str">
         <f>审批人规则!$E$10</f>
+        <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G19" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="H19" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="I19" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="J19" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K19" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="M19" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="N19" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="O19" t="s">
         <v>73</v>
@@ -6703,33 +6834,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:19">
       <c r="E20" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20">
+        <v>357</v>
+      </c>
+      <c r="F20" t="str">
         <f>审批人规则!$E$10</f>
+        <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G20" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="I20" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="J20" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K20" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="M20" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="N20" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="O20" t="s">
         <v>73</v>
@@ -6744,33 +6876,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:19">
       <c r="E21" t="s">
-        <v>339</v>
-      </c>
-      <c r="F21">
+        <v>361</v>
+      </c>
+      <c r="F21" t="str">
         <f>审批人规则!$E$10</f>
+        <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G21" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="I21" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="J21" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K21" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="M21" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="N21" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="O21" t="s">
         <v>73</v>
@@ -6785,7 +6918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -6793,93 +6926,95 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23" t="s" s="130">
-        <v>241</v>
-      </c>
-      <c r="E23" t="s" s="131">
-        <v>102</v>
-      </c>
-      <c r="F23" t="s" s="132">
-        <v>242</v>
-      </c>
-      <c r="G23" t="s" s="133">
-        <v>243</v>
-      </c>
-      <c r="H23" t="s" s="134">
-        <v>244</v>
-      </c>
-      <c r="I23" t="s" s="135">
-        <v>104</v>
+        <v>365</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s">
-        <v>245</v>
-      </c>
-      <c r="N23" t="s" s="136">
-        <v>246</v>
+        <v>267</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="O23" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="Q23" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="R23" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="S23" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="T23" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="U23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="5:21">
       <c r="E24" t="s">
-        <v>344</v>
-      </c>
-      <c r="F24">
+        <v>366</v>
+      </c>
+      <c r="F24" t="str">
         <f>审批人规则!$E$17</f>
+        <v>hwkf_def_approver_line-17</v>
       </c>
       <c r="G24" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H24" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I24" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J24" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K24" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s">
-        <v>349</v>
-      </c>
-      <c r="N24">
+        <v>371</v>
+      </c>
+      <c r="N24" t="str">
         <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="S24" t="s">
         <v>75</v>
@@ -6891,36 +7026,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:21">
       <c r="E25" t="s">
-        <v>350</v>
-      </c>
-      <c r="F25">
+        <v>372</v>
+      </c>
+      <c r="F25" t="str">
         <f>审批人规则!$E$17</f>
+        <v>hwkf_def_approver_line-17</v>
       </c>
       <c r="G25" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H25" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M25" t="s">
-        <v>349</v>
-      </c>
-      <c r="N25">
+        <v>371</v>
+      </c>
+      <c r="N25" t="str">
         <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
       </c>
       <c r="S25" t="s">
         <v>75</v>
@@ -6932,36 +7069,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:21">
       <c r="E26" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26">
+        <v>373</v>
+      </c>
+      <c r="F26" t="str">
         <f>审批人规则!$E$18</f>
+        <v>hwkf_def_approver_line-18</v>
       </c>
       <c r="G26" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H26" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I26" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J26" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K26" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="L26" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s">
-        <v>349</v>
-      </c>
-      <c r="N26">
+        <v>371</v>
+      </c>
+      <c r="N26" t="str">
         <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="S26" t="s">
         <v>75</v>
@@ -6973,36 +7112,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:21">
       <c r="E27" t="s">
-        <v>352</v>
-      </c>
-      <c r="F27">
+        <v>374</v>
+      </c>
+      <c r="F27" t="str">
         <f>审批人规则!$E$18</f>
+        <v>hwkf_def_approver_line-18</v>
       </c>
       <c r="G27" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H27" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I27" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s">
-        <v>349</v>
-      </c>
-      <c r="N27">
+        <v>371</v>
+      </c>
+      <c r="N27" t="str">
         <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
       </c>
       <c r="S27" t="s">
         <v>75</v>
@@ -7014,36 +7155,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:21">
       <c r="E28" t="s">
-        <v>353</v>
-      </c>
-      <c r="F28">
+        <v>375</v>
+      </c>
+      <c r="F28" t="str">
         <f>审批人规则!$E$16</f>
+        <v>hwkf_def_approver_line-16</v>
       </c>
       <c r="G28" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H28" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I28" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M28" t="s">
-        <v>349</v>
-      </c>
-      <c r="N28">
+        <v>371</v>
+      </c>
+      <c r="N28" t="str">
         <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
       </c>
       <c r="S28" t="s">
         <v>75</v>
@@ -7055,39 +7198,40 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:21">
       <c r="E29" t="s">
-        <v>354</v>
-      </c>
-      <c r="F29">
+        <v>376</v>
+      </c>
+      <c r="F29" t="str">
         <f>审批人规则!$E$16</f>
+        <v>hwkf_def_approver_line-16</v>
       </c>
       <c r="G29" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H29" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I29" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="J29" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="K29" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="L29" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="P29" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="Q29" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="S29" t="s">
         <v>73</v>
@@ -7099,36 +7243,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:21">
       <c r="E30" t="s">
-        <v>358</v>
-      </c>
-      <c r="F30">
+        <v>380</v>
+      </c>
+      <c r="F30" t="str">
         <f>审批人规则!$E$19</f>
+        <v>hwkf_def_approver_line-19</v>
       </c>
       <c r="G30" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H30" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I30" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J30" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K30" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="L30" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="M30" t="s">
-        <v>349</v>
-      </c>
-      <c r="N30">
+        <v>371</v>
+      </c>
+      <c r="N30" t="str">
         <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="S30" t="s">
         <v>75</v>
@@ -7140,33 +7286,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:21">
       <c r="E31" t="s">
-        <v>359</v>
-      </c>
-      <c r="F31">
+        <v>381</v>
+      </c>
+      <c r="F31" t="str">
         <f>审批人规则!$E$19</f>
+        <v>hwkf_def_approver_line-19</v>
       </c>
       <c r="G31" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H31" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I31" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="J31" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="K31" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M31" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s">
         <v>75</v>
@@ -7181,36 +7328,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:21">
       <c r="E32" t="s">
-        <v>363</v>
-      </c>
-      <c r="F32">
+        <v>385</v>
+      </c>
+      <c r="F32" t="str">
         <f>审批人规则!$E$19</f>
+        <v>hwkf_def_approver_line-19</v>
       </c>
       <c r="G32" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H32" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I32" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K32" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M32" t="s">
-        <v>349</v>
-      </c>
-      <c r="N32">
+        <v>371</v>
+      </c>
+      <c r="N32" t="str">
         <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
       </c>
       <c r="S32" t="s">
         <v>75</v>
@@ -7222,36 +7371,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:21">
       <c r="E33" t="s">
-        <v>364</v>
-      </c>
-      <c r="F33">
+        <v>386</v>
+      </c>
+      <c r="F33" t="str">
         <f>审批人规则!$E$20</f>
+        <v>hwkf_def_approver_line-20</v>
       </c>
       <c r="G33" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H33" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I33" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="J33" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K33" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="L33" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="M33" t="s">
-        <v>349</v>
-      </c>
-      <c r="N33">
+        <v>371</v>
+      </c>
+      <c r="N33" t="str">
         <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="S33" t="s">
         <v>75</v>
@@ -7263,33 +7414,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:21">
       <c r="E34" t="s">
-        <v>365</v>
-      </c>
-      <c r="F34">
+        <v>387</v>
+      </c>
+      <c r="F34" t="str">
         <f>审批人规则!$E$20</f>
+        <v>hwkf_def_approver_line-20</v>
       </c>
       <c r="G34" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I34" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="J34" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="K34" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="L34" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M34" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s">
         <v>73</v>
@@ -7304,36 +7456,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:21">
       <c r="E35" t="s">
-        <v>366</v>
-      </c>
-      <c r="F35">
+        <v>388</v>
+      </c>
+      <c r="F35" t="str">
         <f>审批人规则!$E$20</f>
+        <v>hwkf_def_approver_line-20</v>
       </c>
       <c r="G35" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H35" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K35" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M35" t="s">
-        <v>349</v>
-      </c>
-      <c r="N35">
+        <v>371</v>
+      </c>
+      <c r="N35" t="str">
         <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
       </c>
       <c r="S35" t="s">
         <v>75</v>
@@ -7345,118 +7499,123 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:21">
       <c r="E36" t="s">
+        <v>389</v>
+      </c>
+      <c r="F36" t="str">
+        <f>审批人规则!$E$21</f>
+        <v>hwkf_def_approver_line-21</v>
+      </c>
+      <c r="G36" t="s">
         <v>367</v>
       </c>
-      <c r="F36">
+      <c r="H36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I36" t="s">
+        <v>369</v>
+      </c>
+      <c r="J36" t="s">
+        <v>370</v>
+      </c>
+      <c r="K36" t="s">
+        <v>369</v>
+      </c>
+      <c r="L36" t="s">
+        <v>159</v>
+      </c>
+      <c r="M36" t="s">
+        <v>371</v>
+      </c>
+      <c r="N36" t="str">
+        <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
+      </c>
+      <c r="S36" t="s">
+        <v>75</v>
+      </c>
+      <c r="T36" t="s">
+        <v>75</v>
+      </c>
+      <c r="U36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="5:21">
+      <c r="E37" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" t="str">
         <f>审批人规则!$E$21</f>
-      </c>
-      <c r="G36" t="s">
-        <v>345</v>
-      </c>
-      <c r="H36" t="s">
-        <v>346</v>
-      </c>
-      <c r="I36" t="s">
-        <v>347</v>
-      </c>
-      <c r="J36" t="s">
-        <v>348</v>
-      </c>
-      <c r="K36" t="s">
-        <v>347</v>
-      </c>
-      <c r="L36" t="s">
-        <v>193</v>
-      </c>
-      <c r="M36" t="s">
-        <v>349</v>
-      </c>
-      <c r="N36">
-        <f>流程变量!$E$10</f>
-      </c>
-      <c r="S36" t="s">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+        <v>hwkf_def_approver_line-21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>367</v>
+      </c>
+      <c r="H37" t="s">
         <v>368</v>
       </c>
-      <c r="F37">
+      <c r="I37" t="s">
+        <v>382</v>
+      </c>
+      <c r="J37" t="s">
+        <v>383</v>
+      </c>
+      <c r="K37" t="s">
+        <v>384</v>
+      </c>
+      <c r="L37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" t="s">
+        <v>391</v>
+      </c>
+      <c r="S37" t="s">
+        <v>75</v>
+      </c>
+      <c r="T37" t="s">
+        <v>75</v>
+      </c>
+      <c r="U37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="5:21">
+      <c r="E38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F38" t="str">
         <f>审批人规则!$E$21</f>
-      </c>
-      <c r="G37" t="s">
-        <v>345</v>
-      </c>
-      <c r="H37" t="s">
-        <v>346</v>
-      </c>
-      <c r="I37" t="s">
-        <v>360</v>
-      </c>
-      <c r="J37" t="s">
-        <v>361</v>
-      </c>
-      <c r="K37" t="s">
-        <v>362</v>
-      </c>
-      <c r="L37" t="s">
-        <v>116</v>
-      </c>
-      <c r="M37" t="s">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s">
-        <v>369</v>
-      </c>
-      <c r="S37" t="s">
-        <v>75</v>
-      </c>
-      <c r="T37" t="s">
-        <v>75</v>
-      </c>
-      <c r="U37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>370</v>
-      </c>
-      <c r="F38">
-        <f>审批人规则!$E$21</f>
+        <v>hwkf_def_approver_line-21</v>
       </c>
       <c r="G38" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="I38" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K38" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M38" t="s">
-        <v>349</v>
-      </c>
-      <c r="N38">
+        <v>371</v>
+      </c>
+      <c r="N38" t="str">
         <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
       </c>
       <c r="S38" t="s">
         <v>75</v>
@@ -7469,44 +7628,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="67">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="68">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="69">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="70">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="71">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="72">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="73">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7514,81 +7677,83 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D7" t="s" s="137">
-        <v>278</v>
-      </c>
-      <c r="E7" t="s" s="138">
-        <v>279</v>
-      </c>
-      <c r="F7" t="s" s="139">
-        <v>280</v>
-      </c>
-      <c r="G7" t="s" s="140">
-        <v>281</v>
+        <v>393</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="I7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="K7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L7" t="s" s="141">
-        <v>285</v>
+        <v>306</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="M7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="O7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P7" t="s" s="142">
-        <v>288</v>
+        <v>309</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="Q7" t="s">
         <v>60</v>
       </c>
       <c r="R7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="5:19">
       <c r="E8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F8">
+        <v>394</v>
+      </c>
+      <c r="F8" t="str">
         <f>审批人规则!$E$9</f>
+        <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="H8" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="J8" t="s">
-        <v>349</v>
-      </c>
-      <c r="L8">
+        <v>371</v>
+      </c>
+      <c r="L8" t="str">
         <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="N8" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="O8" t="s">
         <v>73</v>
@@ -7604,44 +7769,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="74">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="75">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="76">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="77">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="78">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="79">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="80">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7649,102 +7818,106 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" t="s" s="143">
-        <v>241</v>
-      </c>
-      <c r="E7" t="s" s="144">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s" s="145">
-        <v>242</v>
-      </c>
-      <c r="G7" t="s" s="146">
-        <v>243</v>
-      </c>
-      <c r="H7" t="s" s="147">
-        <v>244</v>
-      </c>
-      <c r="I7" t="s" s="148">
-        <v>104</v>
+        <v>398</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
-      </c>
-      <c r="N7" t="s" s="149">
-        <v>246</v>
+        <v>267</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="Q7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="R7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="S7" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="T7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="U7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="81">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="82">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="83">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="84">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="85">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="86">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="87">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7752,81 +7925,82 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" t="s" s="150">
-        <v>378</v>
-      </c>
-      <c r="E7" t="s" s="151">
-        <v>379</v>
-      </c>
-      <c r="F7" t="s" s="152">
-        <v>165</v>
-      </c>
-      <c r="G7" t="s" s="153">
-        <v>380</v>
+        <v>399</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="H7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="I7" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="J7" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="K7" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="N7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="O7" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17">
       <c r="E8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8">
+        <v>409</v>
+      </c>
+      <c r="F8" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="H8" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="I8" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="J8" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="K8" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="P8" t="s">
         <v>75</v>
@@ -7835,36 +8009,37 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:17">
       <c r="E9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9">
+        <v>414</v>
+      </c>
+      <c r="F9" t="str">
         <f>流程分类!$E$9</f>
+        <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="H9" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I9" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="J9" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="K9" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="N9" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="P9" t="s">
         <v>75</v>
@@ -7874,6 +8049,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\工作流\workflow-service\src\main\resources\script\db\init-data\workflow_service\workflow_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAC6C78-410B-46C3-8A67-5A4761771B94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9460F5B0-8C07-46E3-9D30-D794D650F584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="644">
   <si>
     <r>
       <rPr>
@@ -2835,12 +2835,6 @@
     <t>hwkf_def_condition-16</t>
   </si>
   <si>
-    <t>backlog_type_other</t>
-  </si>
-  <si>
-    <t>其他需求类型</t>
-  </si>
-  <si>
     <t>审批链</t>
   </si>
   <si>
@@ -3015,938 +3009,935 @@
     <t>审批表单参数</t>
   </si>
   <si>
+    <t>hwkf_def_customize_act</t>
+  </si>
+  <si>
+    <t>*action_id</t>
+  </si>
+  <si>
+    <t>#action_code</t>
+  </si>
+  <si>
+    <t>action_name:zh_CN</t>
+  </si>
+  <si>
+    <t>action_name:en_US</t>
+  </si>
+  <si>
+    <t>action_desc:zh_CN</t>
+  </si>
+  <si>
+    <t>action_desc:en_US</t>
+  </si>
+  <si>
+    <t>action_result</t>
+  </si>
+  <si>
+    <t>backlog_approved</t>
+  </si>
+  <si>
+    <t>需求通过</t>
+  </si>
+  <si>
+    <t>将需求置为通过状态，需求将进入需求池</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>backlog_reject</t>
+  </si>
+  <si>
+    <t>需求拒绝</t>
+  </si>
+  <si>
+    <t>将需求置为已拒绝状态，审核流程结束</t>
+  </si>
+  <si>
+    <t>HWKF_DEF_CUSTOMIZE_ACT</t>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-13</t>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-14</t>
+  </si>
+  <si>
+    <t>邮件审批模板</t>
+  </si>
+  <si>
+    <t>hwkf_def_mail_template</t>
+  </si>
+  <si>
+    <t>*template_id</t>
+  </si>
+  <si>
+    <t>#template_code</t>
+  </si>
+  <si>
+    <t>template_name:zh_CN</t>
+  </si>
+  <si>
+    <t>template_name:en_US</t>
+  </si>
+  <si>
+    <t>template_content</t>
+  </si>
+  <si>
+    <t>template_remark</t>
+  </si>
+  <si>
+    <t>邮件审批模板参数</t>
+  </si>
+  <si>
+    <t>默认发送账号</t>
+  </si>
+  <si>
+    <t>hwkf_def_account</t>
+  </si>
+  <si>
+    <t>*account_id</t>
+  </si>
+  <si>
+    <t>#account_type</t>
+  </si>
+  <si>
+    <t>account_server_code</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"LAST_NODE_REJECTED","conditionName":"上一节点审批拒绝","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"ca91fce4-ca00-4a4f-a059-0bd3031e1129","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["REJECTED"],"lovData":"REJECTED","symbol":"=="},"symbol":"==","lovData":"REJECTED","lovDataValue":["REJECTED"]}]}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"conditionCode":"backlog_priority_p0","conditionName":"需求紧急程度为非常紧急","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"544a822d-c76f-4b73-b57d-3235ac7b792a","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"83ebb33b-0a5f-4bad-87ec-aa6c2cadcaff","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"83ebb33b-0a5f-4bad-87ec-aa6c2cadcaff","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"非常紧急","symbol":"=="},"symbol":"==","valueData":"非常紧急"}]}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"conditionCode":"backlog_priority_p1","conditionName":"需求紧急程度为紧急","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"07edd88c-8456-4117-87f7-644f5bbb5eb3","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"60bc1bae-8203-4425-a9f0-c1004a83fdaa","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"60bc1bae-8203-4425-a9f0-c1004a83fdaa","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"紧急","symbol":"=="},"symbol":"==","valueData":"紧急"}]}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人所在岗位</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定岗位</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定员工</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人所在部门</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级领导(总经理)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_02</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_03</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_UNIT</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_POSITION</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_EMPLOYEE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级领导(组长)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级领导(部门经理)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部门</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_SOME_UNITS_LEADERS</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些部门的领导</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify positions</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyer's position</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader of level three(general manager)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader of level two(department manager)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader of level one(group leader)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify units</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_return</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则参数</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则行返回字段</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则行-变量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPLYER</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程发起人(员工)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>applier(employee)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionUserId</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF_BACKLOG_APPROVE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程变量参数</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDEFINED</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_source_type</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则行</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户查询员工</t>
+  </si>
+  <si>
+    <t>Query employees by users</t>
+  </si>
+  <si>
+    <t>choerodon-platform</t>
+  </si>
+  <si>
+    <t>choerodon-platform.employee-user.getEmployee</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Employee User</t>
+  </si>
+  <si>
+    <t>getEmployeeUsingGET</t>
+  </si>
+  <si>
+    <t>查询某个部门下的员工</t>
+  </si>
+  <si>
+    <t>Query employees under a certain department</t>
+  </si>
+  <si>
+    <t>choerodon-platform.workflow-hr.pageDepartmentEmployee</t>
+  </si>
+  <si>
+    <t>Workflow - HR</t>
+  </si>
+  <si>
+    <t>pageDepartmentEmployeeUsingGET</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface-10</t>
+  </si>
+  <si>
+    <t>查询岗位列表</t>
+  </si>
+  <si>
+    <t>Query position list</t>
+  </si>
+  <si>
+    <t>choerodon-platform.workflow-plus-hr.pagePosition</t>
+  </si>
+  <si>
+    <t>Workflow Plus - HR</t>
+  </si>
+  <si>
+    <t>pagePositionUsingGET</t>
+  </si>
+  <si>
+    <t>查询部门列表</t>
+  </si>
+  <si>
+    <t>Query department list</t>
+  </si>
+  <si>
+    <t>choerodon-platform.unit.listAllDepartment</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>listAllDepartmentUsingGET</t>
+  </si>
+  <si>
+    <t>organizationId</t>
+  </si>
+  <si>
+    <t>Tenant ID</t>
+  </si>
+  <si>
+    <t>departmentId</t>
+  </si>
+  <si>
+    <t>部门ID,与部门编码不可同时为空</t>
+  </si>
+  <si>
+    <t>Department ID, and department code cannot be empty at the same time</t>
+  </si>
+  <si>
+    <t>includeChildDepartment</t>
+  </si>
+  <si>
+    <t>是否包含子部门，默认不包含</t>
+  </si>
+  <si>
+    <t>Whether to include sub-departments, not included by default</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>enabledFlag</t>
+  </si>
+  <si>
+    <t>是否启用</t>
+  </si>
+  <si>
+    <t>Whether to enable</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-20</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-21</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-22</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-23</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-24</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-25</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-26</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-27</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface-13</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.reject</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.approved</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.pageUnit</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>#interface_code</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface-11</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface-12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.pageDepartmentEmployee</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.pagePosition</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.getEmployeeByUserId</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF_PREDEFINE_CATALOGUE</t>
+  </si>
+  <si>
+    <t>初始预定义数据(勿删)</t>
+  </si>
+  <si>
+    <t>Predefine Catalog(do not delete)</t>
+  </si>
+  <si>
+    <t>预定义数据目录(勿删)</t>
+  </si>
+  <si>
+    <t>初始预定义数据分类(勿删)</t>
+  </si>
+  <si>
+    <t>Predefine Classification(do not delete)</t>
+  </si>
+  <si>
+    <t>预定义数据分类(勿删)</t>
+  </si>
+  <si>
+    <t>HWKF_PREDEFINE_CATALOGUE;HWKF_PREDEFINE_TYPE</t>
+  </si>
+  <si>
+    <t>Predefine Catalog</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predefine Classification(Do not delete)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF_PREDEFINE_TYPE</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_type-9</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-8</t>
+  </si>
+  <si>
+    <t>hwkf_def_variable-9</t>
+  </si>
+  <si>
+    <t>sessionUserId</t>
+  </si>
+  <si>
+    <t>hwkf_def_type-8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_type-10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVER_RULE_001</t>
+  </si>
+  <si>
+    <t>APPROVER_RULE_003</t>
+  </si>
+  <si>
+    <t>APPROVER_RULE_004</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-11</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-13</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>指定员工</t>
+  </si>
+  <si>
+    <t>LINE_APPOINT_POSITION</t>
+  </si>
+  <si>
+    <t>指定岗位</t>
+  </si>
+  <si>
+    <t>Specify positions</t>
+  </si>
+  <si>
+    <t>LINE_APPOINT_UNIT</t>
+  </si>
+  <si>
+    <t>指定部门</t>
+  </si>
+  <si>
+    <t>Specify units</t>
+  </si>
+  <si>
+    <t>LINE_SOME_UNITS_LEADERS</t>
+  </si>
+  <si>
+    <t>某些部门的领导</t>
+  </si>
+  <si>
+    <t>Leaders of some units</t>
+  </si>
+  <si>
+    <t>申请人所在岗位</t>
+  </si>
+  <si>
+    <t>申请人所在部门</t>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_01</t>
+  </si>
+  <si>
+    <t>一级领导(组长)</t>
+  </si>
+  <si>
+    <t>leader of level one（team leader）</t>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_02</t>
+  </si>
+  <si>
+    <t>二级领导(部门经理)</t>
+  </si>
+  <si>
+    <t>leader of level two(unit manager)</t>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_03</t>
+  </si>
+  <si>
+    <t>三级领导(总经理)</t>
+  </si>
+  <si>
+    <t>leader of level three(general manager)</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-22</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-23</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-24</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-25</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-26</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-27</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-28</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-29</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-30</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-39</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-40</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-41</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-42</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-43</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-44</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-45</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-46</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-47</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-48</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-49</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-50</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-51</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-52</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-53</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-17</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-18</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-19</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-21</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-16</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-31</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-32</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-33</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-54</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-55</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-56</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-57</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-58</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-59</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-60</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-61</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-62</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-63</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-64</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-65</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-66</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-67</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-21</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-22</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-23</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-24</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-25</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-26</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-27</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-28</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-29</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-30</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-31</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-32</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-33</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-34</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-16</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-17</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-18</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-19</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-8</t>
+  </si>
+  <si>
+    <t>流程发起人(员工)</t>
+  </si>
+  <si>
+    <t>applier(employee)</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-9</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPLYER</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>startEmployeeNum</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_NODE_APPROVED</t>
+  </si>
+  <si>
+    <t>LAST_NODE_REJECTED</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"LAST_NODE_REJECTED","conditionName":"上一节点审批拒绝","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"ca91fce4-ca00-4a4f-a059-0bd3031e1129","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["REJECTED"],"lovData":"REJECTED","symbol":"=="},"symbol":"==","lovData":"REJECTED","lovDataValue":["REJECTED"]}]}</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition-9</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_condition-10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_condition-11</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_condition-17</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_customize_act-9</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_customize_act-8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>自定义审批动作</t>
-  </si>
-  <si>
-    <t>hwkf_def_customize_act</t>
-  </si>
-  <si>
-    <t>*action_id</t>
-  </si>
-  <si>
-    <t>#action_code</t>
-  </si>
-  <si>
-    <t>action_name:zh_CN</t>
-  </si>
-  <si>
-    <t>action_name:en_US</t>
-  </si>
-  <si>
-    <t>action_desc:zh_CN</t>
-  </si>
-  <si>
-    <t>action_desc:en_US</t>
-  </si>
-  <si>
-    <t>action_result</t>
-  </si>
-  <si>
-    <t>hwkf_def_customize_act-8</t>
-  </si>
-  <si>
-    <t>backlog_approved</t>
-  </si>
-  <si>
-    <t>需求通过</t>
-  </si>
-  <si>
-    <t>将需求置为通过状态，需求将进入需求池</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>hwkf_def_customize_act-9</t>
-  </si>
-  <si>
-    <t>backlog_reject</t>
-  </si>
-  <si>
-    <t>需求拒绝</t>
-  </si>
-  <si>
-    <t>将需求置为已拒绝状态，审核流程结束</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>自定义审批动作参数</t>
-  </si>
-  <si>
-    <t>HWKF_DEF_CUSTOMIZE_ACT</t>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-13</t>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-14</t>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-15</t>
-  </si>
-  <si>
-    <t>邮件审批模板</t>
-  </si>
-  <si>
-    <t>hwkf_def_mail_template</t>
-  </si>
-  <si>
-    <t>*template_id</t>
-  </si>
-  <si>
-    <t>#template_code</t>
-  </si>
-  <si>
-    <t>template_name:zh_CN</t>
-  </si>
-  <si>
-    <t>template_name:en_US</t>
-  </si>
-  <si>
-    <t>template_content</t>
-  </si>
-  <si>
-    <t>template_remark</t>
-  </si>
-  <si>
-    <t>邮件审批模板参数</t>
-  </si>
-  <si>
-    <t>默认发送账号</t>
-  </si>
-  <si>
-    <t>hwkf_def_account</t>
-  </si>
-  <si>
-    <t>*account_id</t>
-  </si>
-  <si>
-    <t>#account_type</t>
-  </si>
-  <si>
-    <t>account_server_code</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"LAST_NODE_REJECTED","conditionName":"上一节点审批拒绝","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"ca91fce4-ca00-4a4f-a059-0bd3031e1129","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["REJECTED"],"lovData":"REJECTED","symbol":"=="},"symbol":"==","lovData":"REJECTED","lovDataValue":["REJECTED"]}]}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_priority_p0","conditionName":"需求紧急程度为非常紧急","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"544a822d-c76f-4b73-b57d-3235ac7b792a","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"83ebb33b-0a5f-4bad-87ec-aa6c2cadcaff","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"83ebb33b-0a5f-4bad-87ec-aa6c2cadcaff","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"非常紧急","symbol":"=="},"symbol":"==","valueData":"非常紧急"}]}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_priority_p1","conditionName":"需求紧急程度为紧急","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"07edd88c-8456-4117-87f7-644f5bbb5eb3","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"60bc1bae-8203-4425-a9f0-c1004a83fdaa","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"60bc1bae-8203-4425-a9f0-c1004a83fdaa","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"紧急","symbol":"=="},"symbol":"==","valueData":"紧急"}]}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_type_other","conditionName":"其他需求类型","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"142c82e5-d322-4ce7-904b-4030c3ab996b","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"4288ce4b-403b-451a-865d-a4a14003a479","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"},{"conditionId":"1bfcf975-b32c-4749-bd6f-18c9e9555fb1","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"643e0d84-56b3-4c19-a21a-21d825c1c1f8","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"4288ce4b-403b-451a-865d-a4a14003a479","conditionVariable":{"creationDate":"2021-03-30 15:14:36","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:36","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxh5alodCpF9N5VNl1CQbZbbcA1pWLxNzOhzK39RMaBTa","variableId":125,"typeId":11,"variableCode":"backlog_type","variableName":"需求类型","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求类型","variableCode":"backlog_type","variableId":125,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"bug修复","symbol":"!="},"symbol":"!=","valueData":"bug修复"},{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"643e0d84-56b3-4c19-a21a-21d825c1c1f8","conditionVariable":{"creationDate":"2021-03-30 15:14:36","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:36","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxh5alodCpF9N5VNl1CQbZbbcA1pWLxNzOhzK39RMaBTa","variableId":125,"typeId":11,"variableCode":"backlog_type","variableName":"需求类型","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求类型","variableCode":"backlog_type","variableId":125,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"删除功能","symbol":"!="},"symbol":"!=","valueData":"删除功能"}]}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人所在岗位</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定岗位</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定员工</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人所在部门</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级领导(总经理)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_01</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_02</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_03</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPOINT_UNIT</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPOINT_POSITION</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPOINT_EMPLOYEE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级领导(组长)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级领导(部门经理)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定部门</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_SOME_UNITS_LEADERS</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些部门的领导</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specify positions</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyer's position</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader of level three(general manager)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader of level two(department manager)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader of level one(group leader)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specify units</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_return</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则参数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则行返回字段</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则行-变量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPLYER</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程发起人(员工)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>applier(employee)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionUserId</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>HWKF_BACKLOG_APPROVE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程变量参数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREDEFINED</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>record_source_type</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则行</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用户查询员工</t>
-  </si>
-  <si>
-    <t>Query employees by users</t>
-  </si>
-  <si>
-    <t>choerodon-platform</t>
-  </si>
-  <si>
-    <t>choerodon-platform.employee-user.getEmployee</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Employee User</t>
-  </si>
-  <si>
-    <t>getEmployeeUsingGET</t>
-  </si>
-  <si>
-    <t>查询某个部门下的员工</t>
-  </si>
-  <si>
-    <t>Query employees under a certain department</t>
-  </si>
-  <si>
-    <t>choerodon-platform.workflow-hr.pageDepartmentEmployee</t>
-  </si>
-  <si>
-    <t>Workflow - HR</t>
-  </si>
-  <si>
-    <t>pageDepartmentEmployeeUsingGET</t>
-  </si>
-  <si>
-    <t>hwkf_def_interface-10</t>
-  </si>
-  <si>
-    <t>查询岗位列表</t>
-  </si>
-  <si>
-    <t>Query position list</t>
-  </si>
-  <si>
-    <t>choerodon-platform.workflow-plus-hr.pagePosition</t>
-  </si>
-  <si>
-    <t>Workflow Plus - HR</t>
-  </si>
-  <si>
-    <t>pagePositionUsingGET</t>
-  </si>
-  <si>
-    <t>查询部门列表</t>
-  </si>
-  <si>
-    <t>Query department list</t>
-  </si>
-  <si>
-    <t>choerodon-platform.unit.listAllDepartment</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>listAllDepartmentUsingGET</t>
-  </si>
-  <si>
-    <t>organizationId</t>
-  </si>
-  <si>
-    <t>Tenant ID</t>
-  </si>
-  <si>
-    <t>departmentId</t>
-  </si>
-  <si>
-    <t>部门ID,与部门编码不可同时为空</t>
-  </si>
-  <si>
-    <t>Department ID, and department code cannot be empty at the same time</t>
-  </si>
-  <si>
-    <t>includeChildDepartment</t>
-  </si>
-  <si>
-    <t>是否包含子部门，默认不包含</t>
-  </si>
-  <si>
-    <t>Whether to include sub-departments, not included by default</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>enabledFlag</t>
-  </si>
-  <si>
-    <t>是否启用</t>
-  </si>
-  <si>
-    <t>Whether to enable</t>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-20</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-21</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-22</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-23</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-24</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-25</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-26</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-27</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface-13</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.reject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.approved</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.pageUnit</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#interface_code</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface-11</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface-12</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.pageDepartmentEmployee</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.pagePosition</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.getEmployeeByUserId</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>HWKF_PREDEFINE_CATALOGUE</t>
-  </si>
-  <si>
-    <t>初始预定义数据(勿删)</t>
-  </si>
-  <si>
-    <t>Predefine Catalog(do not delete)</t>
-  </si>
-  <si>
-    <t>预定义数据目录(勿删)</t>
-  </si>
-  <si>
-    <t>初始预定义数据分类(勿删)</t>
-  </si>
-  <si>
-    <t>Predefine Classification(do not delete)</t>
-  </si>
-  <si>
-    <t>预定义数据分类(勿删)</t>
-  </si>
-  <si>
-    <t>HWKF_PREDEFINE_CATALOGUE;HWKF_PREDEFINE_TYPE</t>
-  </si>
-  <si>
-    <t>Predefine Catalog</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Predefine Classification(Do not delete)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>HWKF_PREDEFINE_TYPE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_type-9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-8</t>
-  </si>
-  <si>
-    <t>hwkf_def_variable-9</t>
-  </si>
-  <si>
-    <t>sessionUserId</t>
-  </si>
-  <si>
-    <t>hwkf_def_type-8</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_type-10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPROVER_RULE_001</t>
-  </si>
-  <si>
-    <t>APPROVER_RULE_003</t>
-  </si>
-  <si>
-    <t>APPROVER_RULE_004</t>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-11</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-12</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-13</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPOINT_EMPLOYEE</t>
-  </si>
-  <si>
-    <t>指定员工</t>
-  </si>
-  <si>
-    <t>LINE_APPOINT_POSITION</t>
-  </si>
-  <si>
-    <t>指定岗位</t>
-  </si>
-  <si>
-    <t>Specify positions</t>
-  </si>
-  <si>
-    <t>LINE_APPOINT_UNIT</t>
-  </si>
-  <si>
-    <t>指定部门</t>
-  </si>
-  <si>
-    <t>Specify units</t>
-  </si>
-  <si>
-    <t>LINE_SOME_UNITS_LEADERS</t>
-  </si>
-  <si>
-    <t>某些部门的领导</t>
-  </si>
-  <si>
-    <t>Leaders of some units</t>
-  </si>
-  <si>
-    <t>申请人所在岗位</t>
-  </si>
-  <si>
-    <t>申请人所在部门</t>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_01</t>
-  </si>
-  <si>
-    <t>一级领导(组长)</t>
-  </si>
-  <si>
-    <t>leader of level one（team leader）</t>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_02</t>
-  </si>
-  <si>
-    <t>二级领导(部门经理)</t>
-  </si>
-  <si>
-    <t>leader of level two(unit manager)</t>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_03</t>
-  </si>
-  <si>
-    <t>三级领导(总经理)</t>
-  </si>
-  <si>
-    <t>leader of level three(general manager)</t>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-22</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-23</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-24</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-25</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-26</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-27</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-28</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-29</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-30</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-39</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-40</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-41</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-42</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-43</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-44</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-45</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-46</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-47</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-48</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-49</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-50</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-51</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-52</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-53</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-17</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-18</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-19</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-20</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-21</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-16</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-31</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-32</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-33</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-54</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-55</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-56</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-57</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-58</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-59</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-60</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-61</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-62</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-63</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-64</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-65</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-66</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-67</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-20</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-21</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-22</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-23</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-24</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-25</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-26</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-27</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-28</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-29</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-30</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-31</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-32</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-33</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-34</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-16</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-17</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-18</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-19</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-8</t>
-  </si>
-  <si>
-    <t>流程发起人(员工)</t>
-  </si>
-  <si>
-    <t>applier(employee)</t>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPLYER</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>startEmployeeNum</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST_NODE_APPROVED</t>
-  </si>
-  <si>
-    <t>LAST_NODE_REJECTED</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"LAST_NODE_REJECTED","conditionName":"上一节点审批拒绝","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"ca91fce4-ca00-4a4f-a059-0bd3031e1129","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["REJECTED"],"lovData":"REJECTED","symbol":"=="},"symbol":"==","lovData":"REJECTED","lovDataValue":["REJECTED"]}]}</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition-9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_condition-10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_condition-11</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_condition-17</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_condition-18</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-12</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -6642,25 +6633,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="196" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="197" t="s">
         <v>327</v>
-      </c>
-      <c r="D7" s="196" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" s="197" t="s">
-        <v>329</v>
       </c>
       <c r="F7" s="198" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="199" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" t="s">
         <v>330</v>
-      </c>
-      <c r="H7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I7" t="s">
-        <v>332</v>
       </c>
       <c r="J7" t="s">
         <v>292</v>
@@ -6675,13 +6666,13 @@
         <v>128</v>
       </c>
       <c r="N7" s="200" t="s">
+        <v>331</v>
+      </c>
+      <c r="O7" s="201" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="202" t="s">
         <v>333</v>
-      </c>
-      <c r="O7" s="201" t="s">
-        <v>334</v>
-      </c>
-      <c r="P7" s="202" t="s">
-        <v>335</v>
       </c>
       <c r="Q7" t="s">
         <v>92</v>
@@ -6690,7 +6681,7 @@
         <v>93</v>
       </c>
       <c r="S7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6701,28 +6692,28 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="203" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="204" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="203" t="s">
+      <c r="F9" s="205" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="204" t="s">
+      <c r="G9" s="206" t="s">
         <v>339</v>
       </c>
-      <c r="F9" s="205" t="s">
+      <c r="H9" t="s">
         <v>340</v>
       </c>
-      <c r="G9" s="206" t="s">
+      <c r="I9" t="s">
         <v>341</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>342</v>
-      </c>
-      <c r="I9" t="s">
-        <v>343</v>
-      </c>
-      <c r="J9" t="s">
-        <v>344</v>
       </c>
       <c r="K9" t="s">
         <v>292</v>
@@ -6734,10 +6725,10 @@
         <v>59</v>
       </c>
       <c r="N9" s="207" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P9" t="s">
         <v>92</v>
@@ -6746,7 +6737,7 @@
         <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6757,19 +6748,19 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="208" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="209" t="s">
         <v>348</v>
       </c>
-      <c r="D11" s="208" t="s">
+      <c r="F11" s="210" t="s">
         <v>349</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="G11" t="s">
         <v>350</v>
-      </c>
-      <c r="F11" s="210" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6821,31 +6812,31 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="211" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="212" t="s">
         <v>353</v>
-      </c>
-      <c r="D7" s="211" t="s">
-        <v>354</v>
-      </c>
-      <c r="E7" s="212" t="s">
-        <v>355</v>
       </c>
       <c r="F7" s="213" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="214" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" t="s">
         <v>356</v>
-      </c>
-      <c r="H7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I7" t="s">
-        <v>358</v>
       </c>
       <c r="J7" s="215" t="s">
         <v>124</v>
       </c>
       <c r="K7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -6857,7 +6848,7 @@
         <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P7" t="s">
         <v>128</v>
@@ -6871,7 +6862,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D9" s="216" t="s">
         <v>194</v>
@@ -6975,25 +6966,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="223" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="224" t="s">
         <v>362</v>
-      </c>
-      <c r="D7" s="223" t="s">
-        <v>363</v>
-      </c>
-      <c r="E7" s="224" t="s">
-        <v>364</v>
       </c>
       <c r="F7" s="225" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="226" t="s">
+        <v>363</v>
+      </c>
+      <c r="H7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I7" t="s">
         <v>365</v>
-      </c>
-      <c r="H7" t="s">
-        <v>366</v>
-      </c>
-      <c r="I7" t="s">
-        <v>367</v>
       </c>
       <c r="J7" s="227" t="s">
         <v>61</v>
@@ -7013,25 +7004,25 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" s="229" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="230" t="s">
         <v>368</v>
       </c>
-      <c r="D9" s="229" t="s">
+      <c r="F9" s="231" t="s">
         <v>369</v>
       </c>
-      <c r="E9" s="230" t="s">
+      <c r="G9" s="232" t="s">
         <v>370</v>
       </c>
-      <c r="F9" s="231" t="s">
+      <c r="H9" s="233" t="s">
         <v>371</v>
       </c>
-      <c r="G9" s="232" t="s">
+      <c r="I9" t="s">
         <v>372</v>
-      </c>
-      <c r="H9" s="233" t="s">
-        <v>373</v>
-      </c>
-      <c r="I9" t="s">
-        <v>374</v>
       </c>
       <c r="J9" t="s">
         <v>211</v>
@@ -7084,37 +7075,37 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="234" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="235" t="s">
         <v>375</v>
-      </c>
-      <c r="D7" s="234" t="s">
-        <v>376</v>
-      </c>
-      <c r="E7" s="235" t="s">
-        <v>377</v>
       </c>
       <c r="F7" s="236" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="237" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" t="s">
         <v>378</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>379</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>380</v>
-      </c>
-      <c r="J7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K7" t="s">
-        <v>382</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N7" t="s">
         <v>92</v>
@@ -7137,7 +7128,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D9" s="239" t="s">
         <v>194</v>
@@ -7204,8 +7195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -7242,35 +7233,35 @@
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
-        <v>385</v>
+      <c r="C7" s="274" t="s">
+        <v>642</v>
       </c>
       <c r="D7" s="246" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E7" s="247" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F7" s="248" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="249" t="s">
+        <v>385</v>
+      </c>
+      <c r="H7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" t="s">
         <v>388</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>389</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>390</v>
-      </c>
-      <c r="J7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L7" t="s">
-        <v>393</v>
       </c>
       <c r="M7" s="250" t="s">
         <v>124</v>
@@ -7292,30 +7283,30 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="E8" t="s">
-        <v>394</v>
+      <c r="E8" s="274" t="s">
+        <v>641</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M8" t="str">
         <f>接口定义!$E$12</f>
@@ -7338,30 +7329,30 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="E9" t="s">
-        <v>399</v>
+      <c r="E9" s="274" t="s">
+        <v>640</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M9" t="str">
         <f>接口定义!$E$13</f>
@@ -7390,8 +7381,8 @@
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
-        <v>403</v>
+      <c r="C11" s="274" t="s">
+        <v>643</v>
       </c>
       <c r="D11" s="251" t="s">
         <v>194</v>
@@ -7450,7 +7441,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="E12" s="274" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F12" t="str">
         <f>自定义审批动作!$E$8</f>
@@ -7460,7 +7451,7 @@
         <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I12" t="s">
         <v>98</v>
@@ -7493,7 +7484,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="E13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F13" t="str">
         <f>自定义审批动作!$E$8</f>
@@ -7503,7 +7494,7 @@
         <v>188</v>
       </c>
       <c r="H13" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I13" t="s">
         <v>94</v>
@@ -7536,7 +7527,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="E14" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F14" t="str">
         <f>自定义审批动作!$E$9</f>
@@ -7546,7 +7537,7 @@
         <v>188</v>
       </c>
       <c r="H14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I14" t="s">
         <v>98</v>
@@ -7578,8 +7569,8 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="E15" t="s">
-        <v>407</v>
+      <c r="E15" s="274" t="s">
+        <v>639</v>
       </c>
       <c r="F15" t="str">
         <f>自定义审批动作!$E$9</f>
@@ -7589,7 +7580,7 @@
         <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I15" t="s">
         <v>94</v>
@@ -7667,25 +7658,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D7" s="258" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E7" s="259" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F7" s="260" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="I7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="J7" t="s">
         <v>92</v>
@@ -7703,7 +7694,7 @@
         <v>124</v>
       </c>
       <c r="O7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7714,7 +7705,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D9" s="263" t="s">
         <v>194</v>
@@ -7820,22 +7811,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D7" s="270" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E7" s="271" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F7" s="272" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="273" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="I7" t="s">
         <v>211</v>
@@ -7903,7 +7894,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -7944,25 +7935,25 @@
         <v>66</v>
       </c>
       <c r="F8" s="274" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G8" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H8" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="I8" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J8" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M8" t="s">
         <v>73</v>
@@ -7974,10 +7965,10 @@
         <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q8" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -7985,25 +7976,25 @@
         <v>77</v>
       </c>
       <c r="F9" s="274" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G9" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H9" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="I9" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J9" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M9" t="s">
         <v>73</v>
@@ -8015,36 +8006,36 @@
         <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q9" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="E10" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F10" s="274" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I10" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J10" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M10" t="s">
         <v>73</v>
@@ -8056,36 +8047,36 @@
         <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="Q10" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="E11" s="274" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F11" s="274" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G11" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H11" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="I11" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J11" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M11" t="s">
         <v>73</v>
@@ -8097,18 +8088,18 @@
         <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="Q11" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="E12" s="274" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F12" s="274" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G12" t="s">
         <v>67</v>
@@ -8146,10 +8137,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="E13" s="274" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F13" s="274" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -8234,20 +8225,20 @@
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="274" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F16" t="str">
         <f>接口定义!$E$10</f>
         <v>hwkf_def_interface-10</v>
       </c>
       <c r="G16" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H16" t="s">
         <v>279</v>
       </c>
       <c r="I16" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J16" t="s">
         <v>96</v>
@@ -8267,20 +8258,20 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" s="274" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F17" t="str">
         <f>接口定义!$E$11</f>
         <v>hwkf_def_interface-11</v>
       </c>
       <c r="G17" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H17" t="s">
         <v>279</v>
       </c>
       <c r="I17" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J17" t="s">
         <v>96</v>
@@ -8300,20 +8291,20 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" s="274" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F18" t="str">
         <f>接口定义!$E$9</f>
         <v>hwkf_def_interface-9</v>
       </c>
       <c r="G18" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H18" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I18" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
@@ -8333,29 +8324,29 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" s="274" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="F19" t="str">
         <f>接口定义!$E$9</f>
         <v>hwkf_def_interface-9</v>
       </c>
       <c r="G19" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H19" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="I19" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J19" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="K19" t="s">
         <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M19" t="s">
         <v>71</v>
@@ -8369,20 +8360,20 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F20" t="str">
         <f>接口定义!$E$9</f>
         <v>hwkf_def_interface-9</v>
       </c>
       <c r="G20" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H20" t="s">
         <v>279</v>
       </c>
       <c r="I20" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J20" t="s">
         <v>96</v>
@@ -8402,20 +8393,20 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" s="274" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F21" t="str">
         <f>接口定义!$E$8</f>
         <v>hwkf_def_interface-8</v>
       </c>
       <c r="G21" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H21" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I21" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="J21" t="s">
         <v>96</v>
@@ -8438,20 +8429,20 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" s="276" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F22" t="str">
         <f>接口定义!$E$8</f>
         <v>hwkf_def_interface-8</v>
       </c>
       <c r="G22" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H22" t="s">
         <v>279</v>
       </c>
       <c r="I22" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J22" t="s">
         <v>96</v>
@@ -8471,20 +8462,20 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" s="276" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F23" t="str">
         <f>接口定义!$E$8</f>
         <v>hwkf_def_interface-8</v>
       </c>
       <c r="G23" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H23" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I23" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="J23" t="s">
         <v>96</v>
@@ -8504,7 +8495,7 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" s="274" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F24" s="275" t="str">
         <f>接口定义!$E$12</f>
@@ -8538,7 +8529,7 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" s="274" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F25" s="275" t="str">
         <f>接口定义!$E$12</f>
@@ -8572,7 +8563,7 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" s="274" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F26" t="str">
         <f>接口定义!$E$13</f>
@@ -8605,7 +8596,7 @@
     </row>
     <row r="27" spans="5:15">
       <c r="E27" s="274" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F27" t="str">
         <f>接口定义!$E$13</f>
@@ -8646,8 +8637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -8729,28 +8720,28 @@
     </row>
     <row r="8" spans="1:16">
       <c r="E8" s="274" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F8" t="s">
+        <v>513</v>
+      </c>
+      <c r="G8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8" t="s">
+        <v>515</v>
+      </c>
+      <c r="I8" t="s">
+        <v>516</v>
+      </c>
+      <c r="J8" s="274" t="s">
         <v>521</v>
       </c>
-      <c r="G8" t="s">
-        <v>522</v>
-      </c>
-      <c r="H8" t="s">
-        <v>523</v>
-      </c>
-      <c r="I8" t="s">
-        <v>524</v>
-      </c>
-      <c r="J8" s="274" t="s">
-        <v>529</v>
-      </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="N8" t="s">
         <v>71</v>
@@ -8764,22 +8755,22 @@
     </row>
     <row r="9" spans="1:16">
       <c r="E9" s="274" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F9" s="274" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G9" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H9" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I9" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="J9" s="274" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K9" t="str">
         <f>流程分类!$E$8</f>
@@ -8789,7 +8780,7 @@
         <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="N9" t="s">
         <v>71</v>
@@ -8803,10 +8794,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="E10" s="274" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F10" s="274" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -8886,7 +8877,7 @@
         <v>115</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E7" s="146" t="s">
         <v>116</v>
@@ -8934,7 +8925,7 @@
         <v>93</v>
       </c>
       <c r="T7" s="274" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="U7" t="s">
         <v>129</v>
@@ -8957,7 +8948,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="E8" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$9</f>
@@ -8999,7 +8990,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="E9" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
@@ -9141,7 +9132,7 @@
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G12" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H12" t="s">
         <v>135</v>
@@ -9488,14 +9479,14 @@
     </row>
     <row r="20" spans="5:26">
       <c r="E20" s="274" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F20" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G20" s="274" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H20" t="s">
         <v>135</v>
@@ -9522,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U20" t="s">
         <v>73</v>
@@ -9533,7 +9524,7 @@
     </row>
     <row r="21" spans="5:26">
       <c r="E21" s="274" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F21" t="str">
         <f>流程分类!$E$10</f>
@@ -9584,7 +9575,7 @@
     </row>
     <row r="22" spans="5:26">
       <c r="E22" s="274" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="F22" t="str">
         <f>流程分类!$E$10</f>
@@ -9626,7 +9617,7 @@
     </row>
     <row r="23" spans="5:26">
       <c r="E23" s="274" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F23" t="str">
         <f>流程分类!$E$10</f>
@@ -9671,7 +9662,7 @@
     </row>
     <row r="24" spans="5:26">
       <c r="E24" s="274" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F24" t="str">
         <f>流程分类!$E$10</f>
@@ -9713,7 +9704,7 @@
     </row>
     <row r="25" spans="5:26">
       <c r="E25" s="274" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F25" t="str">
         <f>流程分类!$E$10</f>
@@ -9758,7 +9749,7 @@
     </row>
     <row r="26" spans="5:26">
       <c r="E26" s="274" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F26" t="str">
         <f>流程分类!$E$10</f>
@@ -9800,7 +9791,7 @@
     </row>
     <row r="27" spans="5:26">
       <c r="E27" s="274" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F27" t="str">
         <f>流程分类!$E$10</f>
@@ -9842,7 +9833,7 @@
     </row>
     <row r="28" spans="5:26">
       <c r="E28" s="274" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F28" t="str">
         <f>流程分类!$E$10</f>
@@ -9887,7 +9878,7 @@
     </row>
     <row r="29" spans="5:26">
       <c r="E29" s="274" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F29" t="str">
         <f>流程分类!$E$10</f>
@@ -9932,7 +9923,7 @@
     </row>
     <row r="30" spans="5:26">
       <c r="E30" s="274" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="F30" t="str">
         <f>流程分类!$E$10</f>
@@ -9977,7 +9968,7 @@
     </row>
     <row r="31" spans="5:26">
       <c r="E31" s="274" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F31" t="str">
         <f>流程分类!$E$10</f>
@@ -10011,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U31" t="s">
         <v>73</v>
@@ -10019,7 +10010,7 @@
     </row>
     <row r="32" spans="5:26">
       <c r="E32" s="274" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F32" t="str">
         <f>流程分类!$E$10</f>
@@ -10056,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U32" t="s">
         <v>73</v>
@@ -10064,7 +10055,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="E33" s="274" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F33" t="str">
         <f>流程分类!$E$10</f>
@@ -10101,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U33" t="s">
         <v>73</v>
@@ -10109,7 +10100,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="E34" s="274" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F34" t="str">
         <f>流程分类!$E$10</f>
@@ -10146,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="U34" t="s">
         <v>73</v>
@@ -10160,7 +10151,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="274" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D36" s="150" t="s">
         <v>194</v>
@@ -10312,7 +10303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -10355,7 +10346,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D7" s="162" t="s">
         <v>212</v>
@@ -10397,7 +10388,7 @@
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H8" t="s">
         <v>223</v>
@@ -10427,7 +10418,7 @@
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H9" t="s">
         <v>226</v>
@@ -10450,14 +10441,14 @@
     </row>
     <row r="10" spans="1:19">
       <c r="E10" s="274" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F10" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G10" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H10" t="s">
         <v>219</v>
@@ -10480,7 +10471,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="E11" s="274" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F11" t="str">
         <f>流程分类!$E$10</f>
@@ -10510,7 +10501,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="E12" s="274" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F12" t="str">
         <f>流程分类!$E$10</f>
@@ -10540,7 +10531,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="E13" s="274" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F13" t="str">
         <f>流程分类!$E$10</f>
@@ -10565,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -10576,10 +10567,10 @@
         <v>51</v>
       </c>
       <c r="C15" s="274" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E15" s="166" t="s">
         <v>228</v>
@@ -10629,17 +10620,17 @@
     </row>
     <row r="16" spans="1:19">
       <c r="E16" s="274" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F16" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G16" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H16" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="I16" t="s">
         <v>238</v>
@@ -10671,20 +10662,20 @@
     </row>
     <row r="17" spans="5:19">
       <c r="E17" s="274" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F17" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G17" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H17" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="I17" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="J17" t="s">
         <v>239</v>
@@ -10713,20 +10704,20 @@
     </row>
     <row r="18" spans="5:19">
       <c r="E18" s="274" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F18" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H18" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="I18" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="J18" t="s">
         <v>239</v>
@@ -10755,20 +10746,20 @@
     </row>
     <row r="19" spans="5:19">
       <c r="E19" s="274" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F19" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G19" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H19" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="I19" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J19" t="s">
         <v>239</v>
@@ -10797,7 +10788,7 @@
     </row>
     <row r="20" spans="5:19">
       <c r="E20" s="274" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F20" t="str">
         <f>审批人规则!$E$9</f>
@@ -10807,7 +10798,7 @@
         <v>251</v>
       </c>
       <c r="H20" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I20" t="s">
         <v>252</v>
@@ -10839,7 +10830,7 @@
     </row>
     <row r="21" spans="5:19">
       <c r="E21" s="274" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F21" t="str">
         <f>审批人规则!$E$9</f>
@@ -10849,7 +10840,7 @@
         <v>255</v>
       </c>
       <c r="H21" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="I21" t="s">
         <v>256</v>
@@ -10881,20 +10872,20 @@
     </row>
     <row r="22" spans="5:19">
       <c r="E22" s="274" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F22" t="str">
         <f>审批人规则!$E$10</f>
         <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G22" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H22" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I22" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="J22" t="s">
         <v>239</v>
@@ -10923,20 +10914,20 @@
     </row>
     <row r="23" spans="5:19">
       <c r="E23" s="274" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F23" t="str">
         <f>审批人规则!$E$10</f>
         <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G23" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H23" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="I23" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="J23" t="s">
         <v>239</v>
@@ -10965,20 +10956,20 @@
     </row>
     <row r="24" spans="5:19">
       <c r="E24" s="274" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F24" t="str">
         <f>审批人规则!$E$10</f>
         <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G24" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="H24" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I24" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="J24" t="s">
         <v>239</v>
@@ -11007,17 +10998,17 @@
     </row>
     <row r="25" spans="5:19">
       <c r="E25" s="274" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F25" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G25" s="274" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H25" s="274" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I25" t="s">
         <v>238</v>
@@ -11049,20 +11040,20 @@
     </row>
     <row r="26" spans="5:19">
       <c r="E26" s="274" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F26" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G26" s="274" t="s">
+        <v>427</v>
+      </c>
+      <c r="H26" s="274" t="s">
+        <v>419</v>
+      </c>
+      <c r="I26" s="274" t="s">
         <v>435</v>
-      </c>
-      <c r="H26" s="274" t="s">
-        <v>427</v>
-      </c>
-      <c r="I26" s="274" t="s">
-        <v>443</v>
       </c>
       <c r="J26" t="s">
         <v>239</v>
@@ -11091,20 +11082,20 @@
     </row>
     <row r="27" spans="5:19">
       <c r="E27" s="274" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F27" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G27" s="274" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H27" s="274" t="s">
+        <v>432</v>
+      </c>
+      <c r="I27" s="274" t="s">
         <v>440</v>
-      </c>
-      <c r="I27" s="274" t="s">
-        <v>448</v>
       </c>
       <c r="J27" t="s">
         <v>239</v>
@@ -11133,20 +11124,20 @@
     </row>
     <row r="28" spans="5:19">
       <c r="E28" s="274" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F28" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G28" s="274" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H28" s="274" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="I28" s="274" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="J28" t="s">
         <v>239</v>
@@ -11175,7 +11166,7 @@
     </row>
     <row r="29" spans="5:19">
       <c r="E29" s="274" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F29" t="str">
         <f>审批人规则!$E$13</f>
@@ -11185,7 +11176,7 @@
         <v>251</v>
       </c>
       <c r="H29" s="274" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="I29" t="s">
         <v>252</v>
@@ -11217,7 +11208,7 @@
     </row>
     <row r="30" spans="5:19">
       <c r="E30" s="274" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F30" t="str">
         <f>审批人规则!$E$13</f>
@@ -11227,7 +11218,7 @@
         <v>255</v>
       </c>
       <c r="H30" s="274" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I30" t="s">
         <v>256</v>
@@ -11259,20 +11250,20 @@
     </row>
     <row r="31" spans="5:19">
       <c r="E31" s="274" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F31" t="str">
         <f>审批人规则!$E$11</f>
         <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G31" s="274" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H31" s="274" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="I31" s="274" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="J31" t="s">
         <v>239</v>
@@ -11301,20 +11292,20 @@
     </row>
     <row r="32" spans="5:19">
       <c r="E32" s="274" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F32" t="str">
         <f>审批人规则!$E$11</f>
         <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G32" s="274" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H32" s="274" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I32" s="274" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="J32" t="s">
         <v>239</v>
@@ -11343,20 +11334,20 @@
     </row>
     <row r="33" spans="1:21">
       <c r="E33" s="274" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F33" t="str">
         <f>审批人规则!$E$11</f>
         <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G33" s="274" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H33" s="274" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I33" s="274" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J33" t="s">
         <v>239</v>
@@ -11391,10 +11382,10 @@
         <v>51</v>
       </c>
       <c r="C35" s="274" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E35" s="171" t="s">
         <v>261</v>
@@ -11447,10 +11438,10 @@
         <v>51</v>
       </c>
       <c r="C37" s="274" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E37" s="174" t="s">
         <v>84</v>
@@ -11549,7 +11540,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="E39" s="274" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F39" t="str">
         <f>审批人规则!$E$17</f>
@@ -11592,7 +11583,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="E40" s="274" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F40" t="str">
         <f>审批人规则!$E$18</f>
@@ -11635,7 +11626,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="E41" s="274" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F41" t="str">
         <f>审批人规则!$E$18</f>
@@ -11678,7 +11669,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="E42" s="274" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F42" t="str">
         <f>审批人规则!$E$16</f>
@@ -11721,7 +11712,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="E43" s="274" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F43" t="str">
         <f>审批人规则!$E$16</f>
@@ -11766,7 +11757,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="E44" s="274" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F44" t="str">
         <f>审批人规则!$E$19</f>
@@ -11809,7 +11800,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="E45" s="274" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F45" t="str">
         <f>审批人规则!$E$19</f>
@@ -11851,7 +11842,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="E46" s="274" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F46" t="str">
         <f>审批人规则!$E$19</f>
@@ -11894,7 +11885,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="E47" s="274" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F47" t="str">
         <f>审批人规则!$E$20</f>
@@ -11937,7 +11928,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="E48" s="274" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F48" t="str">
         <f>审批人规则!$E$20</f>
@@ -11979,7 +11970,7 @@
     </row>
     <row r="49" spans="3:21">
       <c r="E49" s="274" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F49" t="str">
         <f>审批人规则!$E$20</f>
@@ -12023,7 +12014,7 @@
     <row r="50" spans="3:21">
       <c r="C50" s="274"/>
       <c r="E50" s="274" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F50" t="str">
         <f>审批人规则!$E$21</f>
@@ -12066,7 +12057,7 @@
     </row>
     <row r="51" spans="3:21">
       <c r="E51" s="274" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F51" t="str">
         <f>审批人规则!$E$21</f>
@@ -12108,7 +12099,7 @@
     </row>
     <row r="52" spans="3:21">
       <c r="E52" s="274" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F52" t="str">
         <f>审批人规则!$E$21</f>
@@ -12151,7 +12142,7 @@
     </row>
     <row r="53" spans="3:21">
       <c r="E53" s="274" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F53" t="str">
         <f>审批人规则!$E$31</f>
@@ -12194,7 +12185,7 @@
     </row>
     <row r="54" spans="3:21">
       <c r="E54" s="274" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F54" t="str">
         <f>审批人规则!$E$31</f>
@@ -12236,7 +12227,7 @@
     </row>
     <row r="55" spans="3:21">
       <c r="E55" s="274" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F55" t="str">
         <f>审批人规则!$E$31</f>
@@ -12279,7 +12270,7 @@
     </row>
     <row r="56" spans="3:21">
       <c r="E56" s="274" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F56" t="str">
         <f>审批人规则!$E$32</f>
@@ -12322,7 +12313,7 @@
     </row>
     <row r="57" spans="3:21">
       <c r="E57" s="274" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F57" t="str">
         <f>审批人规则!$E$32</f>
@@ -12364,7 +12355,7 @@
     </row>
     <row r="58" spans="3:21">
       <c r="E58" s="274" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F58" t="str">
         <f>审批人规则!$E$32</f>
@@ -12407,7 +12398,7 @@
     </row>
     <row r="59" spans="3:21">
       <c r="E59" s="274" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F59" t="str">
         <f>审批人规则!$E$33</f>
@@ -12450,7 +12441,7 @@
     </row>
     <row r="60" spans="3:21">
       <c r="E60" s="274" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="F60" t="str">
         <f>审批人规则!$E$33</f>
@@ -12492,7 +12483,7 @@
     </row>
     <row r="61" spans="3:21">
       <c r="E61" s="274" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F61" t="str">
         <f>审批人规则!$E$33</f>
@@ -12535,7 +12526,7 @@
     </row>
     <row r="62" spans="3:21">
       <c r="E62" s="274" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="F62" t="str">
         <f>审批人规则!$E$28</f>
@@ -12578,7 +12569,7 @@
     </row>
     <row r="63" spans="3:21">
       <c r="E63" s="274" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F63" t="str">
         <f>审批人规则!$E$28</f>
@@ -12623,7 +12614,7 @@
     </row>
     <row r="64" spans="3:21">
       <c r="E64" s="274" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F64" t="str">
         <f>审批人规则!$E$29</f>
@@ -12666,7 +12657,7 @@
     </row>
     <row r="65" spans="5:21">
       <c r="E65" s="274" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F65" t="str">
         <f>审批人规则!$E$29</f>
@@ -12709,7 +12700,7 @@
     </row>
     <row r="66" spans="5:21">
       <c r="E66" s="274" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F66" t="str">
         <f>审批人规则!$E$30</f>
@@ -12752,7 +12743,7 @@
     </row>
     <row r="67" spans="5:21">
       <c r="E67" s="274" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F67" t="str">
         <f>审批人规则!$E$30</f>
@@ -12846,10 +12837,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E7" s="180" t="s">
         <v>228</v>
@@ -12899,20 +12890,20 @@
     </row>
     <row r="8" spans="1:19">
       <c r="E8" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F8" t="str">
         <f>审批人规则!$E$9</f>
         <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G8" s="274" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="H8" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="I8" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="J8" t="s">
         <v>275</v>
@@ -12939,26 +12930,26 @@
     </row>
     <row r="9" spans="1:19">
       <c r="E9" s="274" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="F9" t="str">
         <f>审批人规则!$E$13</f>
         <v>hwkf_def_approver_rule-13</v>
       </c>
       <c r="G9" s="274" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H9" s="274" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="I9" s="274" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="J9" t="s">
         <v>275</v>
       </c>
       <c r="K9" s="274" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="L9" t="str">
         <f>流程变量!$E$31</f>
@@ -13092,10 +13083,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -13190,7 +13181,7 @@
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H8" t="s">
         <v>301</v>
@@ -13222,14 +13213,14 @@
     </row>
     <row r="9" spans="1:17">
       <c r="E9" s="274" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H9" t="s">
         <v>298</v>
@@ -13247,10 +13238,10 @@
         <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="N9" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P9" t="s">
         <v>73</v>
@@ -13261,7 +13252,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="E10" s="274" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F10" t="str">
         <f>流程分类!$E$10</f>
@@ -13286,7 +13277,7 @@
         <v>71</v>
       </c>
       <c r="M10" s="274" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N10" t="s">
         <v>138</v>
@@ -13300,7 +13291,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="E11" s="274" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="F11" t="str">
         <f>流程分类!$E$10</f>
@@ -13358,10 +13349,10 @@
         <v>71</v>
       </c>
       <c r="M12" s="274" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="N12" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -13391,10 +13382,10 @@
         <v>71</v>
       </c>
       <c r="M13" s="274" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="N13" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -13427,7 +13418,7 @@
         <v>311</v>
       </c>
       <c r="N14" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -13460,7 +13451,7 @@
         <v>315</v>
       </c>
       <c r="N15" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -13493,7 +13484,7 @@
         <v>319</v>
       </c>
       <c r="N16" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -13504,7 +13495,7 @@
     </row>
     <row r="17" spans="5:17">
       <c r="E17" s="274" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F17" t="str">
         <f>流程分类!$E$10</f>
@@ -13526,45 +13517,12 @@
         <v>323</v>
       </c>
       <c r="N17" s="274" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17">
-      <c r="E18" s="274" t="s">
-        <v>646</v>
-      </c>
-      <c r="F18" t="str">
-        <f>流程分类!$E$10</f>
-        <v>hwkf_def_type-10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>325</v>
-      </c>
-      <c r="H18" t="s">
-        <v>326</v>
-      </c>
-      <c r="I18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="274" t="s">
-        <v>425</v>
-      </c>
-      <c r="N18" s="274" t="s">
-        <v>462</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\工作流\workflow-service\src\main\resources\script\db\init-data\workflow_service\workflow_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9460F5B0-8C07-46E3-9D30-D794D650F584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B156A-BA7B-4801-B361-3D754433F46D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2514,1438 +2514,1440 @@
     <t>hwkf_def_approver_rule-8</t>
   </si>
   <si>
+    <t>申请人的上级领导</t>
+  </si>
+  <si>
+    <t>leaders of applyer</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-9</t>
+  </si>
+  <si>
+    <t>APPROVER_RULE_001_PRE</t>
+  </si>
+  <si>
+    <t>当前组织架构(员工维度)</t>
+  </si>
+  <si>
+    <t>current Organization(employee)</t>
+  </si>
+  <si>
+    <t>申请人信息(员工维度)</t>
+  </si>
+  <si>
+    <t>applier's info (employee)</t>
+  </si>
+  <si>
+    <t>*rule_line_id</t>
+  </si>
+  <si>
+    <t>#rule_id</t>
+  </si>
+  <si>
+    <t>#line_code</t>
+  </si>
+  <si>
+    <t>line_name:zh_CN</t>
+  </si>
+  <si>
+    <t>line_name:en_US</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>hzero_org_flag</t>
+  </si>
+  <si>
+    <t>callback_id</t>
+  </si>
+  <si>
+    <t>Specify employees</t>
+  </si>
+  <si>
+    <t>LOV</t>
+  </si>
+  <si>
+    <t>HWKF.RULE.SELECT_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>工作流-员工查询</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>HWKF.RULE.SELECT_POSITION</t>
+  </si>
+  <si>
+    <t>工作流-选择岗位</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>HWKF.RULE.SELECT_UNIT</t>
+  </si>
+  <si>
+    <t>工作流-选择部门</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>HWKF.RULE.SELECT_UNIT_SUPER</t>
+  </si>
+  <si>
+    <t>根据部门ID查询部门领导</t>
+  </si>
+  <si>
+    <t>LINE_APPLYER_DE_POSITION</t>
+  </si>
+  <si>
+    <t>applyer's position</t>
+  </si>
+  <si>
+    <t>HWKF.RULE.SELECT_POSITION_EMP</t>
+  </si>
+  <si>
+    <t>根据员工编码查询岗位</t>
+  </si>
+  <si>
+    <t>LINE_APPLYER_DE_UNIT</t>
+  </si>
+  <si>
+    <t>applyer's unit</t>
+  </si>
+  <si>
+    <t>HWKF.RULE.SELECT_UNIT_EMP</t>
+  </si>
+  <si>
+    <t>根据员工编码查询部门</t>
+  </si>
+  <si>
+    <t>HWKF.SELECT_LEADER_BY_LEVEL</t>
+  </si>
+  <si>
+    <t>工作流-根据层级查询上级领导</t>
+  </si>
+  <si>
+    <t>*return_id</t>
+  </si>
+  <si>
+    <t>#rule_line_id</t>
+  </si>
+  <si>
+    <t>#field_code</t>
+  </si>
+  <si>
+    <t>field_name:zh_CN</t>
+  </si>
+  <si>
+    <t>field_name:en_US</t>
+  </si>
+  <si>
+    <t>field_width</t>
+  </si>
+  <si>
+    <t>field_order</t>
+  </si>
+  <si>
+    <t>display_flag</t>
+  </si>
+  <si>
+    <t>value_flag</t>
+  </si>
+  <si>
+    <t>select_flag</t>
+  </si>
+  <si>
+    <t>locked_flag</t>
+  </si>
+  <si>
+    <t>HWKF_DEF_APPROVER_RULE_LINE</t>
+  </si>
+  <si>
+    <t>employeeNum</t>
+  </si>
+  <si>
+    <t>员工编码</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>层级:0-一级领导，1-二级领导</t>
+  </si>
+  <si>
+    <t>level：0-leader of level one</t>
+  </si>
+  <si>
+    <t>租户ID</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>unitIds</t>
+  </si>
+  <si>
+    <t>部门ID列表</t>
+  </si>
+  <si>
+    <t>unit id list</t>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-38</t>
+  </si>
+  <si>
+    <t>审批人规则行-参数的参数</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition</t>
+  </si>
+  <si>
+    <t>*condition_id</t>
+  </si>
+  <si>
+    <t>#condition_code</t>
+  </si>
+  <si>
+    <t>condition_name:zh_CN</t>
+  </si>
+  <si>
+    <t>condition_name:en_US</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>web_json</t>
+  </si>
+  <si>
+    <t>detail_json</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition-8</t>
+  </si>
+  <si>
+    <t>LAST_NODE_REJECTED_PRE</t>
+  </si>
+  <si>
+    <t>上一节点审批拒绝</t>
+  </si>
+  <si>
+    <t>Rejected of the previous node</t>
+  </si>
+  <si>
+    <t>LAST_NODE_APPROVED_PRE</t>
+  </si>
+  <si>
+    <t>上一节点审批通过</t>
+  </si>
+  <si>
+    <t>Approved of the previous node</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"LAST_NODE_APPROVED","conditionName":"上一节点审批通过","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"0a0e90ac-0060-4ce7-aa04-f201768e3352","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"d7202d8d-e399-4aee-8668-15a7db3a7335","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"d7202d8d-e399-4aee-8668-15a7db3a7335","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["APPROVED"],"lovData":"APPROVED","symbol":"=="},"symbol":"==","lovData":"APPROVED","lovDataValue":["APPROVED"]}]}</t>
+  </si>
+  <si>
+    <t>backlog_priority_p0</t>
+  </si>
+  <si>
+    <t>需求紧急程度为非常紧急</t>
+  </si>
+  <si>
+    <t>backlog_priority_p1</t>
+  </si>
+  <si>
+    <t>需求紧急程度为紧急</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition-12</t>
+  </si>
+  <si>
+    <t>backlog_priority_p2</t>
+  </si>
+  <si>
+    <t>需求紧急程度为普通</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"backlog_priority_p2","conditionName":"需求紧急程度为普通","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"692a9dfa-fad3-464d-b20e-0bb6000bb50d","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"c32bc0a5-f113-4627-b6d3-2a0065df9512","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"c32bc0a5-f113-4627-b6d3-2a0065df9512","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"普通","symbol":"=="},"symbol":"==","valueData":"普通"}]}</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition-13</t>
+  </si>
+  <si>
+    <t>backlog_priority_p3</t>
+  </si>
+  <si>
+    <t>需求紧急程度为较低</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"backlog_priority_p3","conditionName":"需求紧急程度为较低","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"756a0ba9-95e0-404a-866c-a4e9911ee827","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"55243c6b-419d-434d-8601-4522707b9303","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"55243c6b-419d-434d-8601-4522707b9303","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"较低","symbol":"=="},"symbol":"==","valueData":"较低"}]}</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition-14</t>
+  </si>
+  <si>
+    <t>backlog_type_bug</t>
+  </si>
+  <si>
+    <t>需求类型为bug修复</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"backlog_type_bug","conditionName":"需求类型为bug修复","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"2fbf6dfe-eba1-4ff5-bc2c-91cd0308b5ee","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"37939919-86ac-481c-a69b-ecffb145f338","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"37939919-86ac-481c-a69b-ecffb145f338","conditionVariable":{"creationDate":"2021-03-30 15:14:36","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:36","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxh5alodCpF9N5VNl1CQbZbbcA1pWLxNzOhzK39RMaBTa","variableId":125,"typeId":11,"variableCode":"backlog_type","variableName":"需求类型","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求类型","variableCode":"backlog_type","variableId":125,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"bug修复","symbol":"=="},"symbol":"==","valueData":"bug修复"}]}</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition-15</t>
+  </si>
+  <si>
+    <t>backlog_type_delete</t>
+  </si>
+  <si>
+    <t>需求类型为删除功能</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"backlog_type_delete","conditionName":"需求类型为删除功能","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"d3af2d75-deef-41fe-b875-8bf8431d75ea","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"c15e3eef-3e0e-450e-9c00-b973f5809026","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"c15e3eef-3e0e-450e-9c00-b973f5809026","conditionVariable":{"creationDate":"2021-03-30 15:14:36","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:36","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxh5alodCpF9N5VNl1CQbZbbcA1pWLxNzOhzK39RMaBTa","variableId":125,"typeId":11,"variableCode":"backlog_type","variableName":"需求类型","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求类型","variableCode":"backlog_type","variableId":125,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"删除功能","symbol":"=="},"symbol":"==","valueData":"删除功能"}]}</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition-16</t>
+  </si>
+  <si>
+    <t>审批链</t>
+  </si>
+  <si>
+    <t>hwkf_def_approve_chain</t>
+  </si>
+  <si>
+    <t>*chain_id</t>
+  </si>
+  <si>
+    <t>#chain_code</t>
+  </si>
+  <si>
+    <t>chain_name:zh_CN</t>
+  </si>
+  <si>
+    <t>chain_name:en_US</t>
+  </si>
+  <si>
+    <t>upgrade_from</t>
+  </si>
+  <si>
+    <t>#version</t>
+  </si>
+  <si>
+    <t>source_chain_id</t>
+  </si>
+  <si>
+    <t>updated_flag</t>
+  </si>
+  <si>
+    <t>审批链行</t>
+  </si>
+  <si>
+    <t>hwkf_def_approve_chain_l</t>
+  </si>
+  <si>
+    <t>*chain_line_id</t>
+  </si>
+  <si>
+    <t>#chain_id</t>
+  </si>
+  <si>
+    <t>#order_no</t>
+  </si>
+  <si>
+    <t>parallel_flag</t>
+  </si>
+  <si>
+    <t>approval_strategy</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>#parent_id</t>
+  </si>
+  <si>
+    <t>node_type</t>
+  </si>
+  <si>
+    <t>condition_source_type</t>
+  </si>
+  <si>
+    <t>审批链行-json</t>
+  </si>
+  <si>
+    <t>hwkf_def_approve_chain_json</t>
+  </si>
+  <si>
+    <t>#chain_line_id</t>
+  </si>
+  <si>
+    <t>chain_id</t>
+  </si>
+  <si>
+    <t>chain_web_json</t>
+  </si>
+  <si>
+    <t>审批事件服务节点</t>
+  </si>
+  <si>
+    <t>hwkf_def_event</t>
+  </si>
+  <si>
+    <t>*event_id</t>
+  </si>
+  <si>
+    <t>#event_code</t>
+  </si>
+  <si>
+    <t>event_name:zh_CN</t>
+  </si>
+  <si>
+    <t>event_name:en_US</t>
+  </si>
+  <si>
+    <t>sync_flag</t>
+  </si>
+  <si>
+    <t>event_type</t>
+  </si>
+  <si>
+    <t>审批事件服务节点参数</t>
+  </si>
+  <si>
+    <t>通知节点</t>
+  </si>
+  <si>
+    <t>hwkf_notice_node</t>
+  </si>
+  <si>
+    <t>*node_id</t>
+  </si>
+  <si>
+    <t>#node_code</t>
+  </si>
+  <si>
+    <t>node_name:zh_CN</t>
+  </si>
+  <si>
+    <t>node_name:en_US</t>
+  </si>
+  <si>
+    <t>通知节点行</t>
+  </si>
+  <si>
+    <t>hwkf_notice_node_line</t>
+  </si>
+  <si>
+    <t>*node_line_id</t>
+  </si>
+  <si>
+    <t>#node_id</t>
+  </si>
+  <si>
+    <t>#notice_type</t>
+  </si>
+  <si>
+    <t>#notice_template_code</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>审批表单</t>
+  </si>
+  <si>
+    <t>hwkf_def_form</t>
+  </si>
+  <si>
+    <t>*form_id</t>
+  </si>
+  <si>
+    <t>#form_code</t>
+  </si>
+  <si>
+    <t>form_description:zh_CN</t>
+  </si>
+  <si>
+    <t>form_description:en_US</t>
+  </si>
+  <si>
+    <t>form_type</t>
+  </si>
+  <si>
+    <t>form_url</t>
+  </si>
+  <si>
+    <t>default_flag</t>
+  </si>
+  <si>
+    <t>审批表单参数</t>
+  </si>
+  <si>
+    <t>hwkf_def_customize_act</t>
+  </si>
+  <si>
+    <t>*action_id</t>
+  </si>
+  <si>
+    <t>#action_code</t>
+  </si>
+  <si>
+    <t>action_name:zh_CN</t>
+  </si>
+  <si>
+    <t>action_name:en_US</t>
+  </si>
+  <si>
+    <t>action_desc:zh_CN</t>
+  </si>
+  <si>
+    <t>action_desc:en_US</t>
+  </si>
+  <si>
+    <t>action_result</t>
+  </si>
+  <si>
+    <t>backlog_approved</t>
+  </si>
+  <si>
+    <t>需求通过</t>
+  </si>
+  <si>
+    <t>将需求置为通过状态，需求将进入需求池</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>backlog_reject</t>
+  </si>
+  <si>
+    <t>需求拒绝</t>
+  </si>
+  <si>
+    <t>将需求置为已拒绝状态，审核流程结束</t>
+  </si>
+  <si>
+    <t>HWKF_DEF_CUSTOMIZE_ACT</t>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-13</t>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-14</t>
+  </si>
+  <si>
+    <t>邮件审批模板</t>
+  </si>
+  <si>
+    <t>hwkf_def_mail_template</t>
+  </si>
+  <si>
+    <t>*template_id</t>
+  </si>
+  <si>
+    <t>#template_code</t>
+  </si>
+  <si>
+    <t>template_name:zh_CN</t>
+  </si>
+  <si>
+    <t>template_name:en_US</t>
+  </si>
+  <si>
+    <t>template_content</t>
+  </si>
+  <si>
+    <t>template_remark</t>
+  </si>
+  <si>
+    <t>邮件审批模板参数</t>
+  </si>
+  <si>
+    <t>默认发送账号</t>
+  </si>
+  <si>
+    <t>hwkf_def_account</t>
+  </si>
+  <si>
+    <t>*account_id</t>
+  </si>
+  <si>
+    <t>#account_type</t>
+  </si>
+  <si>
+    <t>account_server_code</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"LAST_NODE_REJECTED","conditionName":"上一节点审批拒绝","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"ca91fce4-ca00-4a4f-a059-0bd3031e1129","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["REJECTED"],"lovData":"REJECTED","symbol":"=="},"symbol":"==","lovData":"REJECTED","lovDataValue":["REJECTED"]}]}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"conditionCode":"backlog_priority_p0","conditionName":"需求紧急程度为非常紧急","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"544a822d-c76f-4b73-b57d-3235ac7b792a","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"83ebb33b-0a5f-4bad-87ec-aa6c2cadcaff","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"83ebb33b-0a5f-4bad-87ec-aa6c2cadcaff","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"非常紧急","symbol":"=="},"symbol":"==","valueData":"非常紧急"}]}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"conditionCode":"backlog_priority_p1","conditionName":"需求紧急程度为紧急","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"07edd88c-8456-4117-87f7-644f5bbb5eb3","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"60bc1bae-8203-4425-a9f0-c1004a83fdaa","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"60bc1bae-8203-4425-a9f0-c1004a83fdaa","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"紧急","symbol":"=="},"symbol":"==","valueData":"紧急"}]}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人所在岗位</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定岗位</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定员工</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人所在部门</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级领导(总经理)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_01</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_02</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_03</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_UNIT</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_POSITION</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_EMPLOYEE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级领导(组长)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级领导(部门经理)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部门</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_SOME_UNITS_LEADERS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些部门的领导</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify positions</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyer's position</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader of level three(general manager)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader of level two(department manager)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader of level one(group leader)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify units</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_return</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则参数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则行返回字段</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则行-变量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPLYER</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程发起人(员工)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>applier(employee)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionUserId</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF_BACKLOG_APPROVE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程变量参数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREDEFINED</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_source_type</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则行</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人规则</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户查询员工</t>
+  </si>
+  <si>
+    <t>Query employees by users</t>
+  </si>
+  <si>
+    <t>choerodon-platform</t>
+  </si>
+  <si>
+    <t>choerodon-platform.employee-user.getEmployee</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Employee User</t>
+  </si>
+  <si>
+    <t>getEmployeeUsingGET</t>
+  </si>
+  <si>
+    <t>查询某个部门下的员工</t>
+  </si>
+  <si>
+    <t>Query employees under a certain department</t>
+  </si>
+  <si>
+    <t>choerodon-platform.workflow-hr.pageDepartmentEmployee</t>
+  </si>
+  <si>
+    <t>Workflow - HR</t>
+  </si>
+  <si>
+    <t>pageDepartmentEmployeeUsingGET</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface-10</t>
+  </si>
+  <si>
+    <t>查询岗位列表</t>
+  </si>
+  <si>
+    <t>Query position list</t>
+  </si>
+  <si>
+    <t>choerodon-platform.workflow-plus-hr.pagePosition</t>
+  </si>
+  <si>
+    <t>Workflow Plus - HR</t>
+  </si>
+  <si>
+    <t>pagePositionUsingGET</t>
+  </si>
+  <si>
+    <t>查询部门列表</t>
+  </si>
+  <si>
+    <t>Query department list</t>
+  </si>
+  <si>
+    <t>choerodon-platform.unit.listAllDepartment</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>listAllDepartmentUsingGET</t>
+  </si>
+  <si>
+    <t>organizationId</t>
+  </si>
+  <si>
+    <t>Tenant ID</t>
+  </si>
+  <si>
+    <t>departmentId</t>
+  </si>
+  <si>
+    <t>部门ID,与部门编码不可同时为空</t>
+  </si>
+  <si>
+    <t>Department ID, and department code cannot be empty at the same time</t>
+  </si>
+  <si>
+    <t>includeChildDepartment</t>
+  </si>
+  <si>
+    <t>是否包含子部门，默认不包含</t>
+  </si>
+  <si>
+    <t>Whether to include sub-departments, not included by default</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>enabledFlag</t>
+  </si>
+  <si>
+    <t>是否启用</t>
+  </si>
+  <si>
+    <t>Whether to enable</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-20</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-21</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-22</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-23</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-24</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-25</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-26</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-27</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface-13</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.reject</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.approved</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.pageUnit</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>#interface_code</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface-11</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface-12</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.pageDepartmentEmployee</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.pagePosition</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf.ydy.getEmployeeByUserId</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF_PREDEFINE_CATALOGUE</t>
+  </si>
+  <si>
+    <t>初始预定义数据(勿删)</t>
+  </si>
+  <si>
+    <t>Predefine Catalog(do not delete)</t>
+  </si>
+  <si>
+    <t>预定义数据目录(勿删)</t>
+  </si>
+  <si>
+    <t>初始预定义数据分类(勿删)</t>
+  </si>
+  <si>
+    <t>Predefine Classification(do not delete)</t>
+  </si>
+  <si>
+    <t>预定义数据分类(勿删)</t>
+  </si>
+  <si>
+    <t>HWKF_PREDEFINE_CATALOGUE;HWKF_PREDEFINE_TYPE</t>
+  </si>
+  <si>
+    <t>Predefine Catalog</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predefine Classification(Do not delete)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HWKF_PREDEFINE_TYPE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_type-9</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-8</t>
+  </si>
+  <si>
+    <t>hwkf_def_variable-9</t>
+  </si>
+  <si>
+    <t>sessionUserId</t>
+  </si>
+  <si>
+    <t>hwkf_def_type-8</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_type-10</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVER_RULE_001</t>
+  </si>
+  <si>
+    <t>APPROVER_RULE_003</t>
+  </si>
+  <si>
+    <t>APPROVER_RULE_004</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-10</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-11</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-12</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-13</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>指定员工</t>
+  </si>
+  <si>
+    <t>LINE_APPOINT_POSITION</t>
+  </si>
+  <si>
+    <t>指定岗位</t>
+  </si>
+  <si>
+    <t>Specify positions</t>
+  </si>
+  <si>
+    <t>LINE_APPOINT_UNIT</t>
+  </si>
+  <si>
+    <t>指定部门</t>
+  </si>
+  <si>
+    <t>Specify units</t>
+  </si>
+  <si>
+    <t>LINE_SOME_UNITS_LEADERS</t>
+  </si>
+  <si>
+    <t>某些部门的领导</t>
+  </si>
+  <si>
+    <t>Leaders of some units</t>
+  </si>
+  <si>
+    <t>申请人所在岗位</t>
+  </si>
+  <si>
+    <t>申请人所在部门</t>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_01</t>
+  </si>
+  <si>
+    <t>一级领导(组长)</t>
+  </si>
+  <si>
+    <t>leader of level one（team leader）</t>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_02</t>
+  </si>
+  <si>
+    <t>二级领导(部门经理)</t>
+  </si>
+  <si>
+    <t>leader of level two(unit manager)</t>
+  </si>
+  <si>
+    <t>LINE_LEVEL_LEADER_03</t>
+  </si>
+  <si>
+    <t>三级领导(总经理)</t>
+  </si>
+  <si>
+    <t>leader of level three(general manager)</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-22</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-23</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-24</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-25</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-26</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-27</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-28</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-29</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-30</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-39</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-40</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-41</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-42</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-43</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-44</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-45</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-46</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-47</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-48</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-49</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-50</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-51</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-52</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-53</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-17</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-18</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-19</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-20</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-21</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-16</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-31</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-32</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-33</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-54</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-55</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-56</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-57</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-58</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-59</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-60</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-61</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-62</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-63</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-64</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-65</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-66</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-67</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-20</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-21</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-22</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-23</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-24</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-25</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-26</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-27</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-28</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-29</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-30</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-31</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-32</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-33</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-34</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-16</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-17</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-18</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_interface_param-19</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-8</t>
+  </si>
+  <si>
+    <t>流程发起人(员工)</t>
+  </si>
+  <si>
+    <t>applier(employee)</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-9</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPLYER</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>startEmployeeNum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_NODE_APPROVED</t>
+  </si>
+  <si>
+    <t>LAST_NODE_REJECTED</t>
+  </si>
+  <si>
+    <t>{"conditionCode":"LAST_NODE_REJECTED","conditionName":"上一节点审批拒绝","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"ca91fce4-ca00-4a4f-a059-0bd3031e1129","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["REJECTED"],"lovData":"REJECTED","symbol":"=="},"symbol":"==","lovData":"REJECTED","lovDataValue":["REJECTED"]}]}</t>
+  </si>
+  <si>
+    <t>hwkf_def_condition-9</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_condition-10</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_condition-11</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_condition-17</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-12</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-15</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_customize_act-9</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_customize_act-8</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义审批动作</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义审批动作参数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>APPROVER_RULE_004_PRE</t>
-  </si>
-  <si>
-    <t>申请人的上级领导</t>
-  </si>
-  <si>
-    <t>leaders of applyer</t>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-9</t>
-  </si>
-  <si>
-    <t>APPROVER_RULE_001_PRE</t>
-  </si>
-  <si>
-    <t>当前组织架构(员工维度)</t>
-  </si>
-  <si>
-    <t>current Organization(employee)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>APPROVER_RULE_003_PRE</t>
-  </si>
-  <si>
-    <t>申请人信息(员工维度)</t>
-  </si>
-  <si>
-    <t>applier's info (employee)</t>
-  </si>
-  <si>
-    <t>*rule_line_id</t>
-  </si>
-  <si>
-    <t>#rule_id</t>
-  </si>
-  <si>
-    <t>#line_code</t>
-  </si>
-  <si>
-    <t>line_name:zh_CN</t>
-  </si>
-  <si>
-    <t>line_name:en_US</t>
-  </si>
-  <si>
-    <t>source_code</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>source_name</t>
-  </si>
-  <si>
-    <t>hzero_org_flag</t>
-  </si>
-  <si>
-    <t>callback_id</t>
-  </si>
-  <si>
-    <t>Specify employees</t>
-  </si>
-  <si>
-    <t>LOV</t>
-  </si>
-  <si>
-    <t>HWKF.RULE.SELECT_EMPLOYEE</t>
-  </si>
-  <si>
-    <t>工作流-员工查询</t>
-  </si>
-  <si>
-    <t>EMPLOYEE</t>
-  </si>
-  <si>
-    <t>HWKF.RULE.SELECT_POSITION</t>
-  </si>
-  <si>
-    <t>工作流-选择岗位</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>HWKF.RULE.SELECT_UNIT</t>
-  </si>
-  <si>
-    <t>工作流-选择部门</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>HWKF.RULE.SELECT_UNIT_SUPER</t>
-  </si>
-  <si>
-    <t>根据部门ID查询部门领导</t>
-  </si>
-  <si>
-    <t>LINE_APPLYER_DE_POSITION</t>
-  </si>
-  <si>
-    <t>applyer's position</t>
-  </si>
-  <si>
-    <t>HWKF.RULE.SELECT_POSITION_EMP</t>
-  </si>
-  <si>
-    <t>根据员工编码查询岗位</t>
-  </si>
-  <si>
-    <t>LINE_APPLYER_DE_UNIT</t>
-  </si>
-  <si>
-    <t>applyer's unit</t>
-  </si>
-  <si>
-    <t>HWKF.RULE.SELECT_UNIT_EMP</t>
-  </si>
-  <si>
-    <t>根据员工编码查询部门</t>
-  </si>
-  <si>
-    <t>HWKF.SELECT_LEADER_BY_LEVEL</t>
-  </si>
-  <si>
-    <t>工作流-根据层级查询上级领导</t>
-  </si>
-  <si>
-    <t>*return_id</t>
-  </si>
-  <si>
-    <t>#rule_line_id</t>
-  </si>
-  <si>
-    <t>#field_code</t>
-  </si>
-  <si>
-    <t>field_name:zh_CN</t>
-  </si>
-  <si>
-    <t>field_name:en_US</t>
-  </si>
-  <si>
-    <t>field_width</t>
-  </si>
-  <si>
-    <t>field_order</t>
-  </si>
-  <si>
-    <t>display_flag</t>
-  </si>
-  <si>
-    <t>value_flag</t>
-  </si>
-  <si>
-    <t>select_flag</t>
-  </si>
-  <si>
-    <t>locked_flag</t>
-  </si>
-  <si>
-    <t>HWKF_DEF_APPROVER_RULE_LINE</t>
-  </si>
-  <si>
-    <t>employeeNum</t>
-  </si>
-  <si>
-    <t>员工编码</t>
-  </si>
-  <si>
-    <t>VARIABLE</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>层级:0-一级领导，1-二级领导</t>
-  </si>
-  <si>
-    <t>level：0-leader of level one</t>
-  </si>
-  <si>
-    <t>租户ID</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>unitIds</t>
-  </si>
-  <si>
-    <t>部门ID列表</t>
-  </si>
-  <si>
-    <t>unit id list</t>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-38</t>
-  </si>
-  <si>
-    <t>审批人规则行-参数的参数</t>
-  </si>
-  <si>
-    <t>条件</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition</t>
-  </si>
-  <si>
-    <t>*condition_id</t>
-  </si>
-  <si>
-    <t>#condition_code</t>
-  </si>
-  <si>
-    <t>condition_name:zh_CN</t>
-  </si>
-  <si>
-    <t>condition_name:en_US</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>web_json</t>
-  </si>
-  <si>
-    <t>detail_json</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition-8</t>
-  </si>
-  <si>
-    <t>LAST_NODE_REJECTED_PRE</t>
-  </si>
-  <si>
-    <t>上一节点审批拒绝</t>
-  </si>
-  <si>
-    <t>Rejected of the previous node</t>
-  </si>
-  <si>
-    <t>LAST_NODE_APPROVED_PRE</t>
-  </si>
-  <si>
-    <t>上一节点审批通过</t>
-  </si>
-  <si>
-    <t>Approved of the previous node</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"LAST_NODE_APPROVED","conditionName":"上一节点审批通过","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"0a0e90ac-0060-4ce7-aa04-f201768e3352","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"d7202d8d-e399-4aee-8668-15a7db3a7335","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"d7202d8d-e399-4aee-8668-15a7db3a7335","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["APPROVED"],"lovData":"APPROVED","symbol":"=="},"symbol":"==","lovData":"APPROVED","lovDataValue":["APPROVED"]}]}</t>
-  </si>
-  <si>
-    <t>backlog_priority_p0</t>
-  </si>
-  <si>
-    <t>需求紧急程度为非常紧急</t>
-  </si>
-  <si>
-    <t>backlog_priority_p1</t>
-  </si>
-  <si>
-    <t>需求紧急程度为紧急</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition-12</t>
-  </si>
-  <si>
-    <t>backlog_priority_p2</t>
-  </si>
-  <si>
-    <t>需求紧急程度为普通</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_priority_p2","conditionName":"需求紧急程度为普通","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"692a9dfa-fad3-464d-b20e-0bb6000bb50d","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"c32bc0a5-f113-4627-b6d3-2a0065df9512","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"c32bc0a5-f113-4627-b6d3-2a0065df9512","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"普通","symbol":"=="},"symbol":"==","valueData":"普通"}]}</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition-13</t>
-  </si>
-  <si>
-    <t>backlog_priority_p3</t>
-  </si>
-  <si>
-    <t>需求紧急程度为较低</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_priority_p3","conditionName":"需求紧急程度为较低","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"756a0ba9-95e0-404a-866c-a4e9911ee827","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"55243c6b-419d-434d-8601-4522707b9303","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"55243c6b-419d-434d-8601-4522707b9303","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"较低","symbol":"=="},"symbol":"==","valueData":"较低"}]}</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition-14</t>
-  </si>
-  <si>
-    <t>backlog_type_bug</t>
-  </si>
-  <si>
-    <t>需求类型为bug修复</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_type_bug","conditionName":"需求类型为bug修复","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"2fbf6dfe-eba1-4ff5-bc2c-91cd0308b5ee","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"37939919-86ac-481c-a69b-ecffb145f338","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"37939919-86ac-481c-a69b-ecffb145f338","conditionVariable":{"creationDate":"2021-03-30 15:14:36","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:36","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxh5alodCpF9N5VNl1CQbZbbcA1pWLxNzOhzK39RMaBTa","variableId":125,"typeId":11,"variableCode":"backlog_type","variableName":"需求类型","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求类型","variableCode":"backlog_type","variableId":125,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"bug修复","symbol":"=="},"symbol":"==","valueData":"bug修复"}]}</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition-15</t>
-  </si>
-  <si>
-    <t>backlog_type_delete</t>
-  </si>
-  <si>
-    <t>需求类型为删除功能</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_type_delete","conditionName":"需求类型为删除功能","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"d3af2d75-deef-41fe-b875-8bf8431d75ea","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"c15e3eef-3e0e-450e-9c00-b973f5809026","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"c15e3eef-3e0e-450e-9c00-b973f5809026","conditionVariable":{"creationDate":"2021-03-30 15:14:36","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:36","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxh5alodCpF9N5VNl1CQbZbbcA1pWLxNzOhzK39RMaBTa","variableId":125,"typeId":11,"variableCode":"backlog_type","variableName":"需求类型","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求类型","variableCode":"backlog_type","variableId":125,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求类型","zh_CN":"需求类型"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"删除功能","symbol":"=="},"symbol":"==","valueData":"删除功能"}]}</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition-16</t>
-  </si>
-  <si>
-    <t>审批链</t>
-  </si>
-  <si>
-    <t>hwkf_def_approve_chain</t>
-  </si>
-  <si>
-    <t>*chain_id</t>
-  </si>
-  <si>
-    <t>#chain_code</t>
-  </si>
-  <si>
-    <t>chain_name:zh_CN</t>
-  </si>
-  <si>
-    <t>chain_name:en_US</t>
-  </si>
-  <si>
-    <t>upgrade_from</t>
-  </si>
-  <si>
-    <t>#version</t>
-  </si>
-  <si>
-    <t>source_chain_id</t>
-  </si>
-  <si>
-    <t>updated_flag</t>
-  </si>
-  <si>
-    <t>审批链行</t>
-  </si>
-  <si>
-    <t>hwkf_def_approve_chain_l</t>
-  </si>
-  <si>
-    <t>*chain_line_id</t>
-  </si>
-  <si>
-    <t>#chain_id</t>
-  </si>
-  <si>
-    <t>#order_no</t>
-  </si>
-  <si>
-    <t>parallel_flag</t>
-  </si>
-  <si>
-    <t>approval_strategy</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>#parent_id</t>
-  </si>
-  <si>
-    <t>node_type</t>
-  </si>
-  <si>
-    <t>condition_source_type</t>
-  </si>
-  <si>
-    <t>审批链行-json</t>
-  </si>
-  <si>
-    <t>hwkf_def_approve_chain_json</t>
-  </si>
-  <si>
-    <t>#chain_line_id</t>
-  </si>
-  <si>
-    <t>chain_id</t>
-  </si>
-  <si>
-    <t>chain_web_json</t>
-  </si>
-  <si>
-    <t>审批事件服务节点</t>
-  </si>
-  <si>
-    <t>hwkf_def_event</t>
-  </si>
-  <si>
-    <t>*event_id</t>
-  </si>
-  <si>
-    <t>#event_code</t>
-  </si>
-  <si>
-    <t>event_name:zh_CN</t>
-  </si>
-  <si>
-    <t>event_name:en_US</t>
-  </si>
-  <si>
-    <t>sync_flag</t>
-  </si>
-  <si>
-    <t>event_type</t>
-  </si>
-  <si>
-    <t>审批事件服务节点参数</t>
-  </si>
-  <si>
-    <t>通知节点</t>
-  </si>
-  <si>
-    <t>hwkf_notice_node</t>
-  </si>
-  <si>
-    <t>*node_id</t>
-  </si>
-  <si>
-    <t>#node_code</t>
-  </si>
-  <si>
-    <t>node_name:zh_CN</t>
-  </si>
-  <si>
-    <t>node_name:en_US</t>
-  </si>
-  <si>
-    <t>通知节点行</t>
-  </si>
-  <si>
-    <t>hwkf_notice_node_line</t>
-  </si>
-  <si>
-    <t>*node_line_id</t>
-  </si>
-  <si>
-    <t>#node_id</t>
-  </si>
-  <si>
-    <t>#notice_type</t>
-  </si>
-  <si>
-    <t>#notice_template_code</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>审批表单</t>
-  </si>
-  <si>
-    <t>hwkf_def_form</t>
-  </si>
-  <si>
-    <t>*form_id</t>
-  </si>
-  <si>
-    <t>#form_code</t>
-  </si>
-  <si>
-    <t>form_description:zh_CN</t>
-  </si>
-  <si>
-    <t>form_description:en_US</t>
-  </si>
-  <si>
-    <t>form_type</t>
-  </si>
-  <si>
-    <t>form_url</t>
-  </si>
-  <si>
-    <t>default_flag</t>
-  </si>
-  <si>
-    <t>审批表单参数</t>
-  </si>
-  <si>
-    <t>hwkf_def_customize_act</t>
-  </si>
-  <si>
-    <t>*action_id</t>
-  </si>
-  <si>
-    <t>#action_code</t>
-  </si>
-  <si>
-    <t>action_name:zh_CN</t>
-  </si>
-  <si>
-    <t>action_name:en_US</t>
-  </si>
-  <si>
-    <t>action_desc:zh_CN</t>
-  </si>
-  <si>
-    <t>action_desc:en_US</t>
-  </si>
-  <si>
-    <t>action_result</t>
-  </si>
-  <si>
-    <t>backlog_approved</t>
-  </si>
-  <si>
-    <t>需求通过</t>
-  </si>
-  <si>
-    <t>将需求置为通过状态，需求将进入需求池</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>backlog_reject</t>
-  </si>
-  <si>
-    <t>需求拒绝</t>
-  </si>
-  <si>
-    <t>将需求置为已拒绝状态，审核流程结束</t>
-  </si>
-  <si>
-    <t>HWKF_DEF_CUSTOMIZE_ACT</t>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-13</t>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-14</t>
-  </si>
-  <si>
-    <t>邮件审批模板</t>
-  </si>
-  <si>
-    <t>hwkf_def_mail_template</t>
-  </si>
-  <si>
-    <t>*template_id</t>
-  </si>
-  <si>
-    <t>#template_code</t>
-  </si>
-  <si>
-    <t>template_name:zh_CN</t>
-  </si>
-  <si>
-    <t>template_name:en_US</t>
-  </si>
-  <si>
-    <t>template_content</t>
-  </si>
-  <si>
-    <t>template_remark</t>
-  </si>
-  <si>
-    <t>邮件审批模板参数</t>
-  </si>
-  <si>
-    <t>默认发送账号</t>
-  </si>
-  <si>
-    <t>hwkf_def_account</t>
-  </si>
-  <si>
-    <t>*account_id</t>
-  </si>
-  <si>
-    <t>#account_type</t>
-  </si>
-  <si>
-    <t>account_server_code</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"LAST_NODE_REJECTED","conditionName":"上一节点审批拒绝","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"ca91fce4-ca00-4a4f-a059-0bd3031e1129","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["REJECTED"],"lovData":"REJECTED","symbol":"=="},"symbol":"==","lovData":"REJECTED","lovDataValue":["REJECTED"]}]}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_priority_p0","conditionName":"需求紧急程度为非常紧急","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"544a822d-c76f-4b73-b57d-3235ac7b792a","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"83ebb33b-0a5f-4bad-87ec-aa6c2cadcaff","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"83ebb33b-0a5f-4bad-87ec-aa6c2cadcaff","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"非常紧急","symbol":"=="},"symbol":"==","valueData":"非常紧急"}]}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"conditionCode":"backlog_priority_p1","conditionName":"需求紧急程度为紧急","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"07edd88c-8456-4117-87f7-644f5bbb5eb3","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"60bc1bae-8203-4425-a9f0-c1004a83fdaa","sourceType":"DEFAULT","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"60bc1bae-8203-4425-a9f0-c1004a83fdaa","conditionVariable":{"creationDate":"2021-03-30 15:14:04","createdBy":11134,"lastUpdateDate":"2021-03-30 15:14:04","lastUpdatedBy":11134,"objectVersionNumber":1,"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"_token":"OlpFj2jlB05e8U2nIJc40M0/BjmXuN/FV7iXqKpuH1hjtKpZvEfTmIk/MtmC7Q0/tynBrfEtbVn3y9Nq+ldpxlIzV3Tok6Bhi2meC2xtrYzcA1pWLxNzOhzK39RMaBTa","variableId":124,"typeId":11,"variableCode":"backlog_priority","variableName":"需求紧急程度","variableType":"String","sourceType":"DEFAULT","conditionFlag":1,"rangeType":"CONSTANT","enabledFlag":1,"tenantId":1145,"recordSourceType":"CUSTOMIZE","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"自定义","rangeTypeMeaning":"常量","recordSourceTypeMeaning":"自定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"CONSTANT","variableName":"需求紧急程度","variableCode":"backlog_priority","variableId":124,"sourceType":"DEFAULT","parameterValueList":[],"_tls":{"variableName":{"en_US":"需求紧急程度","zh_CN":"需求紧急程度"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","valueData":"紧急","symbol":"=="},"symbol":"==","valueData":"紧急"}]}</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人所在岗位</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定岗位</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定员工</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人所在部门</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级领导(总经理)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_01</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_02</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_03</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPOINT_UNIT</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPOINT_POSITION</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPOINT_EMPLOYEE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级领导(组长)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级领导(部门经理)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定部门</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_SOME_UNITS_LEADERS</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些部门的领导</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specify positions</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyer's position</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader of level three(general manager)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader of level two(department manager)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader of level one(group leader)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specify units</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_return</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则参数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则行返回字段</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则行-变量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPLYER</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程发起人(员工)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>applier(employee)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionUserId</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>HWKF_BACKLOG_APPROVE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程变量参数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREDEFINED</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>record_source_type</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则行</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用户查询员工</t>
-  </si>
-  <si>
-    <t>Query employees by users</t>
-  </si>
-  <si>
-    <t>choerodon-platform</t>
-  </si>
-  <si>
-    <t>choerodon-platform.employee-user.getEmployee</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Employee User</t>
-  </si>
-  <si>
-    <t>getEmployeeUsingGET</t>
-  </si>
-  <si>
-    <t>查询某个部门下的员工</t>
-  </si>
-  <si>
-    <t>Query employees under a certain department</t>
-  </si>
-  <si>
-    <t>choerodon-platform.workflow-hr.pageDepartmentEmployee</t>
-  </si>
-  <si>
-    <t>Workflow - HR</t>
-  </si>
-  <si>
-    <t>pageDepartmentEmployeeUsingGET</t>
-  </si>
-  <si>
-    <t>hwkf_def_interface-10</t>
-  </si>
-  <si>
-    <t>查询岗位列表</t>
-  </si>
-  <si>
-    <t>Query position list</t>
-  </si>
-  <si>
-    <t>choerodon-platform.workflow-plus-hr.pagePosition</t>
-  </si>
-  <si>
-    <t>Workflow Plus - HR</t>
-  </si>
-  <si>
-    <t>pagePositionUsingGET</t>
-  </si>
-  <si>
-    <t>查询部门列表</t>
-  </si>
-  <si>
-    <t>Query department list</t>
-  </si>
-  <si>
-    <t>choerodon-platform.unit.listAllDepartment</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>listAllDepartmentUsingGET</t>
-  </si>
-  <si>
-    <t>organizationId</t>
-  </si>
-  <si>
-    <t>Tenant ID</t>
-  </si>
-  <si>
-    <t>departmentId</t>
-  </si>
-  <si>
-    <t>部门ID,与部门编码不可同时为空</t>
-  </si>
-  <si>
-    <t>Department ID, and department code cannot be empty at the same time</t>
-  </si>
-  <si>
-    <t>includeChildDepartment</t>
-  </si>
-  <si>
-    <t>是否包含子部门，默认不包含</t>
-  </si>
-  <si>
-    <t>Whether to include sub-departments, not included by default</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>enabledFlag</t>
-  </si>
-  <si>
-    <t>是否启用</t>
-  </si>
-  <si>
-    <t>Whether to enable</t>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-20</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-21</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-22</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-23</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-24</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-25</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-26</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-27</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface-13</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.reject</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.approved</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.pageUnit</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>#interface_code</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface-11</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface-12</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.pageDepartmentEmployee</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.pagePosition</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf.ydy.getEmployeeByUserId</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>HWKF_PREDEFINE_CATALOGUE</t>
-  </si>
-  <si>
-    <t>初始预定义数据(勿删)</t>
-  </si>
-  <si>
-    <t>Predefine Catalog(do not delete)</t>
-  </si>
-  <si>
-    <t>预定义数据目录(勿删)</t>
-  </si>
-  <si>
-    <t>初始预定义数据分类(勿删)</t>
-  </si>
-  <si>
-    <t>Predefine Classification(do not delete)</t>
-  </si>
-  <si>
-    <t>预定义数据分类(勿删)</t>
-  </si>
-  <si>
-    <t>HWKF_PREDEFINE_CATALOGUE;HWKF_PREDEFINE_TYPE</t>
-  </si>
-  <si>
-    <t>Predefine Catalog</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Predefine Classification(Do not delete)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>HWKF_PREDEFINE_TYPE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_type-9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-8</t>
-  </si>
-  <si>
-    <t>hwkf_def_variable-9</t>
-  </si>
-  <si>
-    <t>sessionUserId</t>
-  </si>
-  <si>
-    <t>hwkf_def_type-8</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_type-10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPROVER_RULE_001</t>
-  </si>
-  <si>
-    <t>APPROVER_RULE_003</t>
-  </si>
-  <si>
-    <t>APPROVER_RULE_004</t>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-11</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-12</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_rule-13</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPOINT_EMPLOYEE</t>
-  </si>
-  <si>
-    <t>指定员工</t>
-  </si>
-  <si>
-    <t>LINE_APPOINT_POSITION</t>
-  </si>
-  <si>
-    <t>指定岗位</t>
-  </si>
-  <si>
-    <t>Specify positions</t>
-  </si>
-  <si>
-    <t>LINE_APPOINT_UNIT</t>
-  </si>
-  <si>
-    <t>指定部门</t>
-  </si>
-  <si>
-    <t>Specify units</t>
-  </si>
-  <si>
-    <t>LINE_SOME_UNITS_LEADERS</t>
-  </si>
-  <si>
-    <t>某些部门的领导</t>
-  </si>
-  <si>
-    <t>Leaders of some units</t>
-  </si>
-  <si>
-    <t>申请人所在岗位</t>
-  </si>
-  <si>
-    <t>申请人所在部门</t>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_01</t>
-  </si>
-  <si>
-    <t>一级领导(组长)</t>
-  </si>
-  <si>
-    <t>leader of level one（team leader）</t>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_02</t>
-  </si>
-  <si>
-    <t>二级领导(部门经理)</t>
-  </si>
-  <si>
-    <t>leader of level two(unit manager)</t>
-  </si>
-  <si>
-    <t>LINE_LEVEL_LEADER_03</t>
-  </si>
-  <si>
-    <t>三级领导(总经理)</t>
-  </si>
-  <si>
-    <t>leader of level three(general manager)</t>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-22</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-23</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-24</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-25</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-26</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-27</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-28</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-29</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-30</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-39</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-40</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-41</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-42</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-43</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-44</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-45</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-46</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-47</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-48</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-49</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-50</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-51</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-52</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-53</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-17</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-18</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-19</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-20</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-21</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-16</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-31</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-32</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-33</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-54</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-55</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-56</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-57</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-58</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-59</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-60</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-61</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-62</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-63</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-64</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-65</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-66</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-67</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-20</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-21</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-22</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-23</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-24</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-25</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-26</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-27</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-28</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-29</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-30</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-31</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-32</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-33</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_variable-34</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-16</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-17</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-18</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-19</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-8</t>
-  </si>
-  <si>
-    <t>流程发起人(员工)</t>
-  </si>
-  <si>
-    <t>applier(employee)</t>
-  </si>
-  <si>
-    <t>hwkf_def_approver_line-9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_APPLYER</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>startEmployeeNum</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST_NODE_APPROVED</t>
-  </si>
-  <si>
-    <t>LAST_NODE_REJECTED</t>
-  </si>
-  <si>
-    <t>{"conditionCode":"LAST_NODE_REJECTED","conditionName":"上一节点审批拒绝","flowCondition":null,"conditionList":[{"conditionId":"0","level":1,"type":"GROUP","symbol":"and"},{"conditionId":"ca91fce4-ca00-4a4f-a059-0bd3031e1129","parentConditionId":"0","type":"ITEM","level":2,"conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","sourceType":"SYSTEM","parameterValueList":[],"symbol":"and"}],"conditionInfoList":[{"conditionSourceType":"CUSTOMIZE","conditionInfoId":"1217e035-1025-4c08-930c-10bca13a7e16","conditionVariable":{"creationDate":"2020-11-10 10:05:17","lastUpdateDate":"2020-11-10 10:05:17","objectVersionNumber":1,"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"_token":"fgP2dI5sY3UpXbkse0XDEWSFEvpAppeIRLosJ96ZRsVTHGzgsHtvFLJcukNkMND97XEZ0c9sW3gYzx3tzEYmzfyyknWHTPqacuIfZsl5Z6s=","variableId":2,"typeId":2,"variableCode":"lastNodeApproveResult","variableName":"上一节点审批结果","variableType":"String","sourceType":"SYSTEM","conditionFlag":1,"rangeType":"LIST","rangeLovCode":"HWKF.APPROVE_RESULT","rangeName":"工作流--审批动作","enabledFlag":1,"tenantId":0,"recordSourceType":"PREDEFINED","sharedFlag":false,"parameterValueList":[],"variableTypeMeaning":"字符串","sourceTypeMeaning":"内置变量","rangeTypeMeaning":"下拉列表","recordSourceTypeMeaning":"预定义","lovValueList":[],"__dirty":false,"conditionSourceType":"CUSTOMIZE"},"variableType":"String","rangeType":"LIST","variableName":"上一节点审批结果","variableCode":"lastNodeApproveResult","variableId":2,"rangeLovCode":"HWKF.APPROVE_RESULT","sourceType":"SYSTEM","parameterValueList":[],"_tls":{"variableName":{"en_US":"Previous node approval result","zh_CN":"上一节点审批结果"}},"valueType":"CONSTANT","conditionValue":{"valueType":"CONSTANT","lovDataValue":["REJECTED"],"lovData":"REJECTED","symbol":"=="},"symbol":"==","lovData":"REJECTED","lovDataValue":["REJECTED"]}]}</t>
-  </si>
-  <si>
-    <t>hwkf_def_condition-9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_condition-10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_condition-11</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_condition-17</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-12</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_parameter_value-15</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_customize_act-9</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_customize_act-8</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义审批动作</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义审批动作参数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="265">
+  <fonts count="263">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3957,6 +3959,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3975,6 +3978,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4038,21 +4042,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -5736,6 +5725,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5981,8 +5972,6 @@
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6351,8 +6340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6584,7 +6573,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6633,31 +6622,31 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="196" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="197" t="s">
         <v>325</v>
-      </c>
-      <c r="D7" s="196" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="197" t="s">
-        <v>327</v>
       </c>
       <c r="F7" s="198" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="199" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" t="s">
         <v>328</v>
       </c>
-      <c r="H7" t="s">
-        <v>329</v>
-      </c>
-      <c r="I7" t="s">
-        <v>330</v>
-      </c>
       <c r="J7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -6666,13 +6655,13 @@
         <v>128</v>
       </c>
       <c r="N7" s="200" t="s">
+        <v>329</v>
+      </c>
+      <c r="O7" s="201" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="202" t="s">
         <v>331</v>
-      </c>
-      <c r="O7" s="201" t="s">
-        <v>332</v>
-      </c>
-      <c r="P7" s="202" t="s">
-        <v>333</v>
       </c>
       <c r="Q7" t="s">
         <v>92</v>
@@ -6681,7 +6670,7 @@
         <v>93</v>
       </c>
       <c r="S7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6692,43 +6681,43 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="203" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="204" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="203" t="s">
+      <c r="F9" s="205" t="s">
         <v>336</v>
       </c>
-      <c r="E9" s="204" t="s">
+      <c r="G9" s="206" t="s">
         <v>337</v>
       </c>
-      <c r="F9" s="205" t="s">
+      <c r="H9" t="s">
         <v>338</v>
       </c>
-      <c r="G9" s="206" t="s">
+      <c r="I9" t="s">
         <v>339</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>340</v>
       </c>
-      <c r="I9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J9" t="s">
-        <v>342</v>
-      </c>
       <c r="K9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M9" t="s">
         <v>59</v>
       </c>
       <c r="N9" s="207" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P9" t="s">
         <v>92</v>
@@ -6737,7 +6726,7 @@
         <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6748,23 +6737,23 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="208" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="209" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="208" t="s">
+      <c r="F11" s="210" t="s">
         <v>347</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="G11" t="s">
         <v>348</v>
       </c>
-      <c r="F11" s="210" t="s">
-        <v>349</v>
-      </c>
-      <c r="G11" t="s">
-        <v>350</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6812,31 +6801,31 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="211" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="212" t="s">
         <v>351</v>
-      </c>
-      <c r="D7" s="211" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="212" t="s">
-        <v>353</v>
       </c>
       <c r="F7" s="213" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="214" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" t="s">
         <v>354</v>
-      </c>
-      <c r="H7" t="s">
-        <v>355</v>
-      </c>
-      <c r="I7" t="s">
-        <v>356</v>
       </c>
       <c r="J7" s="215" t="s">
         <v>124</v>
       </c>
       <c r="K7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -6848,7 +6837,7 @@
         <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P7" t="s">
         <v>128</v>
@@ -6862,7 +6851,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D9" s="216" t="s">
         <v>194</v>
@@ -6920,7 +6909,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6966,25 +6955,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="223" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="224" t="s">
         <v>360</v>
-      </c>
-      <c r="D7" s="223" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="224" t="s">
-        <v>362</v>
       </c>
       <c r="F7" s="225" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="226" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" t="s">
+        <v>362</v>
+      </c>
+      <c r="I7" t="s">
         <v>363</v>
-      </c>
-      <c r="H7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I7" t="s">
-        <v>365</v>
       </c>
       <c r="J7" s="227" t="s">
         <v>61</v>
@@ -7004,32 +6993,32 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="229" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="230" t="s">
         <v>366</v>
       </c>
-      <c r="D9" s="229" t="s">
+      <c r="F9" s="231" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="230" t="s">
+      <c r="G9" s="232" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="231" t="s">
+      <c r="H9" s="233" t="s">
         <v>369</v>
       </c>
-      <c r="G9" s="232" t="s">
+      <c r="I9" t="s">
         <v>370</v>
-      </c>
-      <c r="H9" s="233" t="s">
-        <v>371</v>
-      </c>
-      <c r="I9" t="s">
-        <v>372</v>
       </c>
       <c r="J9" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7075,37 +7064,37 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="234" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="235" t="s">
         <v>373</v>
-      </c>
-      <c r="D7" s="234" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" s="235" t="s">
-        <v>375</v>
       </c>
       <c r="F7" s="236" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="237" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" t="s">
+        <v>375</v>
+      </c>
+      <c r="I7" t="s">
         <v>376</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>377</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>378</v>
-      </c>
-      <c r="J7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K7" t="s">
-        <v>380</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N7" t="s">
         <v>92</v>
@@ -7128,7 +7117,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D9" s="239" t="s">
         <v>194</v>
@@ -7186,7 +7175,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7200,6 +7189,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="111" t="s">
@@ -7234,34 +7227,34 @@
         <v>51</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D7" s="246" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E7" s="247" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F7" s="248" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="249" t="s">
+        <v>383</v>
+      </c>
+      <c r="H7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" t="s">
         <v>385</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>386</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>387</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>388</v>
-      </c>
-      <c r="K7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L7" t="s">
-        <v>390</v>
       </c>
       <c r="M7" s="250" t="s">
         <v>124</v>
@@ -7284,29 +7277,29 @@
     </row>
     <row r="8" spans="1:21">
       <c r="E8" s="274" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J8" t="s">
         <v>391</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>391</v>
+      </c>
+      <c r="L8" t="s">
         <v>392</v>
-      </c>
-      <c r="I8" t="s">
-        <v>392</v>
-      </c>
-      <c r="J8" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" t="s">
-        <v>393</v>
-      </c>
-      <c r="L8" t="s">
-        <v>394</v>
       </c>
       <c r="M8" t="str">
         <f>接口定义!$E$12</f>
@@ -7330,29 +7323,29 @@
     </row>
     <row r="9" spans="1:21">
       <c r="E9" s="274" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" t="s">
+        <v>394</v>
+      </c>
+      <c r="I9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J9" t="s">
         <v>395</v>
       </c>
-      <c r="H9" t="s">
-        <v>396</v>
-      </c>
-      <c r="I9" t="s">
-        <v>396</v>
-      </c>
-      <c r="J9" t="s">
-        <v>397</v>
-      </c>
       <c r="K9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M9" t="str">
         <f>接口定义!$E$13</f>
@@ -7382,7 +7375,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="274" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D11" s="251" t="s">
         <v>194</v>
@@ -7441,7 +7434,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="E12" s="274" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F12" t="str">
         <f>自定义审批动作!$E$8</f>
@@ -7451,7 +7444,7 @@
         <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I12" t="s">
         <v>98</v>
@@ -7466,7 +7459,7 @@
         <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N12" t="str">
         <f>流程变量!$E$27</f>
@@ -7484,7 +7477,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="E13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F13" t="str">
         <f>自定义审批动作!$E$8</f>
@@ -7494,7 +7487,7 @@
         <v>188</v>
       </c>
       <c r="H13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I13" t="s">
         <v>94</v>
@@ -7509,7 +7502,7 @@
         <v>96</v>
       </c>
       <c r="M13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N13" t="str">
         <f>流程变量!$E$26</f>
@@ -7527,7 +7520,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="E14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F14" t="str">
         <f>自定义审批动作!$E$9</f>
@@ -7537,7 +7530,7 @@
         <v>188</v>
       </c>
       <c r="H14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I14" t="s">
         <v>98</v>
@@ -7552,7 +7545,7 @@
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N14" t="str">
         <f>流程变量!$E$27</f>
@@ -7570,7 +7563,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="E15" s="274" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F15" t="str">
         <f>自定义审批动作!$E$9</f>
@@ -7580,7 +7573,7 @@
         <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I15" t="s">
         <v>94</v>
@@ -7595,7 +7588,7 @@
         <v>96</v>
       </c>
       <c r="M15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N15" t="str">
         <f>流程变量!$E$26</f>
@@ -7612,7 +7605,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7658,25 +7651,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="258" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="259" t="s">
         <v>401</v>
       </c>
-      <c r="D7" s="258" t="s">
+      <c r="F7" s="260" t="s">
         <v>402</v>
       </c>
-      <c r="E7" s="259" t="s">
+      <c r="G7" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="260" t="s">
+      <c r="H7" t="s">
         <v>404</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>405</v>
-      </c>
-      <c r="H7" t="s">
-        <v>406</v>
-      </c>
-      <c r="I7" t="s">
-        <v>407</v>
       </c>
       <c r="J7" t="s">
         <v>92</v>
@@ -7694,7 +7687,7 @@
         <v>124</v>
       </c>
       <c r="O7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7705,7 +7698,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D9" s="263" t="s">
         <v>194</v>
@@ -7763,7 +7756,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7811,29 +7804,29 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="270" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="271" t="s">
         <v>410</v>
-      </c>
-      <c r="D7" s="270" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" s="271" t="s">
-        <v>412</v>
       </c>
       <c r="F7" s="272" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="273" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I7" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7843,13 +7836,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7894,7 +7888,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -7935,25 +7929,25 @@
         <v>66</v>
       </c>
       <c r="F8" s="274" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G8" t="s">
+        <v>456</v>
+      </c>
+      <c r="H8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I8" t="s">
         <v>458</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>459</v>
-      </c>
-      <c r="I8" t="s">
-        <v>460</v>
-      </c>
-      <c r="J8" t="s">
-        <v>461</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M8" t="s">
         <v>73</v>
@@ -7965,10 +7959,10 @@
         <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -7976,25 +7970,25 @@
         <v>77</v>
       </c>
       <c r="F9" s="274" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G9" t="s">
+        <v>463</v>
+      </c>
+      <c r="H9" t="s">
+        <v>464</v>
+      </c>
+      <c r="I9" t="s">
+        <v>458</v>
+      </c>
+      <c r="J9" t="s">
         <v>465</v>
-      </c>
-      <c r="H9" t="s">
-        <v>466</v>
-      </c>
-      <c r="I9" t="s">
-        <v>460</v>
-      </c>
-      <c r="J9" t="s">
-        <v>467</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M9" t="s">
         <v>73</v>
@@ -8006,36 +8000,36 @@
         <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="E10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="274" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" t="s">
+        <v>469</v>
+      </c>
+      <c r="H10" t="s">
         <v>470</v>
       </c>
-      <c r="F10" s="274" t="s">
-        <v>511</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>458</v>
+      </c>
+      <c r="J10" t="s">
         <v>471</v>
-      </c>
-      <c r="H10" t="s">
-        <v>472</v>
-      </c>
-      <c r="I10" t="s">
-        <v>460</v>
-      </c>
-      <c r="J10" t="s">
-        <v>473</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M10" t="s">
         <v>73</v>
@@ -8047,36 +8041,36 @@
         <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Q10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="E11" s="274" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F11" s="274" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G11" t="s">
+        <v>474</v>
+      </c>
+      <c r="H11" t="s">
+        <v>475</v>
+      </c>
+      <c r="I11" t="s">
+        <v>458</v>
+      </c>
+      <c r="J11" t="s">
         <v>476</v>
-      </c>
-      <c r="H11" t="s">
-        <v>477</v>
-      </c>
-      <c r="I11" t="s">
-        <v>460</v>
-      </c>
-      <c r="J11" t="s">
-        <v>478</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M11" t="s">
         <v>73</v>
@@ -8088,18 +8082,18 @@
         <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Q11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="E12" s="274" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F12" s="274" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G12" t="s">
         <v>67</v>
@@ -8137,10 +8131,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="E13" s="274" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F13" s="274" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -8225,20 +8219,20 @@
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="274" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F16" t="str">
         <f>接口定义!$E$10</f>
         <v>hwkf_def_interface-10</v>
       </c>
       <c r="G16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J16" t="s">
         <v>96</v>
@@ -8258,20 +8252,20 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" s="274" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F17" t="str">
         <f>接口定义!$E$11</f>
         <v>hwkf_def_interface-11</v>
       </c>
       <c r="G17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J17" t="s">
         <v>96</v>
@@ -8291,20 +8285,20 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" s="274" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F18" t="str">
         <f>接口定义!$E$9</f>
         <v>hwkf_def_interface-9</v>
       </c>
       <c r="G18" t="s">
+        <v>481</v>
+      </c>
+      <c r="H18" t="s">
+        <v>482</v>
+      </c>
+      <c r="I18" t="s">
         <v>483</v>
-      </c>
-      <c r="H18" t="s">
-        <v>484</v>
-      </c>
-      <c r="I18" t="s">
-        <v>485</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
@@ -8324,29 +8318,29 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" s="274" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F19" t="str">
         <f>接口定义!$E$9</f>
         <v>hwkf_def_interface-9</v>
       </c>
       <c r="G19" t="s">
+        <v>484</v>
+      </c>
+      <c r="H19" t="s">
+        <v>485</v>
+      </c>
+      <c r="I19" t="s">
         <v>486</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>487</v>
-      </c>
-      <c r="I19" t="s">
-        <v>488</v>
-      </c>
-      <c r="J19" t="s">
-        <v>489</v>
       </c>
       <c r="K19" t="s">
         <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M19" t="s">
         <v>71</v>
@@ -8360,20 +8354,20 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F20" t="str">
         <f>接口定义!$E$9</f>
         <v>hwkf_def_interface-9</v>
       </c>
       <c r="G20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J20" t="s">
         <v>96</v>
@@ -8393,20 +8387,20 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" s="274" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F21" t="str">
         <f>接口定义!$E$8</f>
         <v>hwkf_def_interface-8</v>
       </c>
       <c r="G21" t="s">
+        <v>489</v>
+      </c>
+      <c r="H21" t="s">
+        <v>490</v>
+      </c>
+      <c r="I21" t="s">
         <v>491</v>
-      </c>
-      <c r="H21" t="s">
-        <v>492</v>
-      </c>
-      <c r="I21" t="s">
-        <v>493</v>
       </c>
       <c r="J21" t="s">
         <v>96</v>
@@ -8429,20 +8423,20 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" s="276" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F22" t="str">
         <f>接口定义!$E$8</f>
         <v>hwkf_def_interface-8</v>
       </c>
       <c r="G22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J22" t="s">
         <v>96</v>
@@ -8462,20 +8456,20 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" s="276" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F23" t="str">
         <f>接口定义!$E$8</f>
         <v>hwkf_def_interface-8</v>
       </c>
       <c r="G23" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H23" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I23" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J23" t="s">
         <v>96</v>
@@ -8495,7 +8489,7 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" s="274" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F24" s="275" t="str">
         <f>接口定义!$E$12</f>
@@ -8529,7 +8523,7 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" s="274" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F25" s="275" t="str">
         <f>接口定义!$E$12</f>
@@ -8563,7 +8557,7 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" s="274" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F26" t="str">
         <f>接口定义!$E$13</f>
@@ -8596,7 +8590,7 @@
     </row>
     <row r="27" spans="5:15">
       <c r="E27" s="274" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F27" t="str">
         <f>接口定义!$E$13</f>
@@ -8628,7 +8622,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8637,11 +8631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="34" t="s">
@@ -8720,28 +8718,28 @@
     </row>
     <row r="8" spans="1:16">
       <c r="E8" s="274" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G8" t="s">
+        <v>512</v>
+      </c>
+      <c r="H8" t="s">
         <v>513</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>514</v>
       </c>
-      <c r="H8" t="s">
-        <v>515</v>
-      </c>
-      <c r="I8" t="s">
-        <v>516</v>
-      </c>
       <c r="J8" s="274" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N8" t="s">
         <v>71</v>
@@ -8755,22 +8753,22 @@
     </row>
     <row r="9" spans="1:16">
       <c r="E9" s="274" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F9" s="274" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G9" t="s">
+        <v>515</v>
+      </c>
+      <c r="H9" t="s">
+        <v>516</v>
+      </c>
+      <c r="I9" t="s">
         <v>517</v>
       </c>
-      <c r="H9" t="s">
-        <v>518</v>
-      </c>
-      <c r="I9" t="s">
-        <v>519</v>
-      </c>
       <c r="J9" s="274" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K9" t="str">
         <f>流程分类!$E$8</f>
@@ -8780,7 +8778,7 @@
         <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N9" t="s">
         <v>71</v>
@@ -8794,10 +8792,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="E10" s="274" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F10" s="274" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -8822,7 +8820,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8831,14 +8829,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8877,7 +8875,7 @@
         <v>115</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E7" s="146" t="s">
         <v>116</v>
@@ -8925,7 +8923,7 @@
         <v>93</v>
       </c>
       <c r="T7" s="274" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="U7" t="s">
         <v>129</v>
@@ -8948,7 +8946,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="E8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$9</f>
@@ -8990,7 +8988,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="E9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
@@ -9132,7 +9130,7 @@
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H12" t="s">
         <v>135</v>
@@ -9479,14 +9477,14 @@
     </row>
     <row r="20" spans="5:26">
       <c r="E20" s="274" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F20" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G20" s="274" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H20" t="s">
         <v>135</v>
@@ -9513,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U20" t="s">
         <v>73</v>
@@ -9524,7 +9522,7 @@
     </row>
     <row r="21" spans="5:26">
       <c r="E21" s="274" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F21" t="str">
         <f>流程分类!$E$10</f>
@@ -9575,7 +9573,7 @@
     </row>
     <row r="22" spans="5:26">
       <c r="E22" s="274" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F22" t="str">
         <f>流程分类!$E$10</f>
@@ -9617,7 +9615,7 @@
     </row>
     <row r="23" spans="5:26">
       <c r="E23" s="274" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F23" t="str">
         <f>流程分类!$E$10</f>
@@ -9662,7 +9660,7 @@
     </row>
     <row r="24" spans="5:26">
       <c r="E24" s="274" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F24" t="str">
         <f>流程分类!$E$10</f>
@@ -9704,7 +9702,7 @@
     </row>
     <row r="25" spans="5:26">
       <c r="E25" s="274" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F25" t="str">
         <f>流程分类!$E$10</f>
@@ -9749,7 +9747,7 @@
     </row>
     <row r="26" spans="5:26">
       <c r="E26" s="274" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F26" t="str">
         <f>流程分类!$E$10</f>
@@ -9791,7 +9789,7 @@
     </row>
     <row r="27" spans="5:26">
       <c r="E27" s="274" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F27" t="str">
         <f>流程分类!$E$10</f>
@@ -9833,7 +9831,7 @@
     </row>
     <row r="28" spans="5:26">
       <c r="E28" s="274" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F28" t="str">
         <f>流程分类!$E$10</f>
@@ -9878,7 +9876,7 @@
     </row>
     <row r="29" spans="5:26">
       <c r="E29" s="274" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F29" t="str">
         <f>流程分类!$E$10</f>
@@ -9923,7 +9921,7 @@
     </row>
     <row r="30" spans="5:26">
       <c r="E30" s="274" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F30" t="str">
         <f>流程分类!$E$10</f>
@@ -9968,7 +9966,7 @@
     </row>
     <row r="31" spans="5:26">
       <c r="E31" s="274" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F31" t="str">
         <f>流程分类!$E$10</f>
@@ -10002,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U31" t="s">
         <v>73</v>
@@ -10010,7 +10008,7 @@
     </row>
     <row r="32" spans="5:26">
       <c r="E32" s="274" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F32" t="str">
         <f>流程分类!$E$10</f>
@@ -10047,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U32" t="s">
         <v>73</v>
@@ -10055,7 +10053,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="E33" s="274" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F33" t="str">
         <f>流程分类!$E$10</f>
@@ -10092,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U33" t="s">
         <v>73</v>
@@ -10100,7 +10098,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="E34" s="274" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F34" t="str">
         <f>流程分类!$E$10</f>
@@ -10137,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U34" t="s">
         <v>73</v>
@@ -10151,7 +10149,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="274" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D36" s="150" t="s">
         <v>194</v>
@@ -10209,7 +10207,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10294,7 +10292,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10303,8 +10301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -10346,7 +10344,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D7" s="162" t="s">
         <v>212</v>
@@ -10388,13 +10386,13 @@
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" t="s">
         <v>223</v>
-      </c>
-      <c r="I8" t="s">
-        <v>224</v>
       </c>
       <c r="J8" t="s">
         <v>71</v>
@@ -10411,20 +10409,20 @@
     </row>
     <row r="9" spans="1:19">
       <c r="E9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J9" t="s">
         <v>71</v>
@@ -10441,20 +10439,20 @@
     </row>
     <row r="10" spans="1:19">
       <c r="E10" s="274" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F10" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I10" t="s">
         <v>219</v>
-      </c>
-      <c r="I10" t="s">
-        <v>220</v>
       </c>
       <c r="J10" t="s">
         <v>71</v>
@@ -10471,20 +10469,20 @@
     </row>
     <row r="11" spans="1:19">
       <c r="E11" s="274" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F11" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="274" t="s">
+        <v>642</v>
+      </c>
+      <c r="H11" t="s">
         <v>218</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>219</v>
-      </c>
-      <c r="I11" t="s">
-        <v>220</v>
       </c>
       <c r="J11" t="s">
         <v>71</v>
@@ -10501,20 +10499,20 @@
     </row>
     <row r="12" spans="1:19">
       <c r="E12" s="274" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F12" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" t="s">
         <v>222</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>223</v>
-      </c>
-      <c r="I12" t="s">
-        <v>224</v>
       </c>
       <c r="J12" t="s">
         <v>71</v>
@@ -10531,20 +10529,20 @@
     </row>
     <row r="13" spans="1:19">
       <c r="E13" s="274" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F13" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="274" t="s">
+        <v>643</v>
+      </c>
+      <c r="H13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13" t="s">
         <v>225</v>
-      </c>
-      <c r="H13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" t="s">
-        <v>227</v>
       </c>
       <c r="J13" t="s">
         <v>71</v>
@@ -10556,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -10567,46 +10565,46 @@
         <v>51</v>
       </c>
       <c r="C15" s="274" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E15" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="167" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="168" t="s">
         <v>228</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="H15" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="168" t="s">
+      <c r="I15" t="s">
         <v>230</v>
-      </c>
-      <c r="H15" t="s">
-        <v>231</v>
-      </c>
-      <c r="I15" t="s">
-        <v>232</v>
       </c>
       <c r="J15" t="s">
         <v>122</v>
       </c>
       <c r="K15" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" s="169" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" t="s">
         <v>233</v>
-      </c>
-      <c r="L15" s="169" t="s">
-        <v>234</v>
-      </c>
-      <c r="M15" t="s">
-        <v>235</v>
       </c>
       <c r="N15" t="s">
         <v>207</v>
       </c>
       <c r="O15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P15" s="170" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q15" t="s">
         <v>59</v>
@@ -10620,32 +10618,32 @@
     </row>
     <row r="16" spans="1:19">
       <c r="E16" s="274" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F16" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" t="s">
         <v>238</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>239</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>240</v>
-      </c>
-      <c r="M16" t="s">
-        <v>241</v>
-      </c>
-      <c r="N16" t="s">
-        <v>242</v>
       </c>
       <c r="O16" t="s">
         <v>71</v>
@@ -10662,32 +10660,32 @@
     </row>
     <row r="17" spans="5:19">
       <c r="E17" s="274" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F17" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G17" t="s">
+        <v>537</v>
+      </c>
+      <c r="H17" t="s">
+        <v>538</v>
+      </c>
+      <c r="I17" t="s">
         <v>539</v>
       </c>
-      <c r="H17" t="s">
-        <v>540</v>
-      </c>
-      <c r="I17" t="s">
-        <v>541</v>
-      </c>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K17" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" t="s">
+        <v>242</v>
+      </c>
+      <c r="N17" t="s">
         <v>243</v>
-      </c>
-      <c r="M17" t="s">
-        <v>244</v>
-      </c>
-      <c r="N17" t="s">
-        <v>245</v>
       </c>
       <c r="O17" t="s">
         <v>71</v>
@@ -10704,32 +10702,32 @@
     </row>
     <row r="18" spans="5:19">
       <c r="E18" s="274" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F18" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G18" t="s">
+        <v>540</v>
+      </c>
+      <c r="H18" t="s">
+        <v>541</v>
+      </c>
+      <c r="I18" t="s">
         <v>542</v>
       </c>
-      <c r="H18" t="s">
-        <v>543</v>
-      </c>
-      <c r="I18" t="s">
-        <v>544</v>
-      </c>
       <c r="J18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K18" t="s">
+        <v>244</v>
+      </c>
+      <c r="M18" t="s">
+        <v>245</v>
+      </c>
+      <c r="N18" t="s">
         <v>246</v>
-      </c>
-      <c r="M18" t="s">
-        <v>247</v>
-      </c>
-      <c r="N18" t="s">
-        <v>248</v>
       </c>
       <c r="O18" t="s">
         <v>71</v>
@@ -10746,32 +10744,32 @@
     </row>
     <row r="19" spans="5:19">
       <c r="E19" s="274" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F19" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G19" t="s">
+        <v>543</v>
+      </c>
+      <c r="H19" t="s">
+        <v>544</v>
+      </c>
+      <c r="I19" t="s">
         <v>545</v>
       </c>
-      <c r="H19" t="s">
-        <v>546</v>
-      </c>
-      <c r="I19" t="s">
-        <v>547</v>
-      </c>
       <c r="J19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O19" t="s">
         <v>71</v>
@@ -10788,32 +10786,32 @@
     </row>
     <row r="20" spans="5:19">
       <c r="E20" s="274" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F20" t="str">
         <f>审批人规则!$E$9</f>
         <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" t="s">
+        <v>546</v>
+      </c>
+      <c r="I20" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" t="s">
         <v>251</v>
       </c>
-      <c r="H20" t="s">
-        <v>548</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>252</v>
       </c>
-      <c r="J20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20" t="s">
-        <v>253</v>
-      </c>
-      <c r="M20" t="s">
-        <v>254</v>
-      </c>
       <c r="N20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O20" t="s">
         <v>71</v>
@@ -10830,32 +10828,32 @@
     </row>
     <row r="21" spans="5:19">
       <c r="E21" s="274" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F21" t="str">
         <f>审批人规则!$E$9</f>
         <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" t="s">
+        <v>547</v>
+      </c>
+      <c r="I21" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" t="s">
+        <v>237</v>
+      </c>
+      <c r="K21" t="s">
         <v>255</v>
       </c>
-      <c r="H21" t="s">
-        <v>549</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>256</v>
       </c>
-      <c r="J21" t="s">
-        <v>239</v>
-      </c>
-      <c r="K21" t="s">
-        <v>257</v>
-      </c>
-      <c r="M21" t="s">
-        <v>258</v>
-      </c>
       <c r="N21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s">
         <v>71</v>
@@ -10872,32 +10870,32 @@
     </row>
     <row r="22" spans="5:19">
       <c r="E22" s="274" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F22" t="str">
         <f>审批人规则!$E$10</f>
         <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G22" t="s">
+        <v>548</v>
+      </c>
+      <c r="H22" t="s">
+        <v>549</v>
+      </c>
+      <c r="I22" t="s">
         <v>550</v>
       </c>
-      <c r="H22" t="s">
-        <v>551</v>
-      </c>
-      <c r="I22" t="s">
-        <v>552</v>
-      </c>
       <c r="J22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s">
         <v>71</v>
@@ -10914,32 +10912,32 @@
     </row>
     <row r="23" spans="5:19">
       <c r="E23" s="274" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F23" t="str">
         <f>审批人规则!$E$10</f>
         <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G23" t="s">
+        <v>551</v>
+      </c>
+      <c r="H23" t="s">
+        <v>552</v>
+      </c>
+      <c r="I23" t="s">
         <v>553</v>
       </c>
-      <c r="H23" t="s">
-        <v>554</v>
-      </c>
-      <c r="I23" t="s">
-        <v>555</v>
-      </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O23" t="s">
         <v>71</v>
@@ -10956,32 +10954,32 @@
     </row>
     <row r="24" spans="5:19">
       <c r="E24" s="274" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F24" t="str">
         <f>审批人规则!$E$10</f>
         <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G24" t="s">
+        <v>554</v>
+      </c>
+      <c r="H24" t="s">
+        <v>555</v>
+      </c>
+      <c r="I24" t="s">
         <v>556</v>
       </c>
-      <c r="H24" t="s">
-        <v>557</v>
-      </c>
-      <c r="I24" t="s">
-        <v>558</v>
-      </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
         <v>71</v>
@@ -10998,32 +10996,32 @@
     </row>
     <row r="25" spans="5:19">
       <c r="E25" s="274" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F25" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G25" s="274" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H25" s="274" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
         <v>238</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="s">
         <v>239</v>
       </c>
-      <c r="K25" t="s">
+      <c r="N25" t="s">
         <v>240</v>
-      </c>
-      <c r="M25" t="s">
-        <v>241</v>
-      </c>
-      <c r="N25" t="s">
-        <v>242</v>
       </c>
       <c r="O25" t="s">
         <v>71</v>
@@ -11040,32 +11038,32 @@
     </row>
     <row r="26" spans="5:19">
       <c r="E26" s="274" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F26" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G26" s="274" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H26" s="274" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I26" s="274" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s">
+        <v>242</v>
+      </c>
+      <c r="N26" t="s">
         <v>243</v>
-      </c>
-      <c r="M26" t="s">
-        <v>244</v>
-      </c>
-      <c r="N26" t="s">
-        <v>245</v>
       </c>
       <c r="O26" t="s">
         <v>71</v>
@@ -11082,32 +11080,32 @@
     </row>
     <row r="27" spans="5:19">
       <c r="E27" s="274" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F27" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G27" s="274" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H27" s="274" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I27" s="274" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" t="s">
+        <v>245</v>
+      </c>
+      <c r="N27" t="s">
         <v>246</v>
-      </c>
-      <c r="M27" t="s">
-        <v>247</v>
-      </c>
-      <c r="N27" t="s">
-        <v>248</v>
       </c>
       <c r="O27" t="s">
         <v>71</v>
@@ -11124,32 +11122,32 @@
     </row>
     <row r="28" spans="5:19">
       <c r="E28" s="274" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F28" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G28" s="274" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H28" s="274" t="s">
+        <v>432</v>
+      </c>
+      <c r="I28" s="274" t="s">
         <v>434</v>
       </c>
-      <c r="I28" s="274" t="s">
-        <v>436</v>
-      </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s">
         <v>71</v>
@@ -11166,32 +11164,32 @@
     </row>
     <row r="29" spans="5:19">
       <c r="E29" s="274" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F29" t="str">
         <f>审批人规则!$E$13</f>
         <v>hwkf_def_approver_rule-13</v>
       </c>
       <c r="G29" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" s="274" t="s">
+        <v>416</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s">
         <v>251</v>
       </c>
-      <c r="H29" s="274" t="s">
-        <v>418</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>252</v>
       </c>
-      <c r="J29" t="s">
-        <v>239</v>
-      </c>
-      <c r="K29" t="s">
-        <v>253</v>
-      </c>
-      <c r="M29" t="s">
-        <v>254</v>
-      </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O29" t="s">
         <v>71</v>
@@ -11208,32 +11206,32 @@
     </row>
     <row r="30" spans="5:19">
       <c r="E30" s="274" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F30" t="str">
         <f>审批人规则!$E$13</f>
         <v>hwkf_def_approver_rule-13</v>
       </c>
       <c r="G30" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="274" t="s">
+        <v>419</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s">
         <v>255</v>
       </c>
-      <c r="H30" s="274" t="s">
-        <v>421</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="M30" t="s">
         <v>256</v>
       </c>
-      <c r="J30" t="s">
-        <v>239</v>
-      </c>
-      <c r="K30" t="s">
-        <v>257</v>
-      </c>
-      <c r="M30" t="s">
-        <v>258</v>
-      </c>
       <c r="N30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s">
         <v>71</v>
@@ -11250,32 +11248,32 @@
     </row>
     <row r="31" spans="5:19">
       <c r="E31" s="274" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F31" t="str">
         <f>审批人规则!$E$11</f>
         <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G31" s="274" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H31" s="274" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I31" s="274" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
         <v>71</v>
@@ -11292,32 +11290,32 @@
     </row>
     <row r="32" spans="5:19">
       <c r="E32" s="274" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F32" t="str">
         <f>审批人规则!$E$11</f>
         <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G32" s="274" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H32" s="274" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I32" s="274" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
         <v>71</v>
@@ -11334,32 +11332,32 @@
     </row>
     <row r="33" spans="1:21">
       <c r="E33" s="274" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F33" t="str">
         <f>审批人规则!$E$11</f>
         <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G33" s="274" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H33" s="274" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I33" s="274" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O33" t="s">
         <v>71</v>
@@ -11382,46 +11380,46 @@
         <v>51</v>
       </c>
       <c r="C35" s="274" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E35" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="172" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" s="173" t="s">
         <v>261</v>
       </c>
-      <c r="F35" s="172" t="s">
+      <c r="H35" t="s">
         <v>262</v>
       </c>
-      <c r="G35" s="173" t="s">
+      <c r="I35" t="s">
         <v>263</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>264</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>265</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>266</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
         <v>267</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>268</v>
-      </c>
-      <c r="M35" t="s">
-        <v>269</v>
-      </c>
-      <c r="N35" t="s">
-        <v>270</v>
       </c>
       <c r="O35" t="s">
         <v>59</v>
       </c>
       <c r="P35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q35" t="s">
         <v>92</v>
@@ -11438,10 +11436,10 @@
         <v>51</v>
       </c>
       <c r="C37" s="274" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E37" s="174" t="s">
         <v>84</v>
@@ -11497,32 +11495,32 @@
     </row>
     <row r="38" spans="1:21">
       <c r="E38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F38" t="str">
-        <f>审批人规则!$E$17</f>
-        <v>hwkf_def_approver_line-17</v>
+        <f>审批人规则!$E$20</f>
+        <v>hwkf_def_approver_line-20</v>
       </c>
       <c r="G38" t="s">
         <v>188</v>
       </c>
       <c r="H38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
         <v>272</v>
       </c>
-      <c r="I38" t="s">
-        <v>273</v>
-      </c>
-      <c r="J38" t="s">
-        <v>274</v>
-      </c>
       <c r="K38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
         <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N38" t="str">
         <f>流程变量!$E$10</f>
@@ -11540,23 +11538,23 @@
     </row>
     <row r="39" spans="1:21">
       <c r="E39" s="274" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F39" t="str">
-        <f>审批人规则!$E$17</f>
-        <v>hwkf_def_approver_line-17</v>
+        <f>审批人规则!$E$20</f>
+        <v>hwkf_def_approver_line-20</v>
       </c>
       <c r="G39" t="s">
         <v>188</v>
       </c>
       <c r="H39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I39" t="s">
         <v>168</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K39" t="s">
         <v>168</v>
@@ -11565,7 +11563,7 @@
         <v>96</v>
       </c>
       <c r="M39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N39" t="str">
         <f>流程变量!$E$8</f>
@@ -11583,32 +11581,32 @@
     </row>
     <row r="40" spans="1:21">
       <c r="E40" s="274" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F40" t="str">
-        <f>审批人规则!$E$18</f>
-        <v>hwkf_def_approver_line-18</v>
+        <f>审批人规则!$E$21</f>
+        <v>hwkf_def_approver_line-21</v>
       </c>
       <c r="G40" t="s">
         <v>188</v>
       </c>
       <c r="H40" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" t="s">
         <v>272</v>
       </c>
-      <c r="I40" t="s">
-        <v>273</v>
-      </c>
-      <c r="J40" t="s">
-        <v>274</v>
-      </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s">
         <v>100</v>
       </c>
       <c r="M40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N40" t="str">
         <f>流程变量!$E$10</f>
@@ -11626,23 +11624,23 @@
     </row>
     <row r="41" spans="1:21">
       <c r="E41" s="274" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F41" t="str">
-        <f>审批人规则!$E$18</f>
-        <v>hwkf_def_approver_line-18</v>
+        <f>审批人规则!$E$21</f>
+        <v>hwkf_def_approver_line-21</v>
       </c>
       <c r="G41" t="s">
         <v>188</v>
       </c>
       <c r="H41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I41" t="s">
         <v>168</v>
       </c>
       <c r="J41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K41" t="s">
         <v>168</v>
@@ -11651,7 +11649,7 @@
         <v>96</v>
       </c>
       <c r="M41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N41" t="str">
         <f>流程变量!$E$8</f>
@@ -11669,23 +11667,23 @@
     </row>
     <row r="42" spans="1:21">
       <c r="E42" s="274" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F42" t="str">
-        <f>审批人规则!$E$16</f>
-        <v>hwkf_def_approver_line-16</v>
+        <f>审批人规则!$E$19</f>
+        <v>hwkf_def_approver_line-19</v>
       </c>
       <c r="G42" t="s">
         <v>188</v>
       </c>
       <c r="H42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I42" t="s">
         <v>168</v>
       </c>
       <c r="J42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K42" t="s">
         <v>168</v>
@@ -11694,7 +11692,7 @@
         <v>96</v>
       </c>
       <c r="M42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N42" t="str">
         <f>流程变量!$E$8</f>
@@ -11712,38 +11710,38 @@
     </row>
     <row r="43" spans="1:21">
       <c r="E43" s="274" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F43" t="str">
-        <f>审批人规则!$E$16</f>
-        <v>hwkf_def_approver_line-16</v>
+        <f>审批人规则!$E$19</f>
+        <v>hwkf_def_approver_line-19</v>
       </c>
       <c r="G43" t="s">
         <v>188</v>
       </c>
       <c r="H43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I43" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" t="s">
+        <v>280</v>
+      </c>
+      <c r="K43" t="s">
         <v>281</v>
-      </c>
-      <c r="J43" t="s">
-        <v>282</v>
-      </c>
-      <c r="K43" t="s">
-        <v>283</v>
       </c>
       <c r="L43" t="s">
         <v>100</v>
       </c>
       <c r="M43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S43" t="s">
         <v>71</v>
@@ -11757,32 +11755,32 @@
     </row>
     <row r="44" spans="1:21">
       <c r="E44" s="274" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F44" t="str">
-        <f>审批人规则!$E$19</f>
-        <v>hwkf_def_approver_line-19</v>
+        <f>审批人规则!$E$22</f>
+        <v>hwkf_def_approver_line-22</v>
       </c>
       <c r="G44" t="s">
         <v>188</v>
       </c>
       <c r="H44" t="s">
+        <v>270</v>
+      </c>
+      <c r="I44" t="s">
+        <v>271</v>
+      </c>
+      <c r="J44" t="s">
         <v>272</v>
       </c>
-      <c r="I44" t="s">
-        <v>273</v>
-      </c>
-      <c r="J44" t="s">
-        <v>274</v>
-      </c>
       <c r="K44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L44" t="s">
         <v>100</v>
       </c>
       <c r="M44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N44" t="str">
         <f>流程变量!$E$10</f>
@@ -11800,26 +11798,26 @@
     </row>
     <row r="45" spans="1:21">
       <c r="E45" s="274" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F45" t="str">
-        <f>审批人规则!$E$19</f>
-        <v>hwkf_def_approver_line-19</v>
+        <f>审批人规则!$E$22</f>
+        <v>hwkf_def_approver_line-22</v>
       </c>
       <c r="G45" t="s">
         <v>188</v>
       </c>
       <c r="H45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I45" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" t="s">
         <v>276</v>
-      </c>
-      <c r="J45" t="s">
-        <v>277</v>
-      </c>
-      <c r="K45" t="s">
-        <v>278</v>
       </c>
       <c r="L45" t="s">
         <v>96</v>
@@ -11842,23 +11840,23 @@
     </row>
     <row r="46" spans="1:21">
       <c r="E46" s="274" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F46" t="str">
-        <f>审批人规则!$E$19</f>
-        <v>hwkf_def_approver_line-19</v>
+        <f>审批人规则!$E$22</f>
+        <v>hwkf_def_approver_line-22</v>
       </c>
       <c r="G46" t="s">
         <v>188</v>
       </c>
       <c r="H46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I46" t="s">
         <v>168</v>
       </c>
       <c r="J46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K46" t="s">
         <v>168</v>
@@ -11867,7 +11865,7 @@
         <v>96</v>
       </c>
       <c r="M46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N46" t="str">
         <f>流程变量!$E$8</f>
@@ -11885,32 +11883,32 @@
     </row>
     <row r="47" spans="1:21">
       <c r="E47" s="274" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F47" t="str">
-        <f>审批人规则!$E$20</f>
-        <v>hwkf_def_approver_line-20</v>
+        <f>审批人规则!$E$23</f>
+        <v>hwkf_def_approver_line-23</v>
       </c>
       <c r="G47" t="s">
         <v>188</v>
       </c>
       <c r="H47" t="s">
+        <v>270</v>
+      </c>
+      <c r="I47" t="s">
+        <v>271</v>
+      </c>
+      <c r="J47" t="s">
         <v>272</v>
       </c>
-      <c r="I47" t="s">
-        <v>273</v>
-      </c>
-      <c r="J47" t="s">
-        <v>274</v>
-      </c>
       <c r="K47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L47" t="s">
         <v>100</v>
       </c>
       <c r="M47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N47" t="str">
         <f>流程变量!$E$10</f>
@@ -11928,26 +11926,26 @@
     </row>
     <row r="48" spans="1:21">
       <c r="E48" s="274" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F48" t="str">
-        <f>审批人规则!$E$20</f>
-        <v>hwkf_def_approver_line-20</v>
+        <f>审批人规则!$E$23</f>
+        <v>hwkf_def_approver_line-23</v>
       </c>
       <c r="G48" t="s">
         <v>188</v>
       </c>
       <c r="H48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I48" t="s">
+        <v>274</v>
+      </c>
+      <c r="J48" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" t="s">
         <v>276</v>
-      </c>
-      <c r="J48" t="s">
-        <v>277</v>
-      </c>
-      <c r="K48" t="s">
-        <v>278</v>
       </c>
       <c r="L48" t="s">
         <v>96</v>
@@ -11970,23 +11968,23 @@
     </row>
     <row r="49" spans="3:21">
       <c r="E49" s="274" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F49" t="str">
-        <f>审批人规则!$E$20</f>
-        <v>hwkf_def_approver_line-20</v>
+        <f>审批人规则!$E$23</f>
+        <v>hwkf_def_approver_line-23</v>
       </c>
       <c r="G49" t="s">
         <v>188</v>
       </c>
       <c r="H49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I49" t="s">
         <v>168</v>
       </c>
       <c r="J49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K49" t="s">
         <v>168</v>
@@ -11995,7 +11993,7 @@
         <v>96</v>
       </c>
       <c r="M49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N49" t="str">
         <f>流程变量!$E$8</f>
@@ -12014,32 +12012,32 @@
     <row r="50" spans="3:21">
       <c r="C50" s="274"/>
       <c r="E50" s="274" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F50" t="str">
-        <f>审批人规则!$E$21</f>
-        <v>hwkf_def_approver_line-21</v>
+        <f>审批人规则!$E$24</f>
+        <v>hwkf_def_approver_line-24</v>
       </c>
       <c r="G50" t="s">
         <v>188</v>
       </c>
       <c r="H50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" t="s">
+        <v>271</v>
+      </c>
+      <c r="J50" t="s">
         <v>272</v>
       </c>
-      <c r="I50" t="s">
-        <v>273</v>
-      </c>
-      <c r="J50" t="s">
-        <v>274</v>
-      </c>
       <c r="K50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L50" t="s">
         <v>100</v>
       </c>
       <c r="M50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N50" t="str">
         <f>流程变量!$E$10</f>
@@ -12057,26 +12055,26 @@
     </row>
     <row r="51" spans="3:21">
       <c r="E51" s="274" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F51" t="str">
-        <f>审批人规则!$E$21</f>
-        <v>hwkf_def_approver_line-21</v>
+        <f>审批人规则!$E$24</f>
+        <v>hwkf_def_approver_line-24</v>
       </c>
       <c r="G51" t="s">
         <v>188</v>
       </c>
       <c r="H51" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I51" t="s">
+        <v>274</v>
+      </c>
+      <c r="J51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K51" t="s">
         <v>276</v>
-      </c>
-      <c r="J51" t="s">
-        <v>277</v>
-      </c>
-      <c r="K51" t="s">
-        <v>278</v>
       </c>
       <c r="L51" t="s">
         <v>96</v>
@@ -12085,7 +12083,7 @@
         <v>155</v>
       </c>
       <c r="O51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S51" t="s">
         <v>73</v>
@@ -12099,23 +12097,23 @@
     </row>
     <row r="52" spans="3:21">
       <c r="E52" s="274" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F52" t="str">
-        <f>审批人规则!$E$21</f>
-        <v>hwkf_def_approver_line-21</v>
+        <f>审批人规则!$E$24</f>
+        <v>hwkf_def_approver_line-24</v>
       </c>
       <c r="G52" t="s">
         <v>188</v>
       </c>
       <c r="H52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I52" t="s">
         <v>168</v>
       </c>
       <c r="J52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K52" t="s">
         <v>168</v>
@@ -12124,7 +12122,7 @@
         <v>96</v>
       </c>
       <c r="M52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N52" t="str">
         <f>流程变量!$E$8</f>
@@ -12142,7 +12140,7 @@
     </row>
     <row r="53" spans="3:21">
       <c r="E53" s="274" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F53" t="str">
         <f>审批人规则!$E$31</f>
@@ -12152,22 +12150,22 @@
         <v>188</v>
       </c>
       <c r="H53" t="s">
+        <v>270</v>
+      </c>
+      <c r="I53" t="s">
+        <v>271</v>
+      </c>
+      <c r="J53" t="s">
         <v>272</v>
       </c>
-      <c r="I53" t="s">
-        <v>273</v>
-      </c>
-      <c r="J53" t="s">
-        <v>274</v>
-      </c>
       <c r="K53" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L53" t="s">
         <v>100</v>
       </c>
       <c r="M53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N53" t="str">
         <f>流程变量!$E$31</f>
@@ -12185,7 +12183,7 @@
     </row>
     <row r="54" spans="3:21">
       <c r="E54" s="274" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F54" t="str">
         <f>审批人规则!$E$31</f>
@@ -12195,16 +12193,16 @@
         <v>188</v>
       </c>
       <c r="H54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I54" t="s">
+        <v>274</v>
+      </c>
+      <c r="J54" t="s">
+        <v>275</v>
+      </c>
+      <c r="K54" t="s">
         <v>276</v>
-      </c>
-      <c r="J54" t="s">
-        <v>277</v>
-      </c>
-      <c r="K54" t="s">
-        <v>278</v>
       </c>
       <c r="L54" t="s">
         <v>96</v>
@@ -12227,7 +12225,7 @@
     </row>
     <row r="55" spans="3:21">
       <c r="E55" s="274" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F55" t="str">
         <f>审批人规则!$E$31</f>
@@ -12237,13 +12235,13 @@
         <v>188</v>
       </c>
       <c r="H55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I55" t="s">
         <v>168</v>
       </c>
       <c r="J55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K55" t="s">
         <v>168</v>
@@ -12252,7 +12250,7 @@
         <v>96</v>
       </c>
       <c r="M55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N55" t="str">
         <f>流程变量!$E$26</f>
@@ -12270,7 +12268,7 @@
     </row>
     <row r="56" spans="3:21">
       <c r="E56" s="274" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F56" t="str">
         <f>审批人规则!$E$32</f>
@@ -12280,22 +12278,22 @@
         <v>188</v>
       </c>
       <c r="H56" t="s">
+        <v>270</v>
+      </c>
+      <c r="I56" t="s">
+        <v>271</v>
+      </c>
+      <c r="J56" t="s">
         <v>272</v>
       </c>
-      <c r="I56" t="s">
-        <v>273</v>
-      </c>
-      <c r="J56" t="s">
-        <v>274</v>
-      </c>
       <c r="K56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L56" t="s">
         <v>100</v>
       </c>
       <c r="M56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N56" t="str">
         <f>流程变量!$E$31</f>
@@ -12313,7 +12311,7 @@
     </row>
     <row r="57" spans="3:21">
       <c r="E57" s="274" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F57" t="str">
         <f>审批人规则!$E$32</f>
@@ -12323,16 +12321,16 @@
         <v>188</v>
       </c>
       <c r="H57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I57" t="s">
+        <v>274</v>
+      </c>
+      <c r="J57" t="s">
+        <v>275</v>
+      </c>
+      <c r="K57" t="s">
         <v>276</v>
-      </c>
-      <c r="J57" t="s">
-        <v>277</v>
-      </c>
-      <c r="K57" t="s">
-        <v>278</v>
       </c>
       <c r="L57" t="s">
         <v>96</v>
@@ -12355,7 +12353,7 @@
     </row>
     <row r="58" spans="3:21">
       <c r="E58" s="274" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F58" t="str">
         <f>审批人规则!$E$32</f>
@@ -12365,13 +12363,13 @@
         <v>188</v>
       </c>
       <c r="H58" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I58" t="s">
         <v>168</v>
       </c>
       <c r="J58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K58" t="s">
         <v>168</v>
@@ -12380,7 +12378,7 @@
         <v>96</v>
       </c>
       <c r="M58" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N58" t="str">
         <f>流程变量!$E$26</f>
@@ -12398,7 +12396,7 @@
     </row>
     <row r="59" spans="3:21">
       <c r="E59" s="274" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F59" t="str">
         <f>审批人规则!$E$33</f>
@@ -12408,22 +12406,22 @@
         <v>188</v>
       </c>
       <c r="H59" t="s">
+        <v>270</v>
+      </c>
+      <c r="I59" t="s">
+        <v>271</v>
+      </c>
+      <c r="J59" t="s">
         <v>272</v>
       </c>
-      <c r="I59" t="s">
-        <v>273</v>
-      </c>
-      <c r="J59" t="s">
-        <v>274</v>
-      </c>
       <c r="K59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L59" t="s">
         <v>100</v>
       </c>
       <c r="M59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N59" t="str">
         <f>流程变量!$E$31</f>
@@ -12441,7 +12439,7 @@
     </row>
     <row r="60" spans="3:21">
       <c r="E60" s="274" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F60" t="str">
         <f>审批人规则!$E$33</f>
@@ -12451,16 +12449,16 @@
         <v>188</v>
       </c>
       <c r="H60" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I60" t="s">
+        <v>274</v>
+      </c>
+      <c r="J60" t="s">
+        <v>275</v>
+      </c>
+      <c r="K60" t="s">
         <v>276</v>
-      </c>
-      <c r="J60" t="s">
-        <v>277</v>
-      </c>
-      <c r="K60" t="s">
-        <v>278</v>
       </c>
       <c r="L60" t="s">
         <v>96</v>
@@ -12469,7 +12467,7 @@
         <v>155</v>
       </c>
       <c r="O60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S60" t="s">
         <v>73</v>
@@ -12483,7 +12481,7 @@
     </row>
     <row r="61" spans="3:21">
       <c r="E61" s="274" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F61" t="str">
         <f>审批人规则!$E$33</f>
@@ -12493,13 +12491,13 @@
         <v>188</v>
       </c>
       <c r="H61" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I61" t="s">
         <v>168</v>
       </c>
       <c r="J61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K61" t="s">
         <v>168</v>
@@ -12508,7 +12506,7 @@
         <v>96</v>
       </c>
       <c r="M61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N61" t="str">
         <f>流程变量!$E$26</f>
@@ -12526,7 +12524,7 @@
     </row>
     <row r="62" spans="3:21">
       <c r="E62" s="274" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F62" t="str">
         <f>审批人规则!$E$28</f>
@@ -12536,13 +12534,13 @@
         <v>188</v>
       </c>
       <c r="H62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
         <v>168</v>
       </c>
       <c r="J62" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K62" t="s">
         <v>168</v>
@@ -12551,7 +12549,7 @@
         <v>96</v>
       </c>
       <c r="M62" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N62" t="str">
         <f>流程变量!$E$26</f>
@@ -12569,7 +12567,7 @@
     </row>
     <row r="63" spans="3:21">
       <c r="E63" s="274" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F63" t="str">
         <f>审批人规则!$E$28</f>
@@ -12579,28 +12577,28 @@
         <v>188</v>
       </c>
       <c r="H63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I63" t="s">
+        <v>279</v>
+      </c>
+      <c r="J63" t="s">
+        <v>280</v>
+      </c>
+      <c r="K63" t="s">
         <v>281</v>
-      </c>
-      <c r="J63" t="s">
-        <v>282</v>
-      </c>
-      <c r="K63" t="s">
-        <v>283</v>
       </c>
       <c r="L63" t="s">
         <v>100</v>
       </c>
       <c r="M63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S63" t="s">
         <v>71</v>
@@ -12614,7 +12612,7 @@
     </row>
     <row r="64" spans="3:21">
       <c r="E64" s="274" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F64" t="str">
         <f>审批人规则!$E$29</f>
@@ -12624,22 +12622,22 @@
         <v>188</v>
       </c>
       <c r="H64" t="s">
+        <v>270</v>
+      </c>
+      <c r="I64" t="s">
+        <v>271</v>
+      </c>
+      <c r="J64" t="s">
         <v>272</v>
       </c>
-      <c r="I64" t="s">
-        <v>273</v>
-      </c>
-      <c r="J64" t="s">
-        <v>274</v>
-      </c>
       <c r="K64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L64" t="s">
         <v>100</v>
       </c>
       <c r="M64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N64" t="str">
         <f>流程变量!$E$31</f>
@@ -12657,7 +12655,7 @@
     </row>
     <row r="65" spans="5:21">
       <c r="E65" s="274" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F65" t="str">
         <f>审批人规则!$E$29</f>
@@ -12667,13 +12665,13 @@
         <v>188</v>
       </c>
       <c r="H65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I65" t="s">
         <v>168</v>
       </c>
       <c r="J65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K65" t="s">
         <v>168</v>
@@ -12682,7 +12680,7 @@
         <v>96</v>
       </c>
       <c r="M65" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N65" t="str">
         <f>流程变量!$E$26</f>
@@ -12700,7 +12698,7 @@
     </row>
     <row r="66" spans="5:21">
       <c r="E66" s="274" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F66" t="str">
         <f>审批人规则!$E$30</f>
@@ -12710,22 +12708,22 @@
         <v>188</v>
       </c>
       <c r="H66" t="s">
+        <v>270</v>
+      </c>
+      <c r="I66" t="s">
+        <v>271</v>
+      </c>
+      <c r="J66" t="s">
         <v>272</v>
       </c>
-      <c r="I66" t="s">
-        <v>273</v>
-      </c>
-      <c r="J66" t="s">
-        <v>274</v>
-      </c>
       <c r="K66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L66" t="s">
         <v>100</v>
       </c>
       <c r="M66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N66" t="str">
         <f>流程变量!$E$31</f>
@@ -12743,7 +12741,7 @@
     </row>
     <row r="67" spans="5:21">
       <c r="E67" s="274" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F67" t="str">
         <f>审批人规则!$E$30</f>
@@ -12753,13 +12751,13 @@
         <v>188</v>
       </c>
       <c r="H67" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I67" t="s">
         <v>168</v>
       </c>
       <c r="J67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K67" t="s">
         <v>168</v>
@@ -12768,7 +12766,7 @@
         <v>96</v>
       </c>
       <c r="M67" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N67" t="str">
         <f>流程变量!$E$26</f>
@@ -12785,7 +12783,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12794,14 +12792,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -12837,46 +12835,46 @@
         <v>51</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E7" s="180" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="181" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="182" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="181" t="s">
+      <c r="H7" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="182" t="s">
+      <c r="I7" t="s">
         <v>230</v>
-      </c>
-      <c r="H7" t="s">
-        <v>231</v>
-      </c>
-      <c r="I7" t="s">
-        <v>232</v>
       </c>
       <c r="J7" t="s">
         <v>122</v>
       </c>
       <c r="K7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="M7" t="s">
         <v>233</v>
-      </c>
-      <c r="L7" s="183" t="s">
-        <v>234</v>
-      </c>
-      <c r="M7" t="s">
-        <v>235</v>
       </c>
       <c r="N7" t="s">
         <v>207</v>
       </c>
       <c r="O7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P7" s="184" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q7" t="s">
         <v>59</v>
@@ -12890,30 +12888,30 @@
     </row>
     <row r="8" spans="1:19">
       <c r="E8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F8" t="str">
         <f>审批人规则!$E$9</f>
         <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G8" s="274" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L8" t="str">
         <f>流程变量!$E$10</f>
         <v>hwkf_def_variable-10</v>
       </c>
       <c r="N8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O8" t="s">
         <v>71</v>
@@ -12930,33 +12928,33 @@
     </row>
     <row r="9" spans="1:19">
       <c r="E9" s="274" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F9" t="str">
         <f>审批人规则!$E$13</f>
         <v>hwkf_def_approver_rule-13</v>
       </c>
       <c r="G9" s="274" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" s="274" t="s">
+        <v>446</v>
+      </c>
+      <c r="I9" s="274" t="s">
         <v>447</v>
       </c>
-      <c r="H9" s="274" t="s">
-        <v>448</v>
-      </c>
-      <c r="I9" s="274" t="s">
-        <v>449</v>
-      </c>
       <c r="J9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K9" s="274" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L9" t="str">
         <f>流程变量!$E$31</f>
         <v>hwkf_def_variable-31</v>
       </c>
       <c r="N9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O9" t="s">
         <v>71</v>
@@ -12972,7 +12970,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12981,7 +12979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
@@ -13018,7 +13018,7 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D7" s="185" t="s">
         <v>194</v>
@@ -13076,7 +13076,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13086,12 +13086,13 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -13127,43 +13128,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="192" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="193" t="s">
         <v>286</v>
-      </c>
-      <c r="D7" s="192" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="193" t="s">
-        <v>288</v>
       </c>
       <c r="F7" s="194" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="195" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" t="s">
         <v>289</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>290</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>291</v>
-      </c>
-      <c r="J7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K7" t="s">
-        <v>293</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N7" t="s">
         <v>128</v>
       </c>
       <c r="O7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P7" t="s">
         <v>92</v>
@@ -13174,32 +13175,32 @@
     </row>
     <row r="8" spans="1:17">
       <c r="E8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L8" t="s">
         <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N8" t="s">
         <v>138</v>
@@ -13213,35 +13214,35 @@
     </row>
     <row r="9" spans="1:17">
       <c r="E9" s="274" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L9" t="s">
         <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N9" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P9" t="s">
         <v>73</v>
@@ -13252,32 +13253,32 @@
     </row>
     <row r="10" spans="1:17">
       <c r="E10" s="274" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F10" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" t="s">
         <v>297</v>
       </c>
-      <c r="H10" t="s">
-        <v>298</v>
-      </c>
-      <c r="I10" t="s">
-        <v>299</v>
-      </c>
       <c r="J10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L10" t="s">
         <v>71</v>
       </c>
       <c r="M10" s="274" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N10" t="s">
         <v>138</v>
@@ -13291,32 +13292,32 @@
     </row>
     <row r="11" spans="1:17">
       <c r="E11" s="274" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F11" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G11" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" t="s">
         <v>300</v>
       </c>
-      <c r="H11" t="s">
-        <v>301</v>
-      </c>
-      <c r="I11" t="s">
-        <v>302</v>
-      </c>
       <c r="J11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L11" t="s">
         <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N11" t="s">
         <v>138</v>
@@ -13330,29 +13331,29 @@
     </row>
     <row r="12" spans="1:17">
       <c r="E12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F12" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L12" t="s">
         <v>71</v>
       </c>
       <c r="M12" s="274" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N12" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -13363,29 +13364,29 @@
     </row>
     <row r="13" spans="1:17">
       <c r="E13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F13" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L13" t="s">
         <v>71</v>
       </c>
       <c r="M13" s="274" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N13" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -13396,29 +13397,29 @@
     </row>
     <row r="14" spans="1:17">
       <c r="E14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F14" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L14" t="s">
         <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N14" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -13429,29 +13430,29 @@
     </row>
     <row r="15" spans="1:17">
       <c r="E15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F15" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L15" t="s">
         <v>71</v>
       </c>
       <c r="M15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N15" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -13462,29 +13463,29 @@
     </row>
     <row r="16" spans="1:17">
       <c r="E16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F16" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L16" t="s">
         <v>71</v>
       </c>
       <c r="M16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N16" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -13495,29 +13496,29 @@
     </row>
     <row r="17" spans="5:17">
       <c r="E17" s="274" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F17" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L17" t="s">
         <v>71</v>
       </c>
       <c r="M17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N17" s="274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -13527,7 +13528,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="635">
   <si>
     <r>
       <rPr>
@@ -3000,6 +3000,27 @@
   </si>
   <si>
     <t>USER</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-35</t>
+  </si>
+  <si>
+    <t>LINE_APPOINT_ROLE</t>
+  </si>
+  <si>
+    <t>指定角色</t>
+  </si>
+  <si>
+    <t>Specify role</t>
+  </si>
+  <si>
+    <t>HWKF.RULE.SELECT_ROLE</t>
+  </si>
+  <si>
+    <t>工作流-选择角色</t>
+  </si>
+  <si>
+    <t>ROLE</t>
   </si>
   <si>
     <t>审批人规则行返回字段</t>
@@ -3637,12 +3658,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3671,12 +3692,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3720,22 +3735,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3747,85 +3746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3840,7 +3762,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3855,6 +3785,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3863,6 +3871,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3944,7 +3959,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3956,25 +3995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3986,49 +4007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4046,13 +4025,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4070,7 +4073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4082,19 +4091,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4106,25 +4139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4232,6 +4247,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4246,17 +4287,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4272,15 +4316,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4302,180 +4337,160 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4483,8 +4498,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4496,46 +4514,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4548,7 +4565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4951,10 +4968,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -5133,7 +5150,7 @@
       <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5141,7 +5158,7 @@
       <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5228,31 +5245,31 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="I7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="J7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="K7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -5261,13 +5278,13 @@
         <v>203</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="Q7" t="s">
         <v>125</v>
@@ -5276,7 +5293,7 @@
         <v>126</v>
       </c>
       <c r="S7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -5287,43 +5304,43 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="H9" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="I9" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="J9" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="K9" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L9" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="M9" t="s">
         <v>60</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="O9" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="P9" t="s">
         <v>125</v>
@@ -5332,7 +5349,7 @@
         <v>126</v>
       </c>
       <c r="R9" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5343,19 +5360,19 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="G11" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5408,31 +5425,31 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="H7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="I7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>199</v>
       </c>
       <c r="K7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -5444,7 +5461,7 @@
         <v>126</v>
       </c>
       <c r="O7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="P7" t="s">
         <v>203</v>
@@ -5458,7 +5475,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>288</v>
@@ -5565,25 +5582,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="H7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="I7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>62</v>
@@ -5603,25 +5620,25 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="I9" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="J9" t="s">
         <v>305</v>
@@ -5677,37 +5694,37 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="H7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="I7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="J7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="K7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="N7" t="s">
         <v>125</v>
@@ -5730,7 +5747,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>288</v>
@@ -5841,34 +5858,34 @@
         <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="H7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="I7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="J7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="K7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>199</v>
@@ -5891,29 +5908,29 @@
     </row>
     <row r="8" spans="5:18">
       <c r="E8" s="5" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G8" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="H8" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="I8" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="J8" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="K8" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="L8" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="M8" t="str">
         <f>接口定义!$E$12</f>
@@ -5937,29 +5954,29 @@
     </row>
     <row r="9" spans="5:18">
       <c r="E9" s="5" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H9" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="I9" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="J9" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="K9" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L9" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="M9" t="str">
         <f>接口定义!$E$13</f>
@@ -5989,7 +6006,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>288</v>
@@ -6048,7 +6065,7 @@
     </row>
     <row r="12" spans="5:21">
       <c r="E12" s="5" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F12" t="str">
         <f>自定义审批动作!$E$8</f>
@@ -6058,7 +6075,7 @@
         <v>280</v>
       </c>
       <c r="H12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="I12" t="s">
         <v>157</v>
@@ -6073,7 +6090,7 @@
         <v>159</v>
       </c>
       <c r="M12" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N12" t="str">
         <f>流程变量!$E$27</f>
@@ -6091,7 +6108,7 @@
     </row>
     <row r="13" spans="5:21">
       <c r="E13" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F13" t="str">
         <f>自定义审批动作!$E$8</f>
@@ -6101,7 +6118,7 @@
         <v>280</v>
       </c>
       <c r="H13" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="I13" t="s">
         <v>154</v>
@@ -6116,7 +6133,7 @@
         <v>131</v>
       </c>
       <c r="M13" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N13" t="str">
         <f>流程变量!$E$26</f>
@@ -6134,7 +6151,7 @@
     </row>
     <row r="14" spans="5:21">
       <c r="E14" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F14" t="str">
         <f>自定义审批动作!$E$9</f>
@@ -6144,7 +6161,7 @@
         <v>280</v>
       </c>
       <c r="H14" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="I14" t="s">
         <v>157</v>
@@ -6159,7 +6176,7 @@
         <v>159</v>
       </c>
       <c r="M14" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N14" t="str">
         <f>流程变量!$E$27</f>
@@ -6177,7 +6194,7 @@
     </row>
     <row r="15" spans="5:21">
       <c r="E15" s="5" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="F15" t="str">
         <f>自定义审批动作!$E$9</f>
@@ -6187,7 +6204,7 @@
         <v>280</v>
       </c>
       <c r="H15" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="I15" t="s">
         <v>154</v>
@@ -6202,7 +6219,7 @@
         <v>131</v>
       </c>
       <c r="M15" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N15" t="str">
         <f>流程变量!$E$26</f>
@@ -6268,25 +6285,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="G7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="H7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="I7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="J7" t="s">
         <v>125</v>
@@ -6304,7 +6321,7 @@
         <v>199</v>
       </c>
       <c r="O7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -6315,7 +6332,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>288</v>
@@ -6422,22 +6439,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="H7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="I7" t="s">
         <v>305</v>
@@ -7041,7 +7058,7 @@
       </c>
     </row>
     <row r="22" spans="5:15">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>150</v>
       </c>
       <c r="F22" t="str">
@@ -7074,7 +7091,7 @@
       </c>
     </row>
     <row r="23" spans="5:15">
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>151</v>
       </c>
       <c r="F23" t="str">
@@ -7110,33 +7127,33 @@
       <c r="E24" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="7" t="str">
+      <c r="F24" s="8" t="str">
         <f>接口定义!$E$12</f>
         <v>hwkf_def_interface-12</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8">
         <v>1</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
         <v>0</v>
       </c>
     </row>
@@ -7144,33 +7161,33 @@
       <c r="E25" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="7" t="str">
+      <c r="F25" s="8" t="str">
         <f>接口定义!$E$12</f>
         <v>hwkf_def_interface-12</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8">
         <v>1</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
         <v>0</v>
       </c>
     </row>
@@ -8922,10 +8939,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="F38" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -10069,173 +10086,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" t="s">
+    <row r="36" spans="5:19">
+      <c r="E36" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" t="str">
+        <f>审批人规则!$E$14</f>
+        <v>hwkf_def_approver_rule-14</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I36" t="s">
+        <v>421</v>
+      </c>
+      <c r="J36" t="s">
+        <v>350</v>
+      </c>
+      <c r="K36" t="s">
+        <v>422</v>
+      </c>
+      <c r="M36" t="s">
+        <v>423</v>
+      </c>
+      <c r="N36" t="s">
+        <v>424</v>
+      </c>
+      <c r="O36" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H37" t="s">
-        <v>423</v>
-      </c>
-      <c r="I37" t="s">
-        <v>424</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="C38" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="K37" t="s">
+      <c r="D38" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="L37" t="s">
+      <c r="E38" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="M37" t="s">
+      <c r="F38" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="N37" t="s">
+      <c r="G38" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="O37" t="s">
+      <c r="H38" t="s">
+        <v>430</v>
+      </c>
+      <c r="I38" t="s">
+        <v>431</v>
+      </c>
+      <c r="J38" t="s">
+        <v>432</v>
+      </c>
+      <c r="K38" t="s">
+        <v>433</v>
+      </c>
+      <c r="L38" t="s">
+        <v>434</v>
+      </c>
+      <c r="M38" t="s">
+        <v>435</v>
+      </c>
+      <c r="N38" t="s">
+        <v>436</v>
+      </c>
+      <c r="O38" t="s">
         <v>60</v>
       </c>
-      <c r="P37" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="P38" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q38" t="s">
         <v>125</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R38" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39" t="s">
+    <row r="40" spans="1:21">
+      <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C40" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>120</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K40" t="s">
         <v>121</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L40" t="s">
         <v>122</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M40" t="s">
         <v>292</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O40" t="s">
         <v>124</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P40" t="s">
         <v>294</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q40" t="s">
         <v>295</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R40" t="s">
         <v>123</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S40" t="s">
         <v>296</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T40" t="s">
         <v>125</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="5:21">
-      <c r="E40" t="s">
-        <v>432</v>
-      </c>
-      <c r="F40" t="str">
-        <f>审批人规则!$E$21</f>
-        <v>hwkf_def_approver_line-20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H40" t="s">
-        <v>433</v>
-      </c>
-      <c r="I40" t="s">
-        <v>434</v>
-      </c>
-      <c r="J40" t="s">
-        <v>435</v>
-      </c>
-      <c r="K40" t="s">
-        <v>434</v>
-      </c>
-      <c r="L40" t="s">
-        <v>159</v>
-      </c>
-      <c r="M40" t="s">
-        <v>436</v>
-      </c>
-      <c r="N40" t="str">
-        <f>流程变量!$E$10</f>
-        <v>hwkf_def_variable-10</v>
-      </c>
-      <c r="S40" t="s">
-        <v>75</v>
-      </c>
-      <c r="T40" t="s">
-        <v>75</v>
-      </c>
-      <c r="U40" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="41" spans="5:21">
-      <c r="E41" s="5" t="s">
-        <v>437</v>
+      <c r="E41" t="s">
+        <v>439</v>
       </c>
       <c r="F41" t="str">
         <f>审批人规则!$E$21</f>
@@ -10245,70 +10261,70 @@
         <v>280</v>
       </c>
       <c r="H41" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I41" t="s">
+        <v>441</v>
+      </c>
+      <c r="J41" t="s">
+        <v>442</v>
+      </c>
+      <c r="K41" t="s">
+        <v>441</v>
+      </c>
+      <c r="L41" t="s">
+        <v>159</v>
+      </c>
+      <c r="M41" t="s">
+        <v>443</v>
+      </c>
+      <c r="N41" t="str">
+        <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
+      </c>
+      <c r="S41" t="s">
+        <v>75</v>
+      </c>
+      <c r="T41" t="s">
+        <v>75</v>
+      </c>
+      <c r="U41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="5:21">
+      <c r="E42" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F42" t="str">
+        <f>审批人规则!$E$21</f>
+        <v>hwkf_def_approver_line-20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>280</v>
+      </c>
+      <c r="H42" t="s">
+        <v>440</v>
+      </c>
+      <c r="I42" t="s">
         <v>213</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" t="s">
         <v>129</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K42" t="s">
         <v>213</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L42" t="s">
         <v>131</v>
       </c>
-      <c r="M41" t="s">
-        <v>436</v>
-      </c>
-      <c r="N41" t="str">
+      <c r="M42" t="s">
+        <v>443</v>
+      </c>
+      <c r="N42" t="str">
         <f>流程变量!$E$8</f>
         <v>hwkf_def_variable-8</v>
       </c>
-      <c r="S41" t="s">
-        <v>75</v>
-      </c>
-      <c r="T41" t="s">
-        <v>75</v>
-      </c>
-      <c r="U41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="5:21">
-      <c r="E42" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="F42" t="str">
-        <f>审批人规则!$E$22</f>
-        <v>hwkf_def_approver_line-21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>280</v>
-      </c>
-      <c r="H42" t="s">
-        <v>433</v>
-      </c>
-      <c r="I42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J42" t="s">
-        <v>435</v>
-      </c>
-      <c r="K42" t="s">
-        <v>434</v>
-      </c>
-      <c r="L42" t="s">
-        <v>159</v>
-      </c>
-      <c r="M42" t="s">
-        <v>436</v>
-      </c>
-      <c r="N42" t="str">
-        <f>流程变量!$E$10</f>
-        <v>hwkf_def_variable-10</v>
-      </c>
       <c r="S42" t="s">
         <v>75</v>
       </c>
@@ -10321,7 +10337,7 @@
     </row>
     <row r="43" spans="5:21">
       <c r="E43" s="5" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F43" t="str">
         <f>审批人规则!$E$22</f>
@@ -10331,26 +10347,26 @@
         <v>280</v>
       </c>
       <c r="H43" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I43" t="s">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>442</v>
       </c>
       <c r="K43" t="s">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="L43" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M43" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N43" t="str">
-        <f>流程变量!$E$8</f>
-        <v>hwkf_def_variable-8</v>
+        <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="S43" t="s">
         <v>75</v>
@@ -10364,17 +10380,17 @@
     </row>
     <row r="44" spans="5:21">
       <c r="E44" s="5" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F44" t="str">
-        <f>审批人规则!$E$20</f>
-        <v>hwkf_def_approver_line-19</v>
+        <f>审批人规则!$E$22</f>
+        <v>hwkf_def_approver_line-21</v>
       </c>
       <c r="G44" t="s">
         <v>280</v>
       </c>
       <c r="H44" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I44" t="s">
         <v>213</v>
@@ -10389,7 +10405,7 @@
         <v>131</v>
       </c>
       <c r="M44" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N44" t="str">
         <f>流程变量!$E$8</f>
@@ -10407,7 +10423,7 @@
     </row>
     <row r="45" spans="5:21">
       <c r="E45" s="5" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F45" t="str">
         <f>审批人规则!$E$20</f>
@@ -10417,31 +10433,29 @@
         <v>280</v>
       </c>
       <c r="H45" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I45" t="s">
-        <v>442</v>
+        <v>213</v>
       </c>
       <c r="J45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" t="s">
+        <v>213</v>
+      </c>
+      <c r="L45" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45" t="s">
         <v>443</v>
       </c>
-      <c r="K45" t="s">
-        <v>444</v>
-      </c>
-      <c r="L45" t="s">
-        <v>159</v>
-      </c>
-      <c r="M45" t="s">
-        <v>350</v>
-      </c>
-      <c r="P45" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>366</v>
+      <c r="N45" t="str">
+        <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
       </c>
       <c r="S45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T45" t="s">
         <v>75</v>
@@ -10452,39 +10466,41 @@
     </row>
     <row r="46" spans="5:21">
       <c r="E46" s="5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F46" t="str">
-        <f>审批人规则!$E$23</f>
-        <v>hwkf_def_approver_line-22</v>
+        <f>审批人规则!$E$20</f>
+        <v>hwkf_def_approver_line-19</v>
       </c>
       <c r="G46" t="s">
         <v>280</v>
       </c>
       <c r="H46" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I46" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="J46" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="K46" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="L46" t="s">
         <v>159</v>
       </c>
       <c r="M46" t="s">
-        <v>436</v>
-      </c>
-      <c r="N46" t="str">
-        <f>流程变量!$E$10</f>
-        <v>hwkf_def_variable-10</v>
+        <v>350</v>
+      </c>
+      <c r="P46" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>366</v>
       </c>
       <c r="S46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s">
         <v>75</v>
@@ -10495,7 +10511,7 @@
     </row>
     <row r="47" spans="5:21">
       <c r="E47" s="5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F47" t="str">
         <f>审批人规则!$E$23</f>
@@ -10505,25 +10521,26 @@
         <v>280</v>
       </c>
       <c r="H47" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I47" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J47" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K47" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M47" t="s">
-        <v>254</v>
-      </c>
-      <c r="O47" t="s">
-        <v>75</v>
+        <v>443</v>
+      </c>
+      <c r="N47" t="str">
+        <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="S47" t="s">
         <v>75</v>
@@ -10537,7 +10554,7 @@
     </row>
     <row r="48" spans="5:21">
       <c r="E48" s="5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F48" t="str">
         <f>审批人规则!$E$23</f>
@@ -10547,70 +10564,69 @@
         <v>280</v>
       </c>
       <c r="H48" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I48" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="J48" t="s">
-        <v>129</v>
+        <v>455</v>
       </c>
       <c r="K48" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="L48" t="s">
         <v>131</v>
       </c>
       <c r="M48" t="s">
-        <v>436</v>
-      </c>
-      <c r="N48" t="str">
+        <v>254</v>
+      </c>
+      <c r="O48" t="s">
+        <v>75</v>
+      </c>
+      <c r="S48" t="s">
+        <v>75</v>
+      </c>
+      <c r="T48" t="s">
+        <v>75</v>
+      </c>
+      <c r="U48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="5:21">
+      <c r="E49" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F49" t="str">
+        <f>审批人规则!$E$23</f>
+        <v>hwkf_def_approver_line-22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>280</v>
+      </c>
+      <c r="H49" t="s">
+        <v>440</v>
+      </c>
+      <c r="I49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K49" t="s">
+        <v>213</v>
+      </c>
+      <c r="L49" t="s">
+        <v>131</v>
+      </c>
+      <c r="M49" t="s">
+        <v>443</v>
+      </c>
+      <c r="N49" t="str">
         <f>流程变量!$E$8</f>
         <v>hwkf_def_variable-8</v>
       </c>
-      <c r="S48" t="s">
-        <v>75</v>
-      </c>
-      <c r="T48" t="s">
-        <v>75</v>
-      </c>
-      <c r="U48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="5:21">
-      <c r="E49" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="F49" t="str">
-        <f>审批人规则!$E$24</f>
-        <v>hwkf_def_approver_line-23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>280</v>
-      </c>
-      <c r="H49" t="s">
-        <v>433</v>
-      </c>
-      <c r="I49" t="s">
-        <v>434</v>
-      </c>
-      <c r="J49" t="s">
-        <v>435</v>
-      </c>
-      <c r="K49" t="s">
-        <v>434</v>
-      </c>
-      <c r="L49" t="s">
-        <v>159</v>
-      </c>
-      <c r="M49" t="s">
-        <v>436</v>
-      </c>
-      <c r="N49" t="str">
-        <f>流程变量!$E$10</f>
-        <v>hwkf_def_variable-10</v>
-      </c>
       <c r="S49" t="s">
         <v>75</v>
       </c>
@@ -10623,7 +10639,7 @@
     </row>
     <row r="50" spans="5:21">
       <c r="E50" s="5" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F50" t="str">
         <f>审批人规则!$E$24</f>
@@ -10633,25 +10649,26 @@
         <v>280</v>
       </c>
       <c r="H50" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I50" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K50" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M50" t="s">
-        <v>254</v>
-      </c>
-      <c r="O50" t="s">
-        <v>73</v>
+        <v>443</v>
+      </c>
+      <c r="N50" t="str">
+        <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="S50" t="s">
         <v>75</v>
@@ -10665,7 +10682,7 @@
     </row>
     <row r="51" spans="5:21">
       <c r="E51" s="5" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F51" t="str">
         <f>审批人规则!$E$24</f>
@@ -10675,71 +10692,69 @@
         <v>280</v>
       </c>
       <c r="H51" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I51" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="J51" t="s">
-        <v>129</v>
+        <v>455</v>
       </c>
       <c r="K51" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s">
         <v>131</v>
       </c>
       <c r="M51" t="s">
-        <v>436</v>
-      </c>
-      <c r="N51" t="str">
+        <v>254</v>
+      </c>
+      <c r="O51" t="s">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s">
+        <v>75</v>
+      </c>
+      <c r="T51" t="s">
+        <v>75</v>
+      </c>
+      <c r="U51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="5:21">
+      <c r="E52" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F52" t="str">
+        <f>审批人规则!$E$24</f>
+        <v>hwkf_def_approver_line-23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>280</v>
+      </c>
+      <c r="H52" t="s">
+        <v>440</v>
+      </c>
+      <c r="I52" t="s">
+        <v>213</v>
+      </c>
+      <c r="J52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" t="s">
+        <v>213</v>
+      </c>
+      <c r="L52" t="s">
+        <v>131</v>
+      </c>
+      <c r="M52" t="s">
+        <v>443</v>
+      </c>
+      <c r="N52" t="str">
         <f>流程变量!$E$8</f>
         <v>hwkf_def_variable-8</v>
       </c>
-      <c r="S51" t="s">
-        <v>75</v>
-      </c>
-      <c r="T51" t="s">
-        <v>75</v>
-      </c>
-      <c r="U51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="3:21">
-      <c r="C52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="F52" t="str">
-        <f>审批人规则!$E$25</f>
-        <v>hwkf_def_approver_line-24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>280</v>
-      </c>
-      <c r="H52" t="s">
-        <v>433</v>
-      </c>
-      <c r="I52" t="s">
-        <v>434</v>
-      </c>
-      <c r="J52" t="s">
-        <v>435</v>
-      </c>
-      <c r="K52" t="s">
-        <v>434</v>
-      </c>
-      <c r="L52" t="s">
-        <v>159</v>
-      </c>
-      <c r="M52" t="s">
-        <v>436</v>
-      </c>
-      <c r="N52" t="str">
-        <f>流程变量!$E$10</f>
-        <v>hwkf_def_variable-10</v>
-      </c>
       <c r="S52" t="s">
         <v>75</v>
       </c>
@@ -10750,9 +10765,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="5:21">
+    <row r="53" spans="3:21">
+      <c r="C53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F53" t="str">
         <f>审批人规则!$E$25</f>
@@ -10762,25 +10778,26 @@
         <v>280</v>
       </c>
       <c r="H53" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I53" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J53" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s">
-        <v>254</v>
-      </c>
-      <c r="O53" t="s">
-        <v>456</v>
+        <v>443</v>
+      </c>
+      <c r="N53" t="str">
+        <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
       </c>
       <c r="S53" t="s">
         <v>75</v>
@@ -10794,7 +10811,7 @@
     </row>
     <row r="54" spans="5:21">
       <c r="E54" s="5" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F54" t="str">
         <f>审批人规则!$E$25</f>
@@ -10804,83 +10821,82 @@
         <v>280</v>
       </c>
       <c r="H54" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I54" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
-        <v>129</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
         <v>131</v>
       </c>
       <c r="M54" t="s">
-        <v>436</v>
-      </c>
-      <c r="N54" t="str">
+        <v>254</v>
+      </c>
+      <c r="O54" t="s">
+        <v>463</v>
+      </c>
+      <c r="S54" t="s">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="5:21">
+      <c r="E55" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F55" t="str">
+        <f>审批人规则!$E$25</f>
+        <v>hwkf_def_approver_line-24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>280</v>
+      </c>
+      <c r="H55" t="s">
+        <v>440</v>
+      </c>
+      <c r="I55" t="s">
+        <v>213</v>
+      </c>
+      <c r="J55" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55" t="s">
+        <v>213</v>
+      </c>
+      <c r="L55" t="s">
+        <v>131</v>
+      </c>
+      <c r="M55" t="s">
+        <v>443</v>
+      </c>
+      <c r="N55" t="str">
         <f>流程变量!$E$8</f>
         <v>hwkf_def_variable-8</v>
       </c>
-      <c r="S54" t="s">
-        <v>75</v>
-      </c>
-      <c r="T54" t="s">
-        <v>75</v>
-      </c>
-      <c r="U54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="5:21">
-      <c r="E55" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F55" t="str">
-        <f>审批人规则!$E$32</f>
-        <v>hwkf_def_approver_line-31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>280</v>
-      </c>
-      <c r="H55" t="s">
-        <v>433</v>
-      </c>
-      <c r="I55" t="s">
-        <v>434</v>
-      </c>
-      <c r="J55" t="s">
-        <v>435</v>
-      </c>
-      <c r="K55" t="s">
-        <v>434</v>
-      </c>
-      <c r="L55" t="s">
-        <v>159</v>
-      </c>
-      <c r="M55" t="s">
-        <v>436</v>
-      </c>
-      <c r="N55" t="str">
-        <f>流程变量!$E$31</f>
-        <v>hwkf_def_variable-31</v>
-      </c>
       <c r="S55" t="s">
         <v>75</v>
       </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
+      <c r="T55" t="s">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="5:21">
       <c r="E56" s="5" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F56" t="str">
         <f>审批人规则!$E$32</f>
@@ -10890,25 +10906,26 @@
         <v>280</v>
       </c>
       <c r="H56" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I56" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J56" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K56" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L56" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M56" t="s">
-        <v>254</v>
-      </c>
-      <c r="O56" t="s">
-        <v>75</v>
+        <v>443</v>
+      </c>
+      <c r="N56" t="str">
+        <f>流程变量!$E$31</f>
+        <v>hwkf_def_variable-31</v>
       </c>
       <c r="S56" t="s">
         <v>75</v>
@@ -10922,7 +10939,7 @@
     </row>
     <row r="57" spans="5:21">
       <c r="E57" s="5" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F57" t="str">
         <f>审批人规则!$E$32</f>
@@ -10932,70 +10949,69 @@
         <v>280</v>
       </c>
       <c r="H57" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I57" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
+        <v>455</v>
       </c>
       <c r="K57" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="L57" t="s">
         <v>131</v>
       </c>
       <c r="M57" t="s">
-        <v>436</v>
-      </c>
-      <c r="N57" t="str">
+        <v>254</v>
+      </c>
+      <c r="O57" t="s">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s">
+        <v>75</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:21">
+      <c r="E58" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F58" t="str">
+        <f>审批人规则!$E$32</f>
+        <v>hwkf_def_approver_line-31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>280</v>
+      </c>
+      <c r="H58" t="s">
+        <v>440</v>
+      </c>
+      <c r="I58" t="s">
+        <v>213</v>
+      </c>
+      <c r="J58" t="s">
+        <v>129</v>
+      </c>
+      <c r="K58" t="s">
+        <v>213</v>
+      </c>
+      <c r="L58" t="s">
+        <v>131</v>
+      </c>
+      <c r="M58" t="s">
+        <v>443</v>
+      </c>
+      <c r="N58" t="str">
         <f>流程变量!$E$26</f>
         <v>hwkf_def_variable-26</v>
       </c>
-      <c r="S57" t="s">
-        <v>75</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="5:21">
-      <c r="E58" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F58" t="str">
-        <f>审批人规则!$E$33</f>
-        <v>hwkf_def_approver_line-32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>280</v>
-      </c>
-      <c r="H58" t="s">
-        <v>433</v>
-      </c>
-      <c r="I58" t="s">
-        <v>434</v>
-      </c>
-      <c r="J58" t="s">
-        <v>435</v>
-      </c>
-      <c r="K58" t="s">
-        <v>434</v>
-      </c>
-      <c r="L58" t="s">
-        <v>159</v>
-      </c>
-      <c r="M58" t="s">
-        <v>436</v>
-      </c>
-      <c r="N58" t="str">
-        <f>流程变量!$E$31</f>
-        <v>hwkf_def_variable-31</v>
-      </c>
       <c r="S58" t="s">
         <v>75</v>
       </c>
@@ -11008,7 +11024,7 @@
     </row>
     <row r="59" spans="5:21">
       <c r="E59" s="5" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F59" t="str">
         <f>审批人规则!$E$33</f>
@@ -11018,25 +11034,26 @@
         <v>280</v>
       </c>
       <c r="H59" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I59" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J59" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M59" t="s">
-        <v>254</v>
-      </c>
-      <c r="O59" t="s">
-        <v>73</v>
+        <v>443</v>
+      </c>
+      <c r="N59" t="str">
+        <f>流程变量!$E$31</f>
+        <v>hwkf_def_variable-31</v>
       </c>
       <c r="S59" t="s">
         <v>75</v>
@@ -11050,7 +11067,7 @@
     </row>
     <row r="60" spans="5:21">
       <c r="E60" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F60" t="str">
         <f>审批人规则!$E$33</f>
@@ -11060,70 +11077,69 @@
         <v>280</v>
       </c>
       <c r="H60" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I60" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="J60" t="s">
-        <v>129</v>
+        <v>455</v>
       </c>
       <c r="K60" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s">
         <v>131</v>
       </c>
       <c r="M60" t="s">
-        <v>436</v>
-      </c>
-      <c r="N60" t="str">
+        <v>254</v>
+      </c>
+      <c r="O60" t="s">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s">
+        <v>75</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:21">
+      <c r="E61" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F61" t="str">
+        <f>审批人规则!$E$33</f>
+        <v>hwkf_def_approver_line-32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>280</v>
+      </c>
+      <c r="H61" t="s">
+        <v>440</v>
+      </c>
+      <c r="I61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J61" t="s">
+        <v>129</v>
+      </c>
+      <c r="K61" t="s">
+        <v>213</v>
+      </c>
+      <c r="L61" t="s">
+        <v>131</v>
+      </c>
+      <c r="M61" t="s">
+        <v>443</v>
+      </c>
+      <c r="N61" t="str">
         <f>流程变量!$E$26</f>
         <v>hwkf_def_variable-26</v>
       </c>
-      <c r="S60" t="s">
-        <v>75</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="5:21">
-      <c r="E61" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F61" t="str">
-        <f>审批人规则!$E$34</f>
-        <v>hwkf_def_approver_line-33</v>
-      </c>
-      <c r="G61" t="s">
-        <v>280</v>
-      </c>
-      <c r="H61" t="s">
-        <v>433</v>
-      </c>
-      <c r="I61" t="s">
-        <v>434</v>
-      </c>
-      <c r="J61" t="s">
-        <v>435</v>
-      </c>
-      <c r="K61" t="s">
-        <v>434</v>
-      </c>
-      <c r="L61" t="s">
-        <v>159</v>
-      </c>
-      <c r="M61" t="s">
-        <v>436</v>
-      </c>
-      <c r="N61" t="str">
-        <f>流程变量!$E$31</f>
-        <v>hwkf_def_variable-31</v>
-      </c>
       <c r="S61" t="s">
         <v>75</v>
       </c>
@@ -11136,7 +11152,7 @@
     </row>
     <row r="62" spans="5:21">
       <c r="E62" s="5" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F62" t="str">
         <f>审批人规则!$E$34</f>
@@ -11146,25 +11162,26 @@
         <v>280</v>
       </c>
       <c r="H62" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I62" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J62" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K62" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M62" t="s">
-        <v>254</v>
-      </c>
-      <c r="O62" t="s">
-        <v>456</v>
+        <v>443</v>
+      </c>
+      <c r="N62" t="str">
+        <f>流程变量!$E$31</f>
+        <v>hwkf_def_variable-31</v>
       </c>
       <c r="S62" t="s">
         <v>75</v>
@@ -11178,7 +11195,7 @@
     </row>
     <row r="63" spans="5:21">
       <c r="E63" s="5" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F63" t="str">
         <f>审批人规则!$E$34</f>
@@ -11188,26 +11205,25 @@
         <v>280</v>
       </c>
       <c r="H63" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I63" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="J63" t="s">
-        <v>129</v>
+        <v>455</v>
       </c>
       <c r="K63" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s">
         <v>131</v>
       </c>
       <c r="M63" t="s">
-        <v>436</v>
-      </c>
-      <c r="N63" t="str">
-        <f>流程变量!$E$26</f>
-        <v>hwkf_def_variable-26</v>
+        <v>254</v>
+      </c>
+      <c r="O63" t="s">
+        <v>463</v>
       </c>
       <c r="S63" t="s">
         <v>75</v>
@@ -11221,17 +11237,17 @@
     </row>
     <row r="64" spans="5:21">
       <c r="E64" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F64" t="str">
-        <f>审批人规则!$E$29</f>
-        <v>hwkf_def_approver_line-28</v>
+        <f>审批人规则!$E$34</f>
+        <v>hwkf_def_approver_line-33</v>
       </c>
       <c r="G64" t="s">
         <v>280</v>
       </c>
       <c r="H64" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I64" t="s">
         <v>213</v>
@@ -11246,7 +11262,7 @@
         <v>131</v>
       </c>
       <c r="M64" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N64" t="str">
         <f>流程变量!$E$26</f>
@@ -11264,7 +11280,7 @@
     </row>
     <row r="65" spans="5:21">
       <c r="E65" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F65" t="str">
         <f>审批人规则!$E$29</f>
@@ -11274,31 +11290,29 @@
         <v>280</v>
       </c>
       <c r="H65" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I65" t="s">
-        <v>442</v>
+        <v>213</v>
       </c>
       <c r="J65" t="s">
+        <v>129</v>
+      </c>
+      <c r="K65" t="s">
+        <v>213</v>
+      </c>
+      <c r="L65" t="s">
+        <v>131</v>
+      </c>
+      <c r="M65" t="s">
         <v>443</v>
       </c>
-      <c r="K65" t="s">
-        <v>444</v>
-      </c>
-      <c r="L65" t="s">
-        <v>159</v>
-      </c>
-      <c r="M65" t="s">
-        <v>350</v>
-      </c>
-      <c r="P65" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>366</v>
+      <c r="N65" t="str">
+        <f>流程变量!$E$26</f>
+        <v>hwkf_def_variable-26</v>
       </c>
       <c r="S65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -11309,39 +11323,41 @@
     </row>
     <row r="66" spans="5:21">
       <c r="E66" s="5" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F66" t="str">
-        <f>审批人规则!$E$30</f>
-        <v>hwkf_def_approver_line-29</v>
+        <f>审批人规则!$E$29</f>
+        <v>hwkf_def_approver_line-28</v>
       </c>
       <c r="G66" t="s">
         <v>280</v>
       </c>
       <c r="H66" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I66" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="J66" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="K66" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="L66" t="s">
         <v>159</v>
       </c>
       <c r="M66" t="s">
-        <v>436</v>
-      </c>
-      <c r="N66" t="str">
-        <f>流程变量!$E$31</f>
-        <v>hwkf_def_variable-31</v>
+        <v>350</v>
+      </c>
+      <c r="P66" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>366</v>
       </c>
       <c r="S66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -11352,7 +11368,7 @@
     </row>
     <row r="67" spans="5:21">
       <c r="E67" s="5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F67" t="str">
         <f>审批人规则!$E$30</f>
@@ -11362,70 +11378,70 @@
         <v>280</v>
       </c>
       <c r="H67" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I67" t="s">
+        <v>441</v>
+      </c>
+      <c r="J67" t="s">
+        <v>442</v>
+      </c>
+      <c r="K67" t="s">
+        <v>441</v>
+      </c>
+      <c r="L67" t="s">
+        <v>159</v>
+      </c>
+      <c r="M67" t="s">
+        <v>443</v>
+      </c>
+      <c r="N67" t="str">
+        <f>流程变量!$E$31</f>
+        <v>hwkf_def_variable-31</v>
+      </c>
+      <c r="S67" t="s">
+        <v>75</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:21">
+      <c r="E68" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F68" t="str">
+        <f>审批人规则!$E$30</f>
+        <v>hwkf_def_approver_line-29</v>
+      </c>
+      <c r="G68" t="s">
+        <v>280</v>
+      </c>
+      <c r="H68" t="s">
+        <v>440</v>
+      </c>
+      <c r="I68" t="s">
         <v>213</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J68" t="s">
         <v>129</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K68" t="s">
         <v>213</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L68" t="s">
         <v>131</v>
       </c>
-      <c r="M67" t="s">
-        <v>436</v>
-      </c>
-      <c r="N67" t="str">
+      <c r="M68" t="s">
+        <v>443</v>
+      </c>
+      <c r="N68" t="str">
         <f>流程变量!$E$26</f>
         <v>hwkf_def_variable-26</v>
       </c>
-      <c r="S67" t="s">
-        <v>75</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="5:21">
-      <c r="E68" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F68" t="str">
-        <f>审批人规则!$E$31</f>
-        <v>hwkf_def_approver_line-30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>280</v>
-      </c>
-      <c r="H68" t="s">
-        <v>433</v>
-      </c>
-      <c r="I68" t="s">
-        <v>434</v>
-      </c>
-      <c r="J68" t="s">
-        <v>435</v>
-      </c>
-      <c r="K68" t="s">
-        <v>434</v>
-      </c>
-      <c r="L68" t="s">
-        <v>159</v>
-      </c>
-      <c r="M68" t="s">
-        <v>436</v>
-      </c>
-      <c r="N68" t="str">
-        <f>流程变量!$E$31</f>
-        <v>hwkf_def_variable-31</v>
-      </c>
       <c r="S68" t="s">
         <v>75</v>
       </c>
@@ -11438,7 +11454,7 @@
     </row>
     <row r="69" spans="5:21">
       <c r="E69" s="5" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F69" t="str">
         <f>审批人规则!$E$31</f>
@@ -11448,34 +11464,77 @@
         <v>280</v>
       </c>
       <c r="H69" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I69" t="s">
+        <v>441</v>
+      </c>
+      <c r="J69" t="s">
+        <v>442</v>
+      </c>
+      <c r="K69" t="s">
+        <v>441</v>
+      </c>
+      <c r="L69" t="s">
+        <v>159</v>
+      </c>
+      <c r="M69" t="s">
+        <v>443</v>
+      </c>
+      <c r="N69" t="str">
+        <f>流程变量!$E$31</f>
+        <v>hwkf_def_variable-31</v>
+      </c>
+      <c r="S69" t="s">
+        <v>75</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:21">
+      <c r="E70" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F70" t="str">
+        <f>审批人规则!$E$31</f>
+        <v>hwkf_def_approver_line-30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>280</v>
+      </c>
+      <c r="H70" t="s">
+        <v>440</v>
+      </c>
+      <c r="I70" t="s">
         <v>213</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J70" t="s">
         <v>129</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K70" t="s">
         <v>213</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L70" t="s">
         <v>131</v>
       </c>
-      <c r="M69" t="s">
-        <v>436</v>
-      </c>
-      <c r="N69" t="str">
+      <c r="M70" t="s">
+        <v>443</v>
+      </c>
+      <c r="N70" t="str">
         <f>流程变量!$E$26</f>
         <v>hwkf_def_variable-26</v>
       </c>
-      <c r="S69" t="s">
-        <v>75</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
+      <c r="S70" t="s">
+        <v>75</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
         <v>0</v>
       </c>
     </row>
@@ -11490,8 +11549,8 @@
   <sheetPr/>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -11534,7 +11593,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>335</v>
@@ -11587,23 +11646,23 @@
     </row>
     <row r="8" spans="5:19">
       <c r="E8" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F8" t="str">
         <f>审批人规则!$E$9</f>
         <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H8" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="I8" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="J8" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L8" t="str">
         <f>流程变量!$E$10</f>
@@ -11627,23 +11686,23 @@
     </row>
     <row r="9" spans="5:19">
       <c r="E9" s="5" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F9" t="str">
         <f>审批人规则!$E$13</f>
         <v>hwkf_def_approver_rule-13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="J9" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>225</v>
@@ -11670,23 +11729,23 @@
     </row>
     <row r="10" spans="5:19">
       <c r="E10" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="F10" t="str">
         <f>审批人规则!$E$14</f>
         <v>hwkf_def_approver_rule-14</v>
       </c>
       <c r="G10" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H10" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="I10" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="J10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="K10" t="s">
         <v>229</v>
@@ -11761,7 +11820,7 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>288</v>
@@ -11872,43 +11931,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="I7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="J7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="K7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="N7" t="s">
         <v>203</v>
       </c>
       <c r="O7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="P7" t="s">
         <v>125</v>
@@ -11919,32 +11978,32 @@
     </row>
     <row r="8" spans="5:17">
       <c r="E8" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H8" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="I8" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="J8" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="K8" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="N8" t="s">
         <v>223</v>
@@ -11958,32 +12017,32 @@
     </row>
     <row r="9" spans="5:17">
       <c r="E9" s="5" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H9" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="I9" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="J9" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="K9" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>223</v>
@@ -11997,32 +12056,32 @@
     </row>
     <row r="10" spans="5:17">
       <c r="E10" s="5" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F10" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G10" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H10" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="I10" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="J10" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="K10" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="N10" t="s">
         <v>223</v>
@@ -12036,32 +12095,32 @@
     </row>
     <row r="11" spans="5:17">
       <c r="E11" s="5" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F11" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G11" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="H11" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="I11" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="J11" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="K11" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="N11" t="s">
         <v>223</v>
@@ -12075,26 +12134,26 @@
     </row>
     <row r="12" spans="5:17">
       <c r="E12" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="F12" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G12" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H12" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="I12" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="L12" t="s">
         <v>73</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>223</v>
@@ -12108,26 +12167,26 @@
     </row>
     <row r="13" spans="5:17">
       <c r="E13" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="F13" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G13" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H13" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="I13" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L13" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>223</v>
@@ -12141,26 +12200,26 @@
     </row>
     <row r="14" spans="5:17">
       <c r="E14" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F14" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G14" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="H14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="I14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="L14" t="s">
         <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>223</v>
@@ -12174,26 +12233,26 @@
     </row>
     <row r="15" spans="5:17">
       <c r="E15" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F15" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G15" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H15" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="I15" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="L15" t="s">
         <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>223</v>
@@ -12207,26 +12266,26 @@
     </row>
     <row r="16" spans="5:17">
       <c r="E16" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F16" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G16" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H16" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="I16" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>223</v>
@@ -12240,26 +12299,26 @@
     </row>
     <row r="17" spans="5:17">
       <c r="E17" s="5" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F17" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G17" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H17" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="I17" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>223</v>

--- a/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/workflow-service/src/main/resources/script/db/init-data/workflow_service/workflow_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D451A8-D2D4-8744-8D3A-86A0E726DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD8A396-57B6-0245-B498-F7955762F772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3906,18 +3906,18 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>roleIds</t>
-  </si>
-  <si>
-    <t>角色id集合</t>
+    <t>hwkf_def_interface_param-29</t>
+  </si>
+  <si>
+    <t>roleIdString</t>
+  </si>
+  <si>
+    <t>角色id集合字符串</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>role ids</t>
+    <t>role ids string</t>
     <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwkf_def_interface_param-29</t>
   </si>
 </sst>
 </file>
@@ -4263,11 +4263,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4278,7 +4279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4649,11 +4649,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -4666,17 +4666,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
@@ -4787,11 +4787,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="31" t="s">
@@ -6121,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -6467,22 +6467,22 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="34" t="s">
         <v>634</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="34" t="s">
         <v>635</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="34" t="s">
         <v>637</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="34" t="s">
         <v>638</v>
       </c>
       <c r="K14" t="s">
@@ -6503,7 +6503,7 @@
       <c r="P14" t="s">
         <v>639</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="34" t="s">
         <v>640</v>
       </c>
     </row>
@@ -6970,13 +6970,13 @@
         <f>接口定义!$E$14</f>
         <v>hwkf_def_interface-14</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="34" t="s">
         <v>641</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="34" t="s">
         <v>642</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="34" t="s">
         <v>643</v>
       </c>
       <c r="J30" s="8" t="s">
@@ -6997,23 +6997,23 @@
     </row>
     <row r="31" spans="1:15">
       <c r="E31" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F31" t="str">
         <f>接口定义!$E$14</f>
         <v>hwkf_def_interface-14</v>
       </c>
       <c r="G31" t="s">
-        <v>647</v>
-      </c>
-      <c r="H31" s="39" t="s">
         <v>648</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="H31" s="34" t="s">
         <v>649</v>
       </c>
+      <c r="I31" s="34" t="s">
+        <v>650</v>
+      </c>
       <c r="J31" s="8" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="K31" t="s">
         <v>137</v>

--- a/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/workflow-service/src/main/resources/script/db/init-data/workflow_service/workflow_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD8A396-57B6-0245-B498-F7955762F772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971901F-B4E7-B24C-998E-DCE6773283DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="684">
   <si>
     <r>
       <rPr>
@@ -2521,9 +2521,6 @@
     <t>流程变量</t>
   </si>
   <si>
-    <t>hwkf_def_variable</t>
-  </si>
-  <si>
     <t>*variable_id</t>
   </si>
   <si>
@@ -2872,9 +2869,6 @@
     <t>审批人规则</t>
   </si>
   <si>
-    <t>hwkf_def_approver_rule</t>
-  </si>
-  <si>
     <t>*rule_id</t>
   </si>
   <si>
@@ -2956,9 +2950,6 @@
     <t>审批人规则行</t>
   </si>
   <si>
-    <t>hwkf_def_approver_line</t>
-  </si>
-  <si>
     <t>*rule_line_id</t>
   </si>
   <si>
@@ -3227,9 +3218,6 @@
   </si>
   <si>
     <t>审批人规则行返回字段</t>
-  </si>
-  <si>
-    <t>hwkf_def_approver_return</t>
   </si>
   <si>
     <t>*return_id</t>
@@ -3868,10 +3856,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>iam-service</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon-iam.choerodon-role-member.listUsersUnderRoleByIds</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -3918,6 +3902,143 @@
   <si>
     <t>role ids string</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon-iam</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_variable-35</t>
+  </si>
+  <si>
+    <t>项目id</t>
+  </si>
+  <si>
+    <t>hwkf_def_variable</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_rule-15</t>
+  </si>
+  <si>
+    <t>APPROVER_RULE_006_PRE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前项目</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>current project</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_APPOINT_PROJECT_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定项目</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify project</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_return</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_line-36</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_return-41</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_approver_return-42</t>
+  </si>
+  <si>
+    <t>hwkf_def_approver_return-43</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
+    <t>realName</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>用户账号</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>user id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>login name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>real name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-68</t>
+  </si>
+  <si>
+    <t>hwkf_def_parameter_value-69</t>
+  </si>
+  <si>
+    <t>HWKF_DEF_APPROVER_RULE_LINE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id集</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role ids</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM.TENANT.ROLE.NO.ENCRYPT</t>
+  </si>
+  <si>
+    <t>查租户角色，不带加密</t>
   </si>
 </sst>
 </file>
@@ -4907,46 +5028,46 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H7" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" t="s">
         <v>539</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="H7" t="s">
-        <v>542</v>
-      </c>
-      <c r="I7" t="s">
-        <v>543</v>
-      </c>
       <c r="J7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q7" t="s">
         <v>124</v>
@@ -4955,7 +5076,7 @@
         <v>125</v>
       </c>
       <c r="S7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4966,43 +5087,43 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" t="s">
         <v>549</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" t="s">
         <v>550</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="J9" t="s">
         <v>551</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="H9" t="s">
-        <v>553</v>
-      </c>
-      <c r="I9" t="s">
-        <v>554</v>
-      </c>
-      <c r="J9" t="s">
-        <v>555</v>
-      </c>
       <c r="K9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M9" t="s">
         <v>60</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="O9" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="P9" t="s">
         <v>124</v>
@@ -5011,7 +5132,7 @@
         <v>125</v>
       </c>
       <c r="R9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5022,19 +5143,19 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
+        <v>555</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="G11" t="s">
         <v>559</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="G11" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5086,31 +5207,31 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H7" t="s">
         <v>564</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" t="s">
         <v>565</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" t="s">
         <v>566</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="H7" t="s">
-        <v>568</v>
-      </c>
-      <c r="I7" t="s">
-        <v>569</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" t="s">
-        <v>570</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -5122,10 +5243,10 @@
         <v>125</v>
       </c>
       <c r="O7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -5136,22 +5257,22 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>118</v>
@@ -5166,25 +5287,25 @@
         <v>121</v>
       </c>
       <c r="M9" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="O9" t="s">
         <v>123</v>
       </c>
       <c r="P9" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q9" t="s">
         <v>293</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>294</v>
       </c>
       <c r="R9" t="s">
         <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T9" t="s">
         <v>124</v>
@@ -5240,25 +5361,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="H7" t="s">
         <v>573</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" t="s">
         <v>574</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="H7" t="s">
-        <v>577</v>
-      </c>
-      <c r="I7" t="s">
-        <v>578</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>62</v>
@@ -5267,7 +5388,7 @@
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5278,28 +5399,28 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" t="s">
         <v>581</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="I9" t="s">
-        <v>585</v>
-      </c>
       <c r="J9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5349,37 +5470,37 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="H7" t="s">
         <v>586</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" t="s">
         <v>587</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="J7" t="s">
         <v>588</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="K7" t="s">
         <v>589</v>
-      </c>
-      <c r="H7" t="s">
-        <v>590</v>
-      </c>
-      <c r="I7" t="s">
-        <v>591</v>
-      </c>
-      <c r="J7" t="s">
-        <v>592</v>
-      </c>
-      <c r="K7" t="s">
-        <v>593</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N7" t="s">
         <v>124</v>
@@ -5388,10 +5509,10 @@
         <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -5402,22 +5523,22 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>118</v>
@@ -5432,25 +5553,25 @@
         <v>121</v>
       </c>
       <c r="M9" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="O9" t="s">
         <v>123</v>
       </c>
       <c r="P9" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q9" t="s">
         <v>293</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>294</v>
       </c>
       <c r="R9" t="s">
         <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T9" t="s">
         <v>124</v>
@@ -5512,43 +5633,43 @@
         <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H7" t="s">
         <v>596</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" t="s">
         <v>597</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="J7" t="s">
         <v>598</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="K7" t="s">
         <v>599</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>600</v>
       </c>
-      <c r="I7" t="s">
-        <v>601</v>
-      </c>
-      <c r="J7" t="s">
-        <v>602</v>
-      </c>
-      <c r="K7" t="s">
-        <v>603</v>
-      </c>
-      <c r="L7" t="s">
-        <v>604</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P7" t="s">
         <v>124</v>
@@ -5557,34 +5678,34 @@
         <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="E8" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="J8" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K8" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M8" t="str">
         <f>接口定义!$E$12</f>
@@ -5594,7 +5715,7 @@
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -5603,34 +5724,34 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="E9" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H9" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="I9" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J9" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K9" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L9" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M9" t="str">
         <f>接口定义!$E$13</f>
@@ -5640,7 +5761,7 @@
         <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -5649,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -5660,22 +5781,22 @@
         <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>118</v>
@@ -5690,25 +5811,25 @@
         <v>121</v>
       </c>
       <c r="M11" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="O11" t="s">
         <v>123</v>
       </c>
       <c r="P11" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q11" t="s">
         <v>293</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>294</v>
       </c>
       <c r="R11" t="s">
         <v>122</v>
       </c>
       <c r="S11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T11" t="s">
         <v>124</v>
@@ -5719,17 +5840,17 @@
     </row>
     <row r="12" spans="1:21">
       <c r="E12" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F12" t="str">
         <f>自定义审批动作!$E$8</f>
         <v>hwkf_def_customize_act-8</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H12" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I12" t="s">
         <v>156</v>
@@ -5744,7 +5865,7 @@
         <v>158</v>
       </c>
       <c r="M12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N12" t="str">
         <f>流程变量!$E$27</f>
@@ -5762,17 +5883,17 @@
     </row>
     <row r="13" spans="1:21">
       <c r="E13" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F13" t="str">
         <f>自定义审批动作!$E$8</f>
         <v>hwkf_def_customize_act-8</v>
       </c>
       <c r="G13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H13" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I13" t="s">
         <v>153</v>
@@ -5787,7 +5908,7 @@
         <v>130</v>
       </c>
       <c r="M13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N13" t="str">
         <f>流程变量!$E$26</f>
@@ -5805,17 +5926,17 @@
     </row>
     <row r="14" spans="1:21">
       <c r="E14" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F14" t="str">
         <f>自定义审批动作!$E$9</f>
         <v>hwkf_def_customize_act-9</v>
       </c>
       <c r="G14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H14" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I14" t="s">
         <v>156</v>
@@ -5830,7 +5951,7 @@
         <v>158</v>
       </c>
       <c r="M14" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N14" t="str">
         <f>流程变量!$E$27</f>
@@ -5848,17 +5969,17 @@
     </row>
     <row r="15" spans="1:21">
       <c r="E15" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F15" t="str">
         <f>自定义审批动作!$E$9</f>
         <v>hwkf_def_customize_act-9</v>
       </c>
       <c r="G15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I15" t="s">
         <v>153</v>
@@ -5873,7 +5994,7 @@
         <v>130</v>
       </c>
       <c r="M15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N15" t="str">
         <f>流程变量!$E$26</f>
@@ -5936,25 +6057,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G7" t="s">
         <v>620</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" t="s">
         <v>621</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="I7" t="s">
         <v>622</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="G7" t="s">
-        <v>624</v>
-      </c>
-      <c r="H7" t="s">
-        <v>625</v>
-      </c>
-      <c r="I7" t="s">
-        <v>626</v>
       </c>
       <c r="J7" t="s">
         <v>124</v>
@@ -5966,13 +6087,13 @@
         <v>60</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -5983,22 +6104,22 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>118</v>
@@ -6013,25 +6134,25 @@
         <v>121</v>
       </c>
       <c r="M9" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="O9" t="s">
         <v>123</v>
       </c>
       <c r="P9" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q9" t="s">
         <v>293</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>294</v>
       </c>
       <c r="R9" t="s">
         <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T9" t="s">
         <v>124</v>
@@ -6089,25 +6210,25 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H7" t="s">
         <v>629</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="H7" t="s">
-        <v>633</v>
-      </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6121,8 +6242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -6468,22 +6589,22 @@
     </row>
     <row r="14" spans="1:17">
       <c r="E14" s="34" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K14" t="s">
         <v>73</v>
@@ -6501,10 +6622,10 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6522,7 +6643,7 @@
         <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>116</v>
@@ -6964,20 +7085,20 @@
     </row>
     <row r="30" spans="1:15">
       <c r="E30" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F30" t="str">
         <f>接口定义!$E$14</f>
         <v>hwkf_def_interface-14</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>130</v>
@@ -6997,20 +7118,20 @@
     </row>
     <row r="31" spans="1:15">
       <c r="E31" s="5" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F31" t="str">
         <f>接口定义!$E$14</f>
         <v>hwkf_def_interface-14</v>
       </c>
       <c r="G31" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>158</v>
@@ -7039,13 +7160,14 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7234,16 +7356,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7282,43 +7410,43 @@
         <v>188</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>192</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>193</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>194</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>195</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>196</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" t="s">
         <v>198</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>199</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>200</v>
-      </c>
-      <c r="P7" t="s">
-        <v>201</v>
       </c>
       <c r="Q7" t="s">
         <v>60</v>
@@ -7330,49 +7458,49 @@
         <v>125</v>
       </c>
       <c r="T7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="U7" t="s">
         <v>202</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>203</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>204</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>205</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>206</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>207</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="E8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" t="s">
         <v>210</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>211</v>
-      </c>
-      <c r="I8" t="s">
-        <v>212</v>
       </c>
       <c r="J8" t="s">
         <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" t="s">
         <v>75</v>
@@ -7387,7 +7515,7 @@
         <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U8" t="s">
         <v>75</v>
@@ -7395,38 +7523,38 @@
     </row>
     <row r="9" spans="1:26">
       <c r="E9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" t="s">
         <v>216</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>217</v>
-      </c>
-      <c r="I9" t="s">
-        <v>218</v>
       </c>
       <c r="J9" t="s">
         <v>158</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="N9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O9" t="s">
         <v>219</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>220</v>
-      </c>
-      <c r="P9" t="s">
-        <v>221</v>
       </c>
       <c r="Q9" t="s">
         <v>73</v>
@@ -7438,7 +7566,7 @@
         <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U9" t="s">
         <v>75</v>
@@ -7446,26 +7574,26 @@
     </row>
     <row r="10" spans="1:26">
       <c r="E10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" t="s">
         <v>224</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>225</v>
-      </c>
-      <c r="I10" t="s">
-        <v>226</v>
       </c>
       <c r="J10" t="s">
         <v>158</v>
       </c>
       <c r="K10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L10" t="s">
         <v>75</v>
@@ -7480,7 +7608,7 @@
         <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U10" t="s">
         <v>75</v>
@@ -7488,26 +7616,26 @@
     </row>
     <row r="11" spans="1:26">
       <c r="E11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F11" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" t="s">
         <v>228</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>229</v>
-      </c>
-      <c r="I11" t="s">
-        <v>230</v>
       </c>
       <c r="J11" t="s">
         <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L11" t="s">
         <v>75</v>
@@ -7522,7 +7650,7 @@
         <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U11" t="s">
         <v>75</v>
@@ -7530,26 +7658,26 @@
     </row>
     <row r="12" spans="1:26">
       <c r="E12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" t="s">
         <v>232</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>233</v>
-      </c>
-      <c r="I12" t="s">
-        <v>234</v>
       </c>
       <c r="J12" t="s">
         <v>158</v>
       </c>
       <c r="K12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L12" t="s">
         <v>75</v>
@@ -7564,37 +7692,37 @@
         <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U12" t="s">
         <v>75</v>
       </c>
       <c r="Z12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="E13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" t="s">
         <v>238</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>239</v>
-      </c>
-      <c r="I13" t="s">
-        <v>240</v>
       </c>
       <c r="J13" t="s">
         <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L13" t="s">
         <v>75</v>
@@ -7609,37 +7737,37 @@
         <v>75</v>
       </c>
       <c r="T13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U13" t="s">
         <v>75</v>
       </c>
       <c r="Z13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="E14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F14" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G14" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" t="s">
         <v>243</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>244</v>
-      </c>
-      <c r="I14" t="s">
-        <v>245</v>
       </c>
       <c r="J14" t="s">
         <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L14" t="s">
         <v>75</v>
@@ -7654,7 +7782,7 @@
         <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U14" t="s">
         <v>75</v>
@@ -7662,7 +7790,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="E15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" t="str">
         <f>流程分类!$E$9</f>
@@ -7672,16 +7800,16 @@
         <v>156</v>
       </c>
       <c r="H15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" t="s">
         <v>247</v>
-      </c>
-      <c r="I15" t="s">
-        <v>248</v>
       </c>
       <c r="J15" t="s">
         <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
         <v>75</v>
@@ -7696,7 +7824,7 @@
         <v>75</v>
       </c>
       <c r="T15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U15" t="s">
         <v>75</v>
@@ -7704,32 +7832,32 @@
     </row>
     <row r="16" spans="1:26">
       <c r="E16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F16" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" t="s">
         <v>250</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>251</v>
-      </c>
-      <c r="I16" t="s">
-        <v>252</v>
       </c>
       <c r="J16" t="s">
         <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L16" t="s">
         <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q16" t="s">
         <v>73</v>
@@ -7741,7 +7869,7 @@
         <v>75</v>
       </c>
       <c r="T16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U16" t="s">
         <v>75</v>
@@ -7749,32 +7877,32 @@
     </row>
     <row r="17" spans="5:26">
       <c r="E17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" t="s">
         <v>255</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>256</v>
-      </c>
-      <c r="I17" t="s">
-        <v>257</v>
       </c>
       <c r="J17" t="s">
         <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s">
         <v>75</v>
       </c>
       <c r="N17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q17" t="s">
         <v>73</v>
@@ -7786,7 +7914,7 @@
         <v>75</v>
       </c>
       <c r="T17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U17" t="s">
         <v>75</v>
@@ -7794,32 +7922,32 @@
     </row>
     <row r="18" spans="5:26">
       <c r="E18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" t="s">
         <v>259</v>
       </c>
-      <c r="H18" t="s">
-        <v>260</v>
-      </c>
       <c r="I18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J18" t="s">
         <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s">
         <v>75</v>
       </c>
       <c r="N18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q18" t="s">
         <v>73</v>
@@ -7831,7 +7959,7 @@
         <v>75</v>
       </c>
       <c r="T18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U18" t="s">
         <v>75</v>
@@ -7839,32 +7967,32 @@
     </row>
     <row r="19" spans="5:26">
       <c r="E19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F19" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" t="s">
         <v>262</v>
       </c>
-      <c r="H19" t="s">
-        <v>263</v>
-      </c>
       <c r="I19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J19" t="s">
         <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
         <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q19" t="s">
         <v>73</v>
@@ -7876,7 +8004,7 @@
         <v>75</v>
       </c>
       <c r="T19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U19" t="s">
         <v>75</v>
@@ -7884,26 +8012,26 @@
     </row>
     <row r="20" spans="5:26">
       <c r="E20" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" t="s">
         <v>232</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>233</v>
-      </c>
-      <c r="I20" t="s">
-        <v>234</v>
       </c>
       <c r="J20" t="s">
         <v>158</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s">
         <v>75</v>
@@ -7918,49 +8046,49 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U20" t="s">
         <v>75</v>
       </c>
       <c r="Z20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="5:26">
       <c r="E21" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F21" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" t="s">
         <v>216</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>217</v>
-      </c>
-      <c r="I21" t="s">
-        <v>218</v>
       </c>
       <c r="J21" t="s">
         <v>158</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
       </c>
       <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
         <v>219</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>220</v>
-      </c>
-      <c r="P21" t="s">
-        <v>221</v>
       </c>
       <c r="Q21" t="s">
         <v>73</v>
@@ -7972,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U21" t="s">
         <v>75</v>
@@ -7980,26 +8108,26 @@
     </row>
     <row r="22" spans="5:26">
       <c r="E22" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F22" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H22" t="s">
         <v>228</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>229</v>
-      </c>
-      <c r="I22" t="s">
-        <v>230</v>
       </c>
       <c r="J22" t="s">
         <v>130</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
         <v>75</v>
@@ -8014,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U22" t="s">
         <v>75</v>
@@ -8022,32 +8150,32 @@
     </row>
     <row r="23" spans="5:26">
       <c r="E23" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F23" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23" t="s">
         <v>250</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>251</v>
-      </c>
-      <c r="I23" t="s">
-        <v>252</v>
       </c>
       <c r="J23" t="s">
         <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
         <v>75</v>
       </c>
       <c r="N23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q23" t="s">
         <v>73</v>
@@ -8059,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U23" t="s">
         <v>75</v>
@@ -8067,26 +8195,26 @@
     </row>
     <row r="24" spans="5:26">
       <c r="E24" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" t="s">
         <v>243</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>244</v>
-      </c>
-      <c r="I24" t="s">
-        <v>245</v>
       </c>
       <c r="J24" t="s">
         <v>158</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
         <v>75</v>
@@ -8101,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U24" t="s">
         <v>75</v>
@@ -8109,26 +8237,26 @@
     </row>
     <row r="25" spans="5:26">
       <c r="E25" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F25" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" t="s">
         <v>238</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>239</v>
-      </c>
-      <c r="I25" t="s">
-        <v>240</v>
       </c>
       <c r="J25" t="s">
         <v>130</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
         <v>75</v>
@@ -8143,37 +8271,37 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U25" t="s">
         <v>75</v>
       </c>
       <c r="Z25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="5:26">
       <c r="E26" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F26" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" t="s">
         <v>210</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>211</v>
-      </c>
-      <c r="I26" t="s">
-        <v>212</v>
       </c>
       <c r="J26" t="s">
         <v>130</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
         <v>75</v>
@@ -8188,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U26" t="s">
         <v>75</v>
@@ -8196,7 +8324,7 @@
     </row>
     <row r="27" spans="5:26">
       <c r="E27" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F27" t="str">
         <f>流程分类!$E$10</f>
@@ -8206,16 +8334,16 @@
         <v>156</v>
       </c>
       <c r="H27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I27" t="s">
         <v>247</v>
-      </c>
-      <c r="I27" t="s">
-        <v>248</v>
       </c>
       <c r="J27" t="s">
         <v>158</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
         <v>75</v>
@@ -8230,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U27" t="s">
         <v>75</v>
@@ -8238,32 +8366,32 @@
     </row>
     <row r="28" spans="5:26">
       <c r="E28" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F28" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G28" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="H28" t="s">
-        <v>263</v>
-      </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
         <v>158</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
         <v>75</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q28" t="s">
         <v>73</v>
@@ -8275,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U28" t="s">
         <v>75</v>
@@ -8283,32 +8411,32 @@
     </row>
     <row r="29" spans="5:26">
       <c r="E29" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F29" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G29" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" t="s">
         <v>255</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>256</v>
-      </c>
-      <c r="I29" t="s">
-        <v>257</v>
       </c>
       <c r="J29" t="s">
         <v>158</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s">
         <v>75</v>
       </c>
       <c r="N29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q29" t="s">
         <v>73</v>
@@ -8320,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U29" t="s">
         <v>75</v>
@@ -8328,32 +8456,32 @@
     </row>
     <row r="30" spans="5:26">
       <c r="E30" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F30" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G30" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" t="s">
         <v>259</v>
       </c>
-      <c r="H30" t="s">
-        <v>260</v>
-      </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
         <v>158</v>
       </c>
       <c r="K30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s">
         <v>75</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q30" t="s">
         <v>73</v>
@@ -8365,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U30" t="s">
         <v>75</v>
@@ -8373,26 +8501,26 @@
     </row>
     <row r="31" spans="5:26">
       <c r="E31" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F31" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G31" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" t="s">
         <v>224</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>225</v>
-      </c>
-      <c r="I31" t="s">
-        <v>226</v>
       </c>
       <c r="J31" t="s">
         <v>158</v>
       </c>
       <c r="K31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s">
         <v>75</v>
@@ -8407,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U31" t="s">
         <v>75</v>
@@ -8415,32 +8543,32 @@
     </row>
     <row r="32" spans="5:26">
       <c r="E32" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F32" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G32" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" t="s">
         <v>277</v>
       </c>
-      <c r="H32" t="s">
-        <v>278</v>
-      </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
         <v>158</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
         <v>73</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q32" t="s">
         <v>73</v>
@@ -8452,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U32" t="s">
         <v>75</v>
@@ -8460,32 +8588,32 @@
     </row>
     <row r="33" spans="1:21">
       <c r="E33" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F33" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="H33" t="s">
-        <v>282</v>
-      </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
         <v>158</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q33" t="s">
         <v>73</v>
@@ -8497,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U33" t="s">
         <v>75</v>
@@ -8505,32 +8633,32 @@
     </row>
     <row r="34" spans="1:21">
       <c r="E34" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F34" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G34" t="s">
+        <v>283</v>
+      </c>
+      <c r="H34" t="s">
         <v>284</v>
       </c>
-      <c r="H34" t="s">
-        <v>285</v>
-      </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J34" t="s">
         <v>158</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
         <v>73</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q34" t="s">
         <v>73</v>
@@ -8542,74 +8670,119 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
-      <c r="A36" t="s">
+    <row r="35" spans="1:21">
+      <c r="E35" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F35" t="str">
+        <f>流程分类!$E$10</f>
+        <v>hwkf_def_type-10</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="J35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>73</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="U35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" t="s">
         <v>290</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J36" t="s">
-        <v>119</v>
-      </c>
-      <c r="K36" t="s">
-        <v>120</v>
-      </c>
-      <c r="L36" t="s">
-        <v>121</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="N37" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O37" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" t="s">
         <v>292</v>
       </c>
-      <c r="O36" t="s">
-        <v>123</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="Q37" t="s">
         <v>293</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R37" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" t="s">
         <v>294</v>
       </c>
-      <c r="R36" t="s">
-        <v>122</v>
-      </c>
-      <c r="S36" t="s">
-        <v>295</v>
-      </c>
-      <c r="T36" t="s">
+      <c r="T37" t="s">
         <v>124</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8662,40 +8835,40 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>299</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>300</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>301</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>302</v>
       </c>
-      <c r="K7" t="s">
-        <v>303</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M7" t="s">
         <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8706,21 +8879,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView topLeftCell="F38" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="L43" workbookViewId="0">
+      <selection activeCell="S80" sqref="S80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="29.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8734,7 +8920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:13">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8745,7 +8931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8753,25 +8939,25 @@
         <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" t="s">
         <v>307</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" t="s">
         <v>308</v>
-      </c>
-      <c r="H7" t="s">
-        <v>309</v>
-      </c>
-      <c r="I7" t="s">
-        <v>310</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -8783,25 +8969,25 @@
         <v>125</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" t="s">
         <v>312</v>
-      </c>
-      <c r="H8" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" t="s">
-        <v>314</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
@@ -8813,25 +8999,25 @@
         <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="E9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" t="s">
         <v>316</v>
-      </c>
-      <c r="H9" t="s">
-        <v>317</v>
-      </c>
-      <c r="I9" t="s">
-        <v>318</v>
       </c>
       <c r="J9" t="s">
         <v>73</v>
@@ -8843,25 +9029,25 @@
         <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="E10" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F10" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10" t="s">
         <v>320</v>
-      </c>
-      <c r="H10" t="s">
-        <v>321</v>
-      </c>
-      <c r="I10" t="s">
-        <v>322</v>
       </c>
       <c r="J10" t="s">
         <v>73</v>
@@ -8873,25 +9059,25 @@
         <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="E11" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F11" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>
@@ -8903,25 +9089,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="E12" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F12" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s">
         <v>73</v>
@@ -8933,25 +9119,25 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="E13" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F13" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J13" t="s">
         <v>73</v>
@@ -8963,25 +9149,25 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="E14" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F14" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I14" t="s">
         <v>330</v>
-      </c>
-      <c r="H14" t="s">
-        <v>331</v>
-      </c>
-      <c r="I14" t="s">
-        <v>332</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -8993,138 +9179,126 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="E15" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F15" t="str">
+        <f>流程分类!$E$10</f>
+        <v>hwkf_def_type-10</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>655</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="H17" t="s">
         <v>335</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="I17" t="s">
         <v>336</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="J17" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" t="s">
         <v>337</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L17" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M17" t="s">
         <v>339</v>
       </c>
-      <c r="J16" t="s">
-        <v>196</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="N17" t="s">
+        <v>299</v>
+      </c>
+      <c r="O17" t="s">
         <v>340</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" t="s">
+        <v>124</v>
+      </c>
+      <c r="S17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="E18" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="N16" t="s">
-        <v>300</v>
-      </c>
-      <c r="O16" t="s">
-        <v>343</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>60</v>
-      </c>
-      <c r="R16" t="s">
-        <v>124</v>
-      </c>
-      <c r="S16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="5:19">
-      <c r="E17" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F17" t="str">
-        <f>审批人规则!$E$8</f>
-        <v>hwkf_def_approver_rule-8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>346</v>
-      </c>
-      <c r="H17" t="s">
-        <v>347</v>
-      </c>
-      <c r="I17" t="s">
-        <v>348</v>
-      </c>
-      <c r="J17" t="s">
-        <v>349</v>
-      </c>
-      <c r="K17" t="s">
-        <v>350</v>
-      </c>
-      <c r="M17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N17" t="s">
-        <v>352</v>
-      </c>
-      <c r="O17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R17" t="s">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="5:19">
-      <c r="E18" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="F18" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G18" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H18" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="I18" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="J18" t="s">
+        <v>346</v>
+      </c>
+      <c r="K18" t="s">
+        <v>347</v>
+      </c>
+      <c r="M18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N18" t="s">
         <v>349</v>
-      </c>
-      <c r="K18" t="s">
-        <v>357</v>
-      </c>
-      <c r="M18" t="s">
-        <v>358</v>
-      </c>
-      <c r="N18" t="s">
-        <v>359</v>
       </c>
       <c r="O18" t="s">
         <v>73</v>
@@ -9139,34 +9313,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="5:19">
+    <row r="19" spans="1:19">
       <c r="E19" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F19" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G19" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H19" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="I19" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="J19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M19" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="N19" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="O19" t="s">
         <v>73</v>
@@ -9181,34 +9355,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="5:19">
+    <row r="20" spans="1:19">
       <c r="E20" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F20" t="str">
         <f>审批人规则!$E$8</f>
         <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G20" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H20" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I20" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="J20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K20" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M20" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="N20" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="O20" t="s">
         <v>73</v>
@@ -9223,34 +9397,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="5:19">
+    <row r="21" spans="1:19">
       <c r="E21" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F21" t="str">
-        <f>审批人规则!$E$9</f>
-        <v>hwkf_def_approver_rule-9</v>
+        <f>审批人规则!$E$8</f>
+        <v>hwkf_def_approver_rule-8</v>
       </c>
       <c r="G21" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H21" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I21" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J21" t="s">
+        <v>346</v>
+      </c>
+      <c r="K21" t="s">
+        <v>368</v>
+      </c>
+      <c r="M21" t="s">
+        <v>369</v>
+      </c>
+      <c r="N21" t="s">
         <v>349</v>
-      </c>
-      <c r="K21" t="s">
-        <v>377</v>
-      </c>
-      <c r="M21" t="s">
-        <v>378</v>
-      </c>
-      <c r="N21" t="s">
-        <v>359</v>
       </c>
       <c r="O21" t="s">
         <v>73</v>
@@ -9265,34 +9439,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="5:19">
+    <row r="22" spans="1:19">
       <c r="E22" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F22" t="str">
         <f>审批人规则!$E$9</f>
         <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G22" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H22" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="I22" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="J22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K22" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M22" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N22" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="O22" t="s">
         <v>73</v>
@@ -9307,34 +9481,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="5:19">
+    <row r="23" spans="1:19">
       <c r="E23" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F23" t="str">
-        <f>审批人规则!$E$10</f>
-        <v>hwkf_def_approver_rule-10</v>
+        <f>审批人规则!$E$9</f>
+        <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G23" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H23" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I23" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="J23" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K23" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M23" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="N23" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="O23" t="s">
         <v>73</v>
@@ -9349,34 +9523,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="5:19">
+    <row r="24" spans="1:19">
       <c r="E24" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F24" t="str">
         <f>审批人规则!$E$10</f>
         <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G24" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H24" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I24" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="J24" t="s">
+        <v>346</v>
+      </c>
+      <c r="K24" t="s">
+        <v>386</v>
+      </c>
+      <c r="M24" t="s">
+        <v>387</v>
+      </c>
+      <c r="N24" t="s">
         <v>349</v>
-      </c>
-      <c r="K24" t="s">
-        <v>389</v>
-      </c>
-      <c r="M24" t="s">
-        <v>390</v>
-      </c>
-      <c r="N24" t="s">
-        <v>352</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -9391,34 +9565,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="5:19">
+    <row r="25" spans="1:19">
       <c r="E25" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F25" t="str">
         <f>审批人规则!$E$10</f>
         <v>hwkf_def_approver_rule-10</v>
       </c>
       <c r="G25" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I25" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="J25" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" t="s">
+        <v>386</v>
+      </c>
+      <c r="M25" t="s">
+        <v>387</v>
+      </c>
+      <c r="N25" t="s">
         <v>349</v>
-      </c>
-      <c r="K25" t="s">
-        <v>389</v>
-      </c>
-      <c r="M25" t="s">
-        <v>390</v>
-      </c>
-      <c r="N25" t="s">
-        <v>352</v>
       </c>
       <c r="O25" t="s">
         <v>73</v>
@@ -9433,34 +9607,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="5:19">
+    <row r="26" spans="1:19">
       <c r="E26" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F26" t="str">
-        <f>审批人规则!$E$12</f>
-        <v>hwkf_def_approver_rule-12</v>
-      </c>
-      <c r="G26" s="5" t="s">
+        <f>审批人规则!$E$10</f>
+        <v>hwkf_def_approver_rule-10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" t="s">
+        <v>394</v>
+      </c>
+      <c r="I26" t="s">
+        <v>395</v>
+      </c>
+      <c r="J26" t="s">
         <v>346</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="I26" t="s">
-        <v>348</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>386</v>
+      </c>
+      <c r="M26" t="s">
+        <v>387</v>
+      </c>
+      <c r="N26" t="s">
         <v>349</v>
-      </c>
-      <c r="K26" t="s">
-        <v>350</v>
-      </c>
-      <c r="M26" t="s">
-        <v>351</v>
-      </c>
-      <c r="N26" t="s">
-        <v>352</v>
       </c>
       <c r="O26" t="s">
         <v>73</v>
@@ -9468,41 +9642,41 @@
       <c r="Q26" t="s">
         <v>73</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:19">
+      <c r="R26" t="s">
+        <v>75</v>
+      </c>
+      <c r="S26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="E27" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F27" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
+      </c>
+      <c r="I27" t="s">
+        <v>345</v>
       </c>
       <c r="J27" t="s">
+        <v>346</v>
+      </c>
+      <c r="K27" t="s">
+        <v>347</v>
+      </c>
+      <c r="M27" t="s">
+        <v>348</v>
+      </c>
+      <c r="N27" t="s">
         <v>349</v>
-      </c>
-      <c r="K27" t="s">
-        <v>357</v>
-      </c>
-      <c r="M27" t="s">
-        <v>358</v>
-      </c>
-      <c r="N27" t="s">
-        <v>359</v>
       </c>
       <c r="O27" t="s">
         <v>73</v>
@@ -9517,34 +9691,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:19">
+    <row r="28" spans="1:19">
       <c r="E28" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F28" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="J28" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K28" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M28" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="N28" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="O28" t="s">
         <v>73</v>
@@ -9559,34 +9733,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:19">
+    <row r="29" spans="1:19">
       <c r="E29" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F29" t="str">
         <f>审批人规则!$E$12</f>
         <v>hwkf_def_approver_rule-12</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="J29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K29" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M29" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="N29" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="O29" t="s">
         <v>73</v>
@@ -9601,34 +9775,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:19">
+    <row r="30" spans="1:19">
       <c r="E30" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F30" t="str">
-        <f>审批人规则!$E$13</f>
-        <v>hwkf_def_approver_rule-13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>374</v>
+        <f>审批人规则!$E$12</f>
+        <v>hwkf_def_approver_rule-12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I30" t="s">
-        <v>376</v>
+        <v>366</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="J30" t="s">
+        <v>346</v>
+      </c>
+      <c r="K30" t="s">
+        <v>368</v>
+      </c>
+      <c r="M30" t="s">
+        <v>369</v>
+      </c>
+      <c r="N30" t="s">
         <v>349</v>
-      </c>
-      <c r="K30" t="s">
-        <v>377</v>
-      </c>
-      <c r="M30" t="s">
-        <v>378</v>
-      </c>
-      <c r="N30" t="s">
-        <v>359</v>
       </c>
       <c r="O30" t="s">
         <v>73</v>
@@ -9643,34 +9817,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:19">
+    <row r="31" spans="1:19">
       <c r="E31" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F31" t="str">
         <f>审批人规则!$E$13</f>
         <v>hwkf_def_approver_rule-13</v>
       </c>
       <c r="G31" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="I31" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="J31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K31" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M31" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N31" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="O31" t="s">
         <v>73</v>
@@ -9685,34 +9859,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:19">
+    <row r="32" spans="1:19">
       <c r="E32" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F32" t="str">
-        <f>审批人规则!$E$11</f>
-        <v>hwkf_def_approver_rule-11</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>386</v>
+        <f>审批人规则!$E$13</f>
+        <v>hwkf_def_approver_rule-13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>377</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>406</v>
+        <v>378</v>
+      </c>
+      <c r="I32" t="s">
+        <v>379</v>
       </c>
       <c r="J32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K32" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M32" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="N32" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="O32" t="s">
         <v>73</v>
@@ -9729,32 +9903,32 @@
     </row>
     <row r="33" spans="1:21">
       <c r="E33" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F33" t="str">
         <f>审批人规则!$E$11</f>
         <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J33" t="s">
+        <v>346</v>
+      </c>
+      <c r="K33" t="s">
+        <v>386</v>
+      </c>
+      <c r="M33" t="s">
+        <v>387</v>
+      </c>
+      <c r="N33" t="s">
         <v>349</v>
-      </c>
-      <c r="K33" t="s">
-        <v>389</v>
-      </c>
-      <c r="M33" t="s">
-        <v>390</v>
-      </c>
-      <c r="N33" t="s">
-        <v>352</v>
       </c>
       <c r="O33" t="s">
         <v>73</v>
@@ -9771,32 +9945,32 @@
     </row>
     <row r="34" spans="1:21">
       <c r="E34" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F34" t="str">
         <f>审批人规则!$E$11</f>
         <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="J34" t="s">
+        <v>346</v>
+      </c>
+      <c r="K34" t="s">
+        <v>386</v>
+      </c>
+      <c r="M34" t="s">
+        <v>387</v>
+      </c>
+      <c r="N34" t="s">
         <v>349</v>
-      </c>
-      <c r="K34" t="s">
-        <v>389</v>
-      </c>
-      <c r="M34" t="s">
-        <v>390</v>
-      </c>
-      <c r="N34" t="s">
-        <v>352</v>
       </c>
       <c r="O34" t="s">
         <v>73</v>
@@ -9813,32 +9987,32 @@
     </row>
     <row r="35" spans="1:21">
       <c r="E35" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F35" t="str">
-        <f>审批人规则!$E$14</f>
-        <v>hwkf_def_approver_rule-14</v>
+        <f>审批人规则!$E$11</f>
+        <v>hwkf_def_approver_rule-11</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="I35" t="s">
-        <v>413</v>
+        <v>394</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="J35" t="s">
+        <v>346</v>
+      </c>
+      <c r="K35" t="s">
+        <v>386</v>
+      </c>
+      <c r="M35" t="s">
+        <v>387</v>
+      </c>
+      <c r="N35" t="s">
         <v>349</v>
-      </c>
-      <c r="K35" t="s">
-        <v>414</v>
-      </c>
-      <c r="M35" t="s">
-        <v>415</v>
-      </c>
-      <c r="N35" t="s">
-        <v>416</v>
       </c>
       <c r="O35" t="s">
         <v>73</v>
@@ -9855,100 +10029,126 @@
     </row>
     <row r="36" spans="1:21">
       <c r="E36" s="5" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F36" t="str">
         <f>审批人规则!$E$14</f>
         <v>hwkf_def_approver_rule-14</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I36" t="s">
+        <v>410</v>
+      </c>
+      <c r="J36" t="s">
+        <v>346</v>
+      </c>
+      <c r="K36" t="s">
+        <v>411</v>
+      </c>
+      <c r="M36" t="s">
+        <v>412</v>
+      </c>
+      <c r="N36" t="s">
+        <v>413</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>73</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="E37" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F37" t="str">
+        <f>审批人规则!$E$14</f>
+        <v>hwkf_def_approver_rule-14</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I37" t="s">
+        <v>417</v>
+      </c>
+      <c r="J37" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" t="s">
         <v>418</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="M37" t="s">
         <v>419</v>
       </c>
-      <c r="I36" t="s">
+      <c r="N37" t="s">
         <v>420</v>
       </c>
-      <c r="J36" t="s">
-        <v>349</v>
-      </c>
-      <c r="K36" t="s">
-        <v>421</v>
-      </c>
-      <c r="M36" t="s">
-        <v>422</v>
-      </c>
-      <c r="N36" t="s">
-        <v>423</v>
-      </c>
-      <c r="O36" s="6">
+      <c r="O37" s="6">
         <v>1</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q37" s="6">
         <v>1</v>
       </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H38" t="s">
-        <v>429</v>
-      </c>
-      <c r="I38" t="s">
-        <v>430</v>
-      </c>
-      <c r="J38" t="s">
-        <v>431</v>
-      </c>
-      <c r="K38" t="s">
-        <v>432</v>
-      </c>
-      <c r="L38" t="s">
-        <v>433</v>
-      </c>
-      <c r="M38" t="s">
-        <v>434</v>
-      </c>
-      <c r="N38" t="s">
-        <v>435</v>
-      </c>
-      <c r="O38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>124</v>
-      </c>
-      <c r="R38" t="s">
-        <v>125</v>
+      <c r="E38" s="34" t="s">
+        <v>663</v>
+      </c>
+      <c r="F38" t="str">
+        <f>审批人规则!$E$15</f>
+        <v>hwkf_def_approver_rule-15</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>660</v>
+      </c>
+      <c r="L38" t="str">
+        <f>接口定义!$E$14</f>
+        <v>hwkf_def_interface-14</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="O38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -9959,398 +10159,379 @@
         <v>51</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H40" t="s">
+        <v>425</v>
+      </c>
+      <c r="I40" t="s">
+        <v>426</v>
+      </c>
+      <c r="J40" t="s">
+        <v>427</v>
+      </c>
+      <c r="K40" t="s">
+        <v>428</v>
+      </c>
+      <c r="L40" t="s">
+        <v>429</v>
+      </c>
+      <c r="M40" t="s">
+        <v>430</v>
+      </c>
+      <c r="N40" t="s">
+        <v>431</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>124</v>
+      </c>
+      <c r="R40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="34" t="s">
+        <v>664</v>
+      </c>
+      <c r="F41" t="str">
+        <f>审批人规则!$E$38</f>
+        <v>hwkf_def_approver_line-36</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>670</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="J41">
+        <v>150</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="C42" s="5"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="34" t="s">
+        <v>665</v>
+      </c>
+      <c r="F42" t="str">
+        <f>审批人规则!$E$38</f>
+        <v>hwkf_def_approver_line-36</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>668</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>674</v>
+      </c>
+      <c r="J42">
+        <v>150</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="C43" s="5"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="F43" t="str">
+        <f>审批人规则!$E$38</f>
+        <v>hwkf_def_approver_line-36</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>672</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>675</v>
+      </c>
+      <c r="J43">
+        <v>150</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" t="s">
+        <v>120</v>
+      </c>
+      <c r="L45" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" t="s">
+        <v>290</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>293</v>
+      </c>
+      <c r="R45" t="s">
+        <v>122</v>
+      </c>
+      <c r="S45" t="s">
+        <v>294</v>
+      </c>
+      <c r="T45" t="s">
+        <v>124</v>
+      </c>
+      <c r="U45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="E46" t="s">
+        <v>434</v>
+      </c>
+      <c r="F46" t="str">
+        <f>审批人规则!$E$22</f>
+        <v>hwkf_def_approver_line-20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" t="s">
+        <v>435</v>
+      </c>
+      <c r="I46" t="s">
+        <v>436</v>
+      </c>
+      <c r="J46" t="s">
         <v>437</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" t="s">
-        <v>119</v>
-      </c>
-      <c r="K40" t="s">
-        <v>120</v>
-      </c>
-      <c r="L40" t="s">
-        <v>121</v>
-      </c>
-      <c r="M40" t="s">
-        <v>291</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O40" t="s">
-        <v>123</v>
-      </c>
-      <c r="P40" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>294</v>
-      </c>
-      <c r="R40" t="s">
-        <v>122</v>
-      </c>
-      <c r="S40" t="s">
-        <v>295</v>
-      </c>
-      <c r="T40" t="s">
-        <v>124</v>
-      </c>
-      <c r="U40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="E41" t="s">
+      <c r="K46" t="s">
+        <v>436</v>
+      </c>
+      <c r="L46" t="s">
+        <v>158</v>
+      </c>
+      <c r="M46" t="s">
         <v>438</v>
       </c>
-      <c r="F41" t="str">
-        <f>审批人规则!$E$21</f>
-        <v>hwkf_def_approver_line-20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>279</v>
-      </c>
-      <c r="H41" t="s">
-        <v>439</v>
-      </c>
-      <c r="I41" t="s">
-        <v>440</v>
-      </c>
-      <c r="J41" t="s">
-        <v>441</v>
-      </c>
-      <c r="K41" t="s">
-        <v>440</v>
-      </c>
-      <c r="L41" t="s">
-        <v>158</v>
-      </c>
-      <c r="M41" t="s">
-        <v>442</v>
-      </c>
-      <c r="N41" t="str">
+      <c r="N46" t="str">
         <f>流程变量!$E$10</f>
         <v>hwkf_def_variable-10</v>
       </c>
-      <c r="S41" t="s">
-        <v>75</v>
-      </c>
-      <c r="T41" t="s">
-        <v>75</v>
-      </c>
-      <c r="U41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="E42" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F42" t="str">
-        <f>审批人规则!$E$21</f>
+      <c r="S46" t="s">
+        <v>75</v>
+      </c>
+      <c r="T46" t="s">
+        <v>75</v>
+      </c>
+      <c r="U46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="E47" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F47" t="str">
+        <f>审批人规则!$E$22</f>
         <v>hwkf_def_approver_line-20</v>
       </c>
-      <c r="G42" t="s">
-        <v>279</v>
-      </c>
-      <c r="H42" t="s">
-        <v>439</v>
-      </c>
-      <c r="I42" t="s">
-        <v>212</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="G47" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" t="s">
+        <v>435</v>
+      </c>
+      <c r="I47" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" t="s">
         <v>128</v>
       </c>
-      <c r="K42" t="s">
-        <v>212</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="K47" t="s">
+        <v>211</v>
+      </c>
+      <c r="L47" t="s">
         <v>130</v>
       </c>
-      <c r="M42" t="s">
-        <v>442</v>
-      </c>
-      <c r="N42" t="str">
+      <c r="M47" t="s">
+        <v>438</v>
+      </c>
+      <c r="N47" t="str">
         <f>流程变量!$E$8</f>
         <v>hwkf_def_variable-8</v>
       </c>
-      <c r="S42" t="s">
-        <v>75</v>
-      </c>
-      <c r="T42" t="s">
-        <v>75</v>
-      </c>
-      <c r="U42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="E43" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F43" t="str">
-        <f>审批人规则!$E$22</f>
+      <c r="S47" t="s">
+        <v>75</v>
+      </c>
+      <c r="T47" t="s">
+        <v>75</v>
+      </c>
+      <c r="U47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="E48" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F48" t="str">
+        <f>审批人规则!$E$23</f>
         <v>hwkf_def_approver_line-21</v>
       </c>
-      <c r="G43" t="s">
-        <v>279</v>
-      </c>
-      <c r="H43" t="s">
-        <v>439</v>
-      </c>
-      <c r="I43" t="s">
-        <v>440</v>
-      </c>
-      <c r="J43" t="s">
-        <v>441</v>
-      </c>
-      <c r="K43" t="s">
-        <v>440</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="G48" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" t="s">
+        <v>435</v>
+      </c>
+      <c r="I48" t="s">
+        <v>436</v>
+      </c>
+      <c r="J48" t="s">
+        <v>437</v>
+      </c>
+      <c r="K48" t="s">
+        <v>436</v>
+      </c>
+      <c r="L48" t="s">
         <v>158</v>
       </c>
-      <c r="M43" t="s">
-        <v>442</v>
-      </c>
-      <c r="N43" t="str">
+      <c r="M48" t="s">
+        <v>438</v>
+      </c>
+      <c r="N48" t="str">
         <f>流程变量!$E$10</f>
         <v>hwkf_def_variable-10</v>
       </c>
-      <c r="S43" t="s">
-        <v>75</v>
-      </c>
-      <c r="T43" t="s">
-        <v>75</v>
-      </c>
-      <c r="U43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="E44" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F44" t="str">
-        <f>审批人规则!$E$22</f>
-        <v>hwkf_def_approver_line-21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>279</v>
-      </c>
-      <c r="H44" t="s">
-        <v>439</v>
-      </c>
-      <c r="I44" t="s">
-        <v>212</v>
-      </c>
-      <c r="J44" t="s">
-        <v>128</v>
-      </c>
-      <c r="K44" t="s">
-        <v>212</v>
-      </c>
-      <c r="L44" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" t="s">
-        <v>442</v>
-      </c>
-      <c r="N44" t="str">
-        <f>流程变量!$E$8</f>
-        <v>hwkf_def_variable-8</v>
-      </c>
-      <c r="S44" t="s">
-        <v>75</v>
-      </c>
-      <c r="T44" t="s">
-        <v>75</v>
-      </c>
-      <c r="U44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="E45" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="F45" t="str">
-        <f>审批人规则!$E$20</f>
-        <v>hwkf_def_approver_line-19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>279</v>
-      </c>
-      <c r="H45" t="s">
-        <v>439</v>
-      </c>
-      <c r="I45" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45" t="s">
-        <v>212</v>
-      </c>
-      <c r="L45" t="s">
-        <v>130</v>
-      </c>
-      <c r="M45" t="s">
-        <v>442</v>
-      </c>
-      <c r="N45" t="str">
-        <f>流程变量!$E$8</f>
-        <v>hwkf_def_variable-8</v>
-      </c>
-      <c r="S45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T45" t="s">
-        <v>75</v>
-      </c>
-      <c r="U45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="E46" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F46" t="str">
-        <f>审批人规则!$E$20</f>
-        <v>hwkf_def_approver_line-19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>279</v>
-      </c>
-      <c r="H46" t="s">
-        <v>439</v>
-      </c>
-      <c r="I46" t="s">
-        <v>448</v>
-      </c>
-      <c r="J46" t="s">
-        <v>449</v>
-      </c>
-      <c r="K46" t="s">
-        <v>450</v>
-      </c>
-      <c r="L46" t="s">
-        <v>158</v>
-      </c>
-      <c r="M46" t="s">
-        <v>349</v>
-      </c>
-      <c r="P46" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>365</v>
-      </c>
-      <c r="S46" t="s">
-        <v>73</v>
-      </c>
-      <c r="T46" t="s">
-        <v>75</v>
-      </c>
-      <c r="U46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="E47" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="F47" t="str">
-        <f>审批人规则!$E$23</f>
-        <v>hwkf_def_approver_line-22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>279</v>
-      </c>
-      <c r="H47" t="s">
-        <v>439</v>
-      </c>
-      <c r="I47" t="s">
-        <v>440</v>
-      </c>
-      <c r="J47" t="s">
-        <v>441</v>
-      </c>
-      <c r="K47" t="s">
-        <v>440</v>
-      </c>
-      <c r="L47" t="s">
-        <v>158</v>
-      </c>
-      <c r="M47" t="s">
-        <v>442</v>
-      </c>
-      <c r="N47" t="str">
-        <f>流程变量!$E$10</f>
-        <v>hwkf_def_variable-10</v>
-      </c>
-      <c r="S47" t="s">
-        <v>75</v>
-      </c>
-      <c r="T47" t="s">
-        <v>75</v>
-      </c>
-      <c r="U47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="E48" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F48" t="str">
-        <f>审批人规则!$E$23</f>
-        <v>hwkf_def_approver_line-22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>279</v>
-      </c>
-      <c r="H48" t="s">
-        <v>439</v>
-      </c>
-      <c r="I48" t="s">
-        <v>453</v>
-      </c>
-      <c r="J48" t="s">
-        <v>454</v>
-      </c>
-      <c r="K48" t="s">
-        <v>455</v>
-      </c>
-      <c r="L48" t="s">
-        <v>130</v>
-      </c>
-      <c r="M48" t="s">
-        <v>253</v>
-      </c>
-      <c r="O48" t="s">
-        <v>75</v>
-      </c>
       <c r="S48" t="s">
         <v>75</v>
       </c>
@@ -10363,32 +10544,32 @@
     </row>
     <row r="49" spans="3:21">
       <c r="E49" s="5" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F49" t="str">
         <f>审批人规则!$E$23</f>
-        <v>hwkf_def_approver_line-22</v>
+        <v>hwkf_def_approver_line-21</v>
       </c>
       <c r="G49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H49" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J49" t="s">
         <v>128</v>
       </c>
       <c r="K49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s">
         <v>130</v>
       </c>
       <c r="M49" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N49" t="str">
         <f>流程变量!$E$8</f>
@@ -10406,725 +10587,725 @@
     </row>
     <row r="50" spans="3:21">
       <c r="E50" s="5" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F50" t="str">
+        <f>审批人规则!$E$21</f>
+        <v>hwkf_def_approver_line-19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>278</v>
+      </c>
+      <c r="H50" t="s">
+        <v>435</v>
+      </c>
+      <c r="I50" t="s">
+        <v>211</v>
+      </c>
+      <c r="J50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s">
+        <v>211</v>
+      </c>
+      <c r="L50" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" t="s">
+        <v>438</v>
+      </c>
+      <c r="N50" t="str">
+        <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
+      </c>
+      <c r="S50" t="s">
+        <v>75</v>
+      </c>
+      <c r="T50" t="s">
+        <v>75</v>
+      </c>
+      <c r="U50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21">
+      <c r="E51" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F51" t="str">
+        <f>审批人规则!$E$21</f>
+        <v>hwkf_def_approver_line-19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>278</v>
+      </c>
+      <c r="H51" t="s">
+        <v>435</v>
+      </c>
+      <c r="I51" t="s">
+        <v>444</v>
+      </c>
+      <c r="J51" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" t="s">
+        <v>158</v>
+      </c>
+      <c r="M51" t="s">
+        <v>346</v>
+      </c>
+      <c r="P51" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>362</v>
+      </c>
+      <c r="S51" t="s">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s">
+        <v>75</v>
+      </c>
+      <c r="U51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21">
+      <c r="E52" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F52" t="str">
         <f>审批人规则!$E$24</f>
-        <v>hwkf_def_approver_line-23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>279</v>
-      </c>
-      <c r="H50" t="s">
-        <v>439</v>
-      </c>
-      <c r="I50" t="s">
-        <v>440</v>
-      </c>
-      <c r="J50" t="s">
-        <v>441</v>
-      </c>
-      <c r="K50" t="s">
-        <v>440</v>
-      </c>
-      <c r="L50" t="s">
+        <v>hwkf_def_approver_line-22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>278</v>
+      </c>
+      <c r="H52" t="s">
+        <v>435</v>
+      </c>
+      <c r="I52" t="s">
+        <v>436</v>
+      </c>
+      <c r="J52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K52" t="s">
+        <v>436</v>
+      </c>
+      <c r="L52" t="s">
         <v>158</v>
       </c>
-      <c r="M50" t="s">
-        <v>442</v>
-      </c>
-      <c r="N50" t="str">
+      <c r="M52" t="s">
+        <v>438</v>
+      </c>
+      <c r="N52" t="str">
         <f>流程变量!$E$10</f>
         <v>hwkf_def_variable-10</v>
       </c>
-      <c r="S50" t="s">
-        <v>75</v>
-      </c>
-      <c r="T50" t="s">
-        <v>75</v>
-      </c>
-      <c r="U50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="3:21">
-      <c r="E51" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="S52" t="s">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21">
+      <c r="E53" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F53" t="str">
         <f>审批人规则!$E$24</f>
-        <v>hwkf_def_approver_line-23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>279</v>
-      </c>
-      <c r="H51" t="s">
-        <v>439</v>
-      </c>
-      <c r="I51" t="s">
-        <v>453</v>
-      </c>
-      <c r="J51" t="s">
-        <v>454</v>
-      </c>
-      <c r="K51" t="s">
-        <v>455</v>
-      </c>
-      <c r="L51" t="s">
+        <v>hwkf_def_approver_line-22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>278</v>
+      </c>
+      <c r="H53" t="s">
+        <v>435</v>
+      </c>
+      <c r="I53" t="s">
+        <v>449</v>
+      </c>
+      <c r="J53" t="s">
+        <v>450</v>
+      </c>
+      <c r="K53" t="s">
+        <v>451</v>
+      </c>
+      <c r="L53" t="s">
         <v>130</v>
       </c>
-      <c r="M51" t="s">
-        <v>253</v>
-      </c>
-      <c r="O51" t="s">
-        <v>73</v>
-      </c>
-      <c r="S51" t="s">
-        <v>75</v>
-      </c>
-      <c r="T51" t="s">
-        <v>75</v>
-      </c>
-      <c r="U51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="3:21">
-      <c r="E52" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="F52" t="str">
+      <c r="M53" t="s">
+        <v>252</v>
+      </c>
+      <c r="O53" t="s">
+        <v>75</v>
+      </c>
+      <c r="S53" t="s">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21">
+      <c r="E54" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F54" t="str">
         <f>审批人规则!$E$24</f>
-        <v>hwkf_def_approver_line-23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>279</v>
-      </c>
-      <c r="H52" t="s">
-        <v>439</v>
-      </c>
-      <c r="I52" t="s">
-        <v>212</v>
-      </c>
-      <c r="J52" t="s">
+        <v>hwkf_def_approver_line-22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>278</v>
+      </c>
+      <c r="H54" t="s">
+        <v>435</v>
+      </c>
+      <c r="I54" t="s">
+        <v>211</v>
+      </c>
+      <c r="J54" t="s">
         <v>128</v>
       </c>
-      <c r="K52" t="s">
-        <v>212</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="K54" t="s">
+        <v>211</v>
+      </c>
+      <c r="L54" t="s">
         <v>130</v>
       </c>
-      <c r="M52" t="s">
-        <v>442</v>
-      </c>
-      <c r="N52" t="str">
+      <c r="M54" t="s">
+        <v>438</v>
+      </c>
+      <c r="N54" t="str">
         <f>流程变量!$E$8</f>
         <v>hwkf_def_variable-8</v>
       </c>
-      <c r="S52" t="s">
-        <v>75</v>
-      </c>
-      <c r="T52" t="s">
-        <v>75</v>
-      </c>
-      <c r="U52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21">
-      <c r="C53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="F53" t="str">
+      <c r="S54" t="s">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21">
+      <c r="E55" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F55" t="str">
         <f>审批人规则!$E$25</f>
-        <v>hwkf_def_approver_line-24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>279</v>
-      </c>
-      <c r="H53" t="s">
-        <v>439</v>
-      </c>
-      <c r="I53" t="s">
-        <v>440</v>
-      </c>
-      <c r="J53" t="s">
-        <v>441</v>
-      </c>
-      <c r="K53" t="s">
-        <v>440</v>
-      </c>
-      <c r="L53" t="s">
+        <v>hwkf_def_approver_line-23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>278</v>
+      </c>
+      <c r="H55" t="s">
+        <v>435</v>
+      </c>
+      <c r="I55" t="s">
+        <v>436</v>
+      </c>
+      <c r="J55" t="s">
+        <v>437</v>
+      </c>
+      <c r="K55" t="s">
+        <v>436</v>
+      </c>
+      <c r="L55" t="s">
         <v>158</v>
       </c>
-      <c r="M53" t="s">
-        <v>442</v>
-      </c>
-      <c r="N53" t="str">
+      <c r="M55" t="s">
+        <v>438</v>
+      </c>
+      <c r="N55" t="str">
         <f>流程变量!$E$10</f>
         <v>hwkf_def_variable-10</v>
       </c>
-      <c r="S53" t="s">
-        <v>75</v>
-      </c>
-      <c r="T53" t="s">
-        <v>75</v>
-      </c>
-      <c r="U53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="3:21">
-      <c r="E54" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F54" t="str">
+      <c r="S55" t="s">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21">
+      <c r="E56" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F56" t="str">
         <f>审批人规则!$E$25</f>
-        <v>hwkf_def_approver_line-24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>279</v>
-      </c>
-      <c r="H54" t="s">
-        <v>439</v>
-      </c>
-      <c r="I54" t="s">
-        <v>453</v>
-      </c>
-      <c r="J54" t="s">
-        <v>454</v>
-      </c>
-      <c r="K54" t="s">
+        <v>hwkf_def_approver_line-23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" t="s">
+        <v>435</v>
+      </c>
+      <c r="I56" t="s">
+        <v>449</v>
+      </c>
+      <c r="J56" t="s">
+        <v>450</v>
+      </c>
+      <c r="K56" t="s">
+        <v>451</v>
+      </c>
+      <c r="L56" t="s">
+        <v>130</v>
+      </c>
+      <c r="M56" t="s">
+        <v>252</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="S56" t="s">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21">
+      <c r="E57" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="L54" t="s">
+      <c r="F57" t="str">
+        <f>审批人规则!$E$25</f>
+        <v>hwkf_def_approver_line-23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>278</v>
+      </c>
+      <c r="H57" t="s">
+        <v>435</v>
+      </c>
+      <c r="I57" t="s">
+        <v>211</v>
+      </c>
+      <c r="J57" t="s">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s">
+        <v>211</v>
+      </c>
+      <c r="L57" t="s">
         <v>130</v>
       </c>
-      <c r="M54" t="s">
-        <v>253</v>
-      </c>
-      <c r="O54" t="s">
-        <v>462</v>
-      </c>
-      <c r="S54" t="s">
-        <v>75</v>
-      </c>
-      <c r="T54" t="s">
-        <v>75</v>
-      </c>
-      <c r="U54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21">
-      <c r="E55" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="F55" t="str">
-        <f>审批人规则!$E$25</f>
-        <v>hwkf_def_approver_line-24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>279</v>
-      </c>
-      <c r="H55" t="s">
-        <v>439</v>
-      </c>
-      <c r="I55" t="s">
-        <v>212</v>
-      </c>
-      <c r="J55" t="s">
-        <v>128</v>
-      </c>
-      <c r="K55" t="s">
-        <v>212</v>
-      </c>
-      <c r="L55" t="s">
-        <v>130</v>
-      </c>
-      <c r="M55" t="s">
-        <v>442</v>
-      </c>
-      <c r="N55" t="str">
+      <c r="M57" t="s">
+        <v>438</v>
+      </c>
+      <c r="N57" t="str">
         <f>流程变量!$E$8</f>
         <v>hwkf_def_variable-8</v>
       </c>
-      <c r="S55" t="s">
-        <v>75</v>
-      </c>
-      <c r="T55" t="s">
-        <v>75</v>
-      </c>
-      <c r="U55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21">
-      <c r="E56" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F56" t="str">
-        <f>审批人规则!$E$32</f>
+      <c r="S57" t="s">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21">
+      <c r="C58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F58" t="str">
+        <f>审批人规则!$E$26</f>
+        <v>hwkf_def_approver_line-24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>278</v>
+      </c>
+      <c r="H58" t="s">
+        <v>435</v>
+      </c>
+      <c r="I58" t="s">
+        <v>436</v>
+      </c>
+      <c r="J58" t="s">
+        <v>437</v>
+      </c>
+      <c r="K58" t="s">
+        <v>436</v>
+      </c>
+      <c r="L58" t="s">
+        <v>158</v>
+      </c>
+      <c r="M58" t="s">
+        <v>438</v>
+      </c>
+      <c r="N58" t="str">
+        <f>流程变量!$E$10</f>
+        <v>hwkf_def_variable-10</v>
+      </c>
+      <c r="S58" t="s">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21">
+      <c r="E59" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F59" t="str">
+        <f>审批人规则!$E$26</f>
+        <v>hwkf_def_approver_line-24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>278</v>
+      </c>
+      <c r="H59" t="s">
+        <v>435</v>
+      </c>
+      <c r="I59" t="s">
+        <v>449</v>
+      </c>
+      <c r="J59" t="s">
+        <v>450</v>
+      </c>
+      <c r="K59" t="s">
+        <v>451</v>
+      </c>
+      <c r="L59" t="s">
+        <v>130</v>
+      </c>
+      <c r="M59" t="s">
+        <v>252</v>
+      </c>
+      <c r="O59" t="s">
+        <v>458</v>
+      </c>
+      <c r="S59" t="s">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21">
+      <c r="E60" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F60" t="str">
+        <f>审批人规则!$E$26</f>
+        <v>hwkf_def_approver_line-24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>278</v>
+      </c>
+      <c r="H60" t="s">
+        <v>435</v>
+      </c>
+      <c r="I60" t="s">
+        <v>211</v>
+      </c>
+      <c r="J60" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" t="s">
+        <v>211</v>
+      </c>
+      <c r="L60" t="s">
+        <v>130</v>
+      </c>
+      <c r="M60" t="s">
+        <v>438</v>
+      </c>
+      <c r="N60" t="str">
+        <f>流程变量!$E$8</f>
+        <v>hwkf_def_variable-8</v>
+      </c>
+      <c r="S60" t="s">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21">
+      <c r="E61" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F61" t="str">
+        <f>审批人规则!$E$33</f>
         <v>hwkf_def_approver_line-31</v>
       </c>
-      <c r="G56" t="s">
-        <v>279</v>
-      </c>
-      <c r="H56" t="s">
-        <v>439</v>
-      </c>
-      <c r="I56" t="s">
-        <v>440</v>
-      </c>
-      <c r="J56" t="s">
-        <v>441</v>
-      </c>
-      <c r="K56" t="s">
-        <v>440</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="G61" t="s">
+        <v>278</v>
+      </c>
+      <c r="H61" t="s">
+        <v>435</v>
+      </c>
+      <c r="I61" t="s">
+        <v>436</v>
+      </c>
+      <c r="J61" t="s">
+        <v>437</v>
+      </c>
+      <c r="K61" t="s">
+        <v>436</v>
+      </c>
+      <c r="L61" t="s">
         <v>158</v>
       </c>
-      <c r="M56" t="s">
-        <v>442</v>
-      </c>
-      <c r="N56" t="str">
+      <c r="M61" t="s">
+        <v>438</v>
+      </c>
+      <c r="N61" t="str">
         <f>流程变量!$E$31</f>
         <v>hwkf_def_variable-31</v>
       </c>
-      <c r="S56" t="s">
-        <v>75</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:21">
-      <c r="E57" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="F57" t="str">
-        <f>审批人规则!$E$32</f>
+      <c r="S61" t="s">
+        <v>75</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21">
+      <c r="E62" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F62" t="str">
+        <f>审批人规则!$E$33</f>
         <v>hwkf_def_approver_line-31</v>
       </c>
-      <c r="G57" t="s">
-        <v>279</v>
-      </c>
-      <c r="H57" t="s">
-        <v>439</v>
-      </c>
-      <c r="I57" t="s">
-        <v>453</v>
-      </c>
-      <c r="J57" t="s">
-        <v>454</v>
-      </c>
-      <c r="K57" t="s">
-        <v>455</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="G62" t="s">
+        <v>278</v>
+      </c>
+      <c r="H62" t="s">
+        <v>435</v>
+      </c>
+      <c r="I62" t="s">
+        <v>449</v>
+      </c>
+      <c r="J62" t="s">
+        <v>450</v>
+      </c>
+      <c r="K62" t="s">
+        <v>451</v>
+      </c>
+      <c r="L62" t="s">
         <v>130</v>
       </c>
-      <c r="M57" t="s">
-        <v>253</v>
-      </c>
-      <c r="O57" t="s">
-        <v>75</v>
-      </c>
-      <c r="S57" t="s">
-        <v>75</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21">
-      <c r="E58" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="F58" t="str">
-        <f>审批人规则!$E$32</f>
+      <c r="M62" t="s">
+        <v>252</v>
+      </c>
+      <c r="O62" t="s">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s">
+        <v>75</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21">
+      <c r="E63" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F63" t="str">
+        <f>审批人规则!$E$33</f>
         <v>hwkf_def_approver_line-31</v>
       </c>
-      <c r="G58" t="s">
-        <v>279</v>
-      </c>
-      <c r="H58" t="s">
-        <v>439</v>
-      </c>
-      <c r="I58" t="s">
-        <v>212</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="G63" t="s">
+        <v>278</v>
+      </c>
+      <c r="H63" t="s">
+        <v>435</v>
+      </c>
+      <c r="I63" t="s">
+        <v>211</v>
+      </c>
+      <c r="J63" t="s">
         <v>128</v>
       </c>
-      <c r="K58" t="s">
-        <v>212</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="K63" t="s">
+        <v>211</v>
+      </c>
+      <c r="L63" t="s">
         <v>130</v>
       </c>
-      <c r="M58" t="s">
-        <v>442</v>
-      </c>
-      <c r="N58" t="str">
+      <c r="M63" t="s">
+        <v>438</v>
+      </c>
+      <c r="N63" t="str">
         <f>流程变量!$E$26</f>
         <v>hwkf_def_variable-26</v>
       </c>
-      <c r="S58" t="s">
-        <v>75</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21">
-      <c r="E59" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="F59" t="str">
-        <f>审批人规则!$E$33</f>
+      <c r="S63" t="s">
+        <v>75</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21">
+      <c r="E64" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F64" t="str">
+        <f>审批人规则!$E$34</f>
         <v>hwkf_def_approver_line-32</v>
       </c>
-      <c r="G59" t="s">
-        <v>279</v>
-      </c>
-      <c r="H59" t="s">
-        <v>439</v>
-      </c>
-      <c r="I59" t="s">
-        <v>440</v>
-      </c>
-      <c r="J59" t="s">
-        <v>441</v>
-      </c>
-      <c r="K59" t="s">
-        <v>440</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="G64" t="s">
+        <v>278</v>
+      </c>
+      <c r="H64" t="s">
+        <v>435</v>
+      </c>
+      <c r="I64" t="s">
+        <v>436</v>
+      </c>
+      <c r="J64" t="s">
+        <v>437</v>
+      </c>
+      <c r="K64" t="s">
+        <v>436</v>
+      </c>
+      <c r="L64" t="s">
         <v>158</v>
       </c>
-      <c r="M59" t="s">
-        <v>442</v>
-      </c>
-      <c r="N59" t="str">
+      <c r="M64" t="s">
+        <v>438</v>
+      </c>
+      <c r="N64" t="str">
         <f>流程变量!$E$31</f>
         <v>hwkf_def_variable-31</v>
       </c>
-      <c r="S59" t="s">
-        <v>75</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21">
-      <c r="E60" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F60" t="str">
-        <f>审批人规则!$E$33</f>
+      <c r="S64" t="s">
+        <v>75</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:21">
+      <c r="E65" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F65" t="str">
+        <f>审批人规则!$E$34</f>
         <v>hwkf_def_approver_line-32</v>
       </c>
-      <c r="G60" t="s">
-        <v>279</v>
-      </c>
-      <c r="H60" t="s">
-        <v>439</v>
-      </c>
-      <c r="I60" t="s">
-        <v>453</v>
-      </c>
-      <c r="J60" t="s">
-        <v>454</v>
-      </c>
-      <c r="K60" t="s">
-        <v>455</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="G65" t="s">
+        <v>278</v>
+      </c>
+      <c r="H65" t="s">
+        <v>435</v>
+      </c>
+      <c r="I65" t="s">
+        <v>449</v>
+      </c>
+      <c r="J65" t="s">
+        <v>450</v>
+      </c>
+      <c r="K65" t="s">
+        <v>451</v>
+      </c>
+      <c r="L65" t="s">
         <v>130</v>
       </c>
-      <c r="M60" t="s">
-        <v>253</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="M65" t="s">
+        <v>252</v>
+      </c>
+      <c r="O65" t="s">
         <v>73</v>
       </c>
-      <c r="S60" t="s">
-        <v>75</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21">
-      <c r="E61" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="F61" t="str">
-        <f>审批人规则!$E$33</f>
+      <c r="S65" t="s">
+        <v>75</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:21">
+      <c r="E66" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F66" t="str">
+        <f>审批人规则!$E$34</f>
         <v>hwkf_def_approver_line-32</v>
       </c>
-      <c r="G61" t="s">
-        <v>279</v>
-      </c>
-      <c r="H61" t="s">
-        <v>439</v>
-      </c>
-      <c r="I61" t="s">
-        <v>212</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="G66" t="s">
+        <v>278</v>
+      </c>
+      <c r="H66" t="s">
+        <v>435</v>
+      </c>
+      <c r="I66" t="s">
+        <v>211</v>
+      </c>
+      <c r="J66" t="s">
         <v>128</v>
       </c>
-      <c r="K61" t="s">
-        <v>212</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="K66" t="s">
+        <v>211</v>
+      </c>
+      <c r="L66" t="s">
         <v>130</v>
       </c>
-      <c r="M61" t="s">
-        <v>442</v>
-      </c>
-      <c r="N61" t="str">
+      <c r="M66" t="s">
+        <v>438</v>
+      </c>
+      <c r="N66" t="str">
         <f>流程变量!$E$26</f>
         <v>hwkf_def_variable-26</v>
       </c>
-      <c r="S61" t="s">
-        <v>75</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21">
-      <c r="E62" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="F62" t="str">
-        <f>审批人规则!$E$34</f>
-        <v>hwkf_def_approver_line-33</v>
-      </c>
-      <c r="G62" t="s">
-        <v>279</v>
-      </c>
-      <c r="H62" t="s">
-        <v>439</v>
-      </c>
-      <c r="I62" t="s">
-        <v>440</v>
-      </c>
-      <c r="J62" t="s">
-        <v>441</v>
-      </c>
-      <c r="K62" t="s">
-        <v>440</v>
-      </c>
-      <c r="L62" t="s">
-        <v>158</v>
-      </c>
-      <c r="M62" t="s">
-        <v>442</v>
-      </c>
-      <c r="N62" t="str">
-        <f>流程变量!$E$31</f>
-        <v>hwkf_def_variable-31</v>
-      </c>
-      <c r="S62" t="s">
-        <v>75</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21">
-      <c r="E63" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F63" t="str">
-        <f>审批人规则!$E$34</f>
-        <v>hwkf_def_approver_line-33</v>
-      </c>
-      <c r="G63" t="s">
-        <v>279</v>
-      </c>
-      <c r="H63" t="s">
-        <v>439</v>
-      </c>
-      <c r="I63" t="s">
-        <v>453</v>
-      </c>
-      <c r="J63" t="s">
-        <v>454</v>
-      </c>
-      <c r="K63" t="s">
-        <v>455</v>
-      </c>
-      <c r="L63" t="s">
-        <v>130</v>
-      </c>
-      <c r="M63" t="s">
-        <v>253</v>
-      </c>
-      <c r="O63" t="s">
-        <v>462</v>
-      </c>
-      <c r="S63" t="s">
-        <v>75</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:21">
-      <c r="E64" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F64" t="str">
-        <f>审批人规则!$E$34</f>
-        <v>hwkf_def_approver_line-33</v>
-      </c>
-      <c r="G64" t="s">
-        <v>279</v>
-      </c>
-      <c r="H64" t="s">
-        <v>439</v>
-      </c>
-      <c r="I64" t="s">
-        <v>212</v>
-      </c>
-      <c r="J64" t="s">
-        <v>128</v>
-      </c>
-      <c r="K64" t="s">
-        <v>212</v>
-      </c>
-      <c r="L64" t="s">
-        <v>130</v>
-      </c>
-      <c r="M64" t="s">
-        <v>442</v>
-      </c>
-      <c r="N64" t="str">
-        <f>流程变量!$E$26</f>
-        <v>hwkf_def_variable-26</v>
-      </c>
-      <c r="S64" t="s">
-        <v>75</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="5:21">
-      <c r="E65" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F65" t="str">
-        <f>审批人规则!$E$29</f>
-        <v>hwkf_def_approver_line-28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>279</v>
-      </c>
-      <c r="H65" t="s">
-        <v>439</v>
-      </c>
-      <c r="I65" t="s">
-        <v>212</v>
-      </c>
-      <c r="J65" t="s">
-        <v>128</v>
-      </c>
-      <c r="K65" t="s">
-        <v>212</v>
-      </c>
-      <c r="L65" t="s">
-        <v>130</v>
-      </c>
-      <c r="M65" t="s">
-        <v>442</v>
-      </c>
-      <c r="N65" t="str">
-        <f>流程变量!$E$26</f>
-        <v>hwkf_def_variable-26</v>
-      </c>
-      <c r="S65" t="s">
-        <v>75</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:21">
-      <c r="E66" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F66" t="str">
-        <f>审批人规则!$E$29</f>
-        <v>hwkf_def_approver_line-28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>279</v>
-      </c>
-      <c r="H66" t="s">
-        <v>439</v>
-      </c>
-      <c r="I66" t="s">
-        <v>448</v>
-      </c>
-      <c r="J66" t="s">
-        <v>449</v>
-      </c>
-      <c r="K66" t="s">
-        <v>450</v>
-      </c>
-      <c r="L66" t="s">
-        <v>158</v>
-      </c>
-      <c r="M66" t="s">
-        <v>349</v>
-      </c>
-      <c r="P66" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>365</v>
-      </c>
       <c r="S66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -11135,32 +11316,32 @@
     </row>
     <row r="67" spans="5:21">
       <c r="E67" s="5" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F67" t="str">
-        <f>审批人规则!$E$30</f>
-        <v>hwkf_def_approver_line-29</v>
+        <f>审批人规则!$E$35</f>
+        <v>hwkf_def_approver_line-33</v>
       </c>
       <c r="G67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H67" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I67" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J67" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K67" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s">
         <v>158</v>
       </c>
       <c r="M67" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N67" t="str">
         <f>流程变量!$E$31</f>
@@ -11178,80 +11359,79 @@
     </row>
     <row r="68" spans="5:21">
       <c r="E68" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F68" t="str">
-        <f>审批人规则!$E$30</f>
-        <v>hwkf_def_approver_line-29</v>
+        <f>审批人规则!$E$35</f>
+        <v>hwkf_def_approver_line-33</v>
       </c>
       <c r="G68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H68" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I68" t="s">
-        <v>212</v>
+        <v>449</v>
       </c>
       <c r="J68" t="s">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="K68" t="s">
-        <v>212</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s">
         <v>130</v>
       </c>
       <c r="M68" t="s">
-        <v>442</v>
-      </c>
-      <c r="N68" t="str">
+        <v>252</v>
+      </c>
+      <c r="O68" t="s">
+        <v>458</v>
+      </c>
+      <c r="S68" t="s">
+        <v>75</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:21">
+      <c r="E69" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F69" t="str">
+        <f>审批人规则!$E$35</f>
+        <v>hwkf_def_approver_line-33</v>
+      </c>
+      <c r="G69" t="s">
+        <v>278</v>
+      </c>
+      <c r="H69" t="s">
+        <v>435</v>
+      </c>
+      <c r="I69" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69" t="s">
+        <v>128</v>
+      </c>
+      <c r="K69" t="s">
+        <v>211</v>
+      </c>
+      <c r="L69" t="s">
+        <v>130</v>
+      </c>
+      <c r="M69" t="s">
+        <v>438</v>
+      </c>
+      <c r="N69" t="str">
         <f>流程变量!$E$26</f>
         <v>hwkf_def_variable-26</v>
       </c>
-      <c r="S68" t="s">
-        <v>75</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="5:21">
-      <c r="E69" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F69" t="str">
-        <f>审批人规则!$E$31</f>
-        <v>hwkf_def_approver_line-30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>279</v>
-      </c>
-      <c r="H69" t="s">
-        <v>439</v>
-      </c>
-      <c r="I69" t="s">
-        <v>440</v>
-      </c>
-      <c r="J69" t="s">
-        <v>441</v>
-      </c>
-      <c r="K69" t="s">
-        <v>440</v>
-      </c>
-      <c r="L69" t="s">
-        <v>158</v>
-      </c>
-      <c r="M69" t="s">
-        <v>442</v>
-      </c>
-      <c r="N69" t="str">
-        <f>流程变量!$E$31</f>
-        <v>hwkf_def_variable-31</v>
-      </c>
       <c r="S69" t="s">
         <v>75</v>
       </c>
@@ -11264,32 +11444,32 @@
     </row>
     <row r="70" spans="5:21">
       <c r="E70" s="5" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F70" t="str">
-        <f>审批人规则!$E$31</f>
-        <v>hwkf_def_approver_line-30</v>
+        <f>审批人规则!$E$30</f>
+        <v>hwkf_def_approver_line-28</v>
       </c>
       <c r="G70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H70" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J70" t="s">
         <v>128</v>
       </c>
       <c r="K70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L70" t="s">
         <v>130</v>
       </c>
       <c r="M70" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N70" t="str">
         <f>流程变量!$E$26</f>
@@ -11302,6 +11482,314 @@
         <v>0</v>
       </c>
       <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:21">
+      <c r="E71" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F71" t="str">
+        <f>审批人规则!$E$30</f>
+        <v>hwkf_def_approver_line-28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>278</v>
+      </c>
+      <c r="H71" t="s">
+        <v>435</v>
+      </c>
+      <c r="I71" t="s">
+        <v>444</v>
+      </c>
+      <c r="J71" t="s">
+        <v>445</v>
+      </c>
+      <c r="K71" t="s">
+        <v>446</v>
+      </c>
+      <c r="L71" t="s">
+        <v>158</v>
+      </c>
+      <c r="M71" t="s">
+        <v>346</v>
+      </c>
+      <c r="P71" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>362</v>
+      </c>
+      <c r="S71" t="s">
+        <v>73</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:21">
+      <c r="E72" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F72" t="str">
+        <f>审批人规则!$E$31</f>
+        <v>hwkf_def_approver_line-29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>278</v>
+      </c>
+      <c r="H72" t="s">
+        <v>435</v>
+      </c>
+      <c r="I72" t="s">
+        <v>436</v>
+      </c>
+      <c r="J72" t="s">
+        <v>437</v>
+      </c>
+      <c r="K72" t="s">
+        <v>436</v>
+      </c>
+      <c r="L72" t="s">
+        <v>158</v>
+      </c>
+      <c r="M72" t="s">
+        <v>438</v>
+      </c>
+      <c r="N72" t="str">
+        <f>流程变量!$E$31</f>
+        <v>hwkf_def_variable-31</v>
+      </c>
+      <c r="S72" t="s">
+        <v>75</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:21">
+      <c r="E73" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F73" t="str">
+        <f>审批人规则!$E$31</f>
+        <v>hwkf_def_approver_line-29</v>
+      </c>
+      <c r="G73" t="s">
+        <v>278</v>
+      </c>
+      <c r="H73" t="s">
+        <v>435</v>
+      </c>
+      <c r="I73" t="s">
+        <v>211</v>
+      </c>
+      <c r="J73" t="s">
+        <v>128</v>
+      </c>
+      <c r="K73" t="s">
+        <v>211</v>
+      </c>
+      <c r="L73" t="s">
+        <v>130</v>
+      </c>
+      <c r="M73" t="s">
+        <v>438</v>
+      </c>
+      <c r="N73" t="str">
+        <f>流程变量!$E$26</f>
+        <v>hwkf_def_variable-26</v>
+      </c>
+      <c r="S73" t="s">
+        <v>75</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:21">
+      <c r="E74" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F74" t="str">
+        <f>审批人规则!$E$32</f>
+        <v>hwkf_def_approver_line-30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>278</v>
+      </c>
+      <c r="H74" t="s">
+        <v>435</v>
+      </c>
+      <c r="I74" t="s">
+        <v>436</v>
+      </c>
+      <c r="J74" t="s">
+        <v>437</v>
+      </c>
+      <c r="K74" t="s">
+        <v>436</v>
+      </c>
+      <c r="L74" t="s">
+        <v>158</v>
+      </c>
+      <c r="M74" t="s">
+        <v>438</v>
+      </c>
+      <c r="N74" t="str">
+        <f>流程变量!$E$31</f>
+        <v>hwkf_def_variable-31</v>
+      </c>
+      <c r="S74" t="s">
+        <v>75</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:21">
+      <c r="E75" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F75" t="str">
+        <f>审批人规则!$E$32</f>
+        <v>hwkf_def_approver_line-30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>278</v>
+      </c>
+      <c r="H75" t="s">
+        <v>435</v>
+      </c>
+      <c r="I75" t="s">
+        <v>211</v>
+      </c>
+      <c r="J75" t="s">
+        <v>128</v>
+      </c>
+      <c r="K75" t="s">
+        <v>211</v>
+      </c>
+      <c r="L75" t="s">
+        <v>130</v>
+      </c>
+      <c r="M75" t="s">
+        <v>438</v>
+      </c>
+      <c r="N75" t="str">
+        <f>流程变量!$E$26</f>
+        <v>hwkf_def_variable-26</v>
+      </c>
+      <c r="S75" t="s">
+        <v>75</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:21">
+      <c r="E76" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F76" t="str">
+        <f>审批人规则!$E$38</f>
+        <v>hwkf_def_approver_line-36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="I76" t="s">
+        <v>650</v>
+      </c>
+      <c r="J76" t="s">
+        <v>648</v>
+      </c>
+      <c r="K76" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="L76" t="s">
+        <v>130</v>
+      </c>
+      <c r="M76" t="s">
+        <v>438</v>
+      </c>
+      <c r="N76" t="str">
+        <f>流程变量!$E$35</f>
+        <v>hwkf_def_variable-35</v>
+      </c>
+      <c r="S76" t="s">
+        <v>75</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:21">
+      <c r="E77" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F77" t="str">
+        <f>审批人规则!$E$38</f>
+        <v>hwkf_def_approver_line-36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>278</v>
+      </c>
+      <c r="H77" t="s">
+        <v>435</v>
+      </c>
+      <c r="I77" t="s">
+        <v>643</v>
+      </c>
+      <c r="J77" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="K77" s="34" t="s">
+        <v>681</v>
+      </c>
+      <c r="L77" t="s">
+        <v>158</v>
+      </c>
+      <c r="M77" t="s">
+        <v>346</v>
+      </c>
+      <c r="P77" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>683</v>
+      </c>
+      <c r="R77" t="s">
+        <v>137</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
         <v>0</v>
       </c>
     </row>
@@ -11315,12 +11803,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="34.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
@@ -11359,46 +11848,46 @@
         <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="I7" t="s">
         <v>336</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" t="s">
         <v>337</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>339</v>
       </c>
-      <c r="J7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
+        <v>299</v>
+      </c>
+      <c r="O7" t="s">
         <v>340</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="M7" t="s">
-        <v>342</v>
-      </c>
-      <c r="N7" t="s">
-        <v>300</v>
-      </c>
-      <c r="O7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="Q7" t="s">
         <v>60</v>
@@ -11412,30 +11901,30 @@
     </row>
     <row r="8" spans="1:19">
       <c r="E8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F8" t="str">
         <f>审批人规则!$E$9</f>
         <v>hwkf_def_approver_rule-9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L8" t="str">
         <f>流程变量!$E$10</f>
         <v>hwkf_def_variable-10</v>
       </c>
       <c r="N8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O8" t="s">
         <v>73</v>
@@ -11452,33 +11941,33 @@
     </row>
     <row r="9" spans="1:19">
       <c r="E9" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F9" t="str">
         <f>审批人规则!$E$13</f>
         <v>hwkf_def_approver_rule-13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L9" t="str">
         <f>流程变量!$E$31</f>
         <v>hwkf_def_variable-31</v>
       </c>
       <c r="N9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O9" t="s">
         <v>73</v>
@@ -11495,33 +11984,33 @@
     </row>
     <row r="10" spans="1:19">
       <c r="E10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F10" t="str">
         <f>审批人规则!$E$14</f>
         <v>hwkf_def_approver_rule-14</v>
       </c>
       <c r="G10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L10" t="str">
         <f>流程变量!$E$11</f>
         <v>hwkf_def_variable-11</v>
       </c>
       <c r="N10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -11585,22 +12074,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>118</v>
@@ -11615,25 +12104,25 @@
         <v>121</v>
       </c>
       <c r="M7" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="O7" t="s">
         <v>123</v>
       </c>
       <c r="P7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>294</v>
       </c>
       <c r="R7" t="s">
         <v>122</v>
       </c>
       <c r="S7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T7" t="s">
         <v>124</v>
@@ -11695,43 +12184,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H7" t="s">
         <v>490</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" t="s">
         <v>491</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="J7" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="K7" t="s">
         <v>493</v>
-      </c>
-      <c r="H7" t="s">
-        <v>494</v>
-      </c>
-      <c r="I7" t="s">
-        <v>495</v>
-      </c>
-      <c r="J7" t="s">
-        <v>496</v>
-      </c>
-      <c r="K7" t="s">
-        <v>497</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P7" t="s">
         <v>124</v>
@@ -11742,35 +12231,35 @@
     </row>
     <row r="8" spans="1:17">
       <c r="E8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F8" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P8" t="s">
         <v>75</v>
@@ -11781,35 +12270,35 @@
     </row>
     <row r="9" spans="1:17">
       <c r="E9" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F9" t="str">
         <f>流程分类!$E$9</f>
         <v>hwkf_def_type-9</v>
       </c>
       <c r="G9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P9" t="s">
         <v>75</v>
@@ -11820,35 +12309,35 @@
     </row>
     <row r="10" spans="1:17">
       <c r="E10" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F10" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -11859,35 +12348,35 @@
     </row>
     <row r="11" spans="1:17">
       <c r="E11" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F11" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -11898,29 +12387,29 @@
     </row>
     <row r="12" spans="1:17">
       <c r="E12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F12" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L12" t="s">
         <v>73</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -11931,29 +12420,29 @@
     </row>
     <row r="13" spans="1:17">
       <c r="E13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F13" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L13" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -11964,29 +12453,29 @@
     </row>
     <row r="14" spans="1:17">
       <c r="E14" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F14" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L14" t="s">
         <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -11997,29 +12486,29 @@
     </row>
     <row r="15" spans="1:17">
       <c r="E15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F15" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G15" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L15" t="s">
         <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -12030,29 +12519,29 @@
     </row>
     <row r="16" spans="1:17">
       <c r="E16" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F16" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -12063,29 +12552,29 @@
     </row>
     <row r="17" spans="5:17">
       <c r="E17" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F17" t="str">
         <f>流程分类!$E$10</f>
         <v>hwkf_def_type-10</v>
       </c>
       <c r="G17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P17">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/workflow_service/hzero-workflow-def.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/workflow-service/src/main/resources/script/db/init-data/workflow_service/workflow_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A971901F-B4E7-B24C-998E-DCE6773283DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C47A9F9-301D-464A-9204-EABCAA0EFCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="684">
   <si>
     <r>
       <rPr>
@@ -3948,10 +3948,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>指定项目</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Specify project</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -4039,6 +4035,10 @@
   </si>
   <si>
     <t>查租户角色，不带加密</t>
+  </si>
+  <si>
+    <t>指定项目角色</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8881,8 +8881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L43" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -10113,7 +10113,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="E38" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F38" t="str">
         <f>审批人规则!$E$15</f>
@@ -10123,20 +10123,20 @@
         <v>657</v>
       </c>
       <c r="H38" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="I38" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="J38" s="34" t="s">
         <v>659</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>660</v>
       </c>
       <c r="L38" t="str">
         <f>接口定义!$E$14</f>
         <v>hwkf_def_interface-14</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O38" s="8">
         <v>1</v>
@@ -10162,7 +10162,7 @@
         <v>421</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>422</v>
@@ -10211,20 +10211,20 @@
       <c r="C41" s="5"/>
       <c r="D41" s="1"/>
       <c r="E41" s="34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F41" t="str">
         <f>审批人规则!$E$38</f>
         <v>hwkf_def_approver_line-36</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J41">
         <v>150</v>
@@ -10258,20 +10258,20 @@
       <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="E42" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F42" t="str">
         <f>审批人规则!$E$38</f>
         <v>hwkf_def_approver_line-36</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J42">
         <v>150</v>
@@ -10305,20 +10305,20 @@
       <c r="C43" s="5"/>
       <c r="D43" s="1"/>
       <c r="E43" s="34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F43" t="str">
         <f>审批人规则!$E$38</f>
         <v>hwkf_def_approver_line-36</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J43">
         <v>150</v>
@@ -10359,7 +10359,7 @@
         <v>433</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>116</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="76" spans="5:21">
       <c r="E76" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F76" t="str">
         <f>审批人规则!$E$38</f>
@@ -11714,7 +11714,7 @@
         <v>278</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I76" t="s">
         <v>650</v>
@@ -11735,6 +11735,9 @@
         <f>流程变量!$E$35</f>
         <v>hwkf_def_variable-35</v>
       </c>
+      <c r="R76" t="s">
+        <v>131</v>
+      </c>
       <c r="S76" t="s">
         <v>75</v>
       </c>
@@ -11747,7 +11750,7 @@
     </row>
     <row r="77" spans="5:21">
       <c r="E77" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F77" t="str">
         <f>审批人规则!$E$38</f>
@@ -11763,10 +11766,10 @@
         <v>643</v>
       </c>
       <c r="J77" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="K77" s="34" t="s">
         <v>680</v>
-      </c>
-      <c r="K77" s="34" t="s">
-        <v>681</v>
       </c>
       <c r="L77" t="s">
         <v>158</v>
@@ -11775,10 +11778,10 @@
         <v>346</v>
       </c>
       <c r="P77" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q77" t="s">
         <v>682</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>683</v>
       </c>
       <c r="R77" t="s">
         <v>137</v>
